--- a/日志.xlsx
+++ b/日志.xlsx
@@ -4,21 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19500" windowHeight="10335" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19500" windowHeight="10335"/>
   </bookViews>
   <sheets>
     <sheet name="执行计划" sheetId="1" r:id="rId1"/>
     <sheet name="万新" sheetId="2" r:id="rId2"/>
+    <sheet name="李媛琪" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="142">
-  <si>
-    <t>公平价销售团队2013年执行计划</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="142">
   <si>
     <t>日  期</t>
   </si>
@@ -479,6 +477,10 @@
   </si>
   <si>
     <t>2、整理小型车排名报告</t>
+  </si>
+  <si>
+    <t>公平价网络推广团队2013年执行计划</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -752,7 +754,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -937,6 +939,21 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -946,28 +963,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -979,10 +990,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1332,8 +1343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1347,476 +1358,476 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
+      <c r="A1" s="71" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
     </row>
     <row r="2" spans="1:5" s="46" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="C2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="D2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="E2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="51" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="72" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="67" t="s">
+      <c r="B3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="C3" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="D3" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="E3" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="71" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69"/>
+    </row>
+    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69"/>
+    </row>
+    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="69"/>
+    </row>
+    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="72"/>
+      <c r="B7" s="73" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="71"/>
-    </row>
-    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="67"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="71"/>
-    </row>
-    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="67"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="71"/>
-    </row>
-    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="67"/>
-      <c r="B7" s="68" t="s">
+      <c r="C7" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="D7" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="E7" s="69"/>
+    </row>
+    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="72"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="69"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="72"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="69"/>
+    </row>
+    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="72"/>
+      <c r="B10" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="71"/>
-    </row>
-    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="67"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="71"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="67"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="71"/>
-    </row>
-    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="67"/>
-      <c r="B10" s="68" t="s">
+      <c r="C10" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="D10" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="69" t="s">
+      <c r="E10" s="70"/>
+    </row>
+    <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="72"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="70"/>
+    </row>
+    <row r="12" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="72"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="70"/>
+    </row>
+    <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="72"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="70"/>
+    </row>
+    <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="72"/>
+      <c r="B14" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="72"/>
-    </row>
-    <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="67"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="72"/>
-    </row>
-    <row r="12" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="67"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="72"/>
-    </row>
-    <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="67"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="72"/>
-    </row>
-    <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="67"/>
-      <c r="B14" s="68" t="s">
+      <c r="C14" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="70"/>
+    </row>
+    <row r="15" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="72"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="70"/>
+    </row>
+    <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="72"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="70"/>
+    </row>
+    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="72"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="70"/>
+    </row>
+    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="72"/>
+      <c r="B18" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="72"/>
-    </row>
-    <row r="15" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="67"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="72"/>
-    </row>
-    <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="67"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="72"/>
-    </row>
-    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="67"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="72"/>
-    </row>
-    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="67"/>
-      <c r="B18" s="68" t="s">
+      <c r="C18" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="D18" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="69" t="s">
+      <c r="E18" s="70"/>
+    </row>
+    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="72"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="70"/>
+    </row>
+    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="72"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="70"/>
+    </row>
+    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="72"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="70"/>
+    </row>
+    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="72"/>
+      <c r="B22" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="72"/>
-    </row>
-    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="67"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="72"/>
-    </row>
-    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="67"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="72"/>
-    </row>
-    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="67"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="72"/>
-    </row>
-    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="67"/>
-      <c r="B22" s="68" t="s">
+      <c r="C22" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="69" t="s">
+      <c r="D22" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="69" t="s">
+      <c r="E22" s="70"/>
+    </row>
+    <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="72"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="70"/>
+    </row>
+    <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="72"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="70"/>
+    </row>
+    <row r="25" spans="1:6" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="72"/>
+      <c r="B25" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="72"/>
-    </row>
-    <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="67"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="72"/>
-    </row>
-    <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="67"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="72"/>
-    </row>
-    <row r="25" spans="1:6" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="67"/>
-      <c r="B25" s="68" t="s">
+      <c r="C25" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="69" t="s">
+      <c r="D25" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="71" t="s">
+      <c r="E25" s="69"/>
+    </row>
+    <row r="26" spans="1:6" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="72"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+    </row>
+    <row r="27" spans="1:6" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="72"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+    </row>
+    <row r="28" spans="1:6" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="72"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+    </row>
+    <row r="29" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="72"/>
+      <c r="B29" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="71"/>
-    </row>
-    <row r="26" spans="1:6" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="67"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-    </row>
-    <row r="27" spans="1:6" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="67"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-    </row>
-    <row r="28" spans="1:6" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="67"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-    </row>
-    <row r="29" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="67"/>
-      <c r="B29" s="53" t="s">
+      <c r="C29" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="D29" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="36" t="s">
+    </row>
+    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="72"/>
+      <c r="B30" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="67"/>
-      <c r="B30" s="8" t="s">
+      <c r="C30" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="D30" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="36" t="s">
+    </row>
+    <row r="31" spans="1:6" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="72"/>
+      <c r="B31" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="67"/>
-      <c r="B31" s="8" t="s">
+      <c r="C31" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="4" t="s">
+      <c r="F31" s="55"/>
+    </row>
+    <row r="32" spans="1:6" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="72"/>
+      <c r="B32" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="55"/>
-    </row>
-    <row r="32" spans="1:6" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="67"/>
-      <c r="B32" s="8" t="s">
+      <c r="C32" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="55"/>
+    </row>
+    <row r="33" spans="1:6" s="47" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="72"/>
+      <c r="B33" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32" s="55"/>
-    </row>
-    <row r="33" spans="1:6" s="47" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="67"/>
-      <c r="B33" s="53" t="s">
+      <c r="C33" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="54" t="s">
+      <c r="D33" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="57" t="s">
+      <c r="E33" s="54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="72"/>
+      <c r="B34" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="54" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="67"/>
-      <c r="B34" s="53" t="s">
+      <c r="C34" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="58" t="s">
+      <c r="E34" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="72"/>
+      <c r="B35" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="67"/>
-      <c r="B35" s="8" t="s">
+      <c r="C35" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="57" t="s">
+      <c r="E35" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="36" t="s">
+    </row>
+    <row r="36" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="72"/>
+      <c r="B36" s="53" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="67"/>
-      <c r="B36" s="53" t="s">
+      <c r="C36" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="57" t="s">
+      <c r="E36" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="36" t="s">
+    </row>
+    <row r="37" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="72"/>
+      <c r="B37" s="53" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="67"/>
-      <c r="B37" s="53" t="s">
+      <c r="C37" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="57" t="s">
-        <v>48</v>
-      </c>
       <c r="E37" s="36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="48" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="59"/>
       <c r="B38" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="D38" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="61" t="s">
-        <v>51</v>
-      </c>
       <c r="E38" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="52"/>
       <c r="B39" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="D39" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="62" t="s">
-        <v>54</v>
-      </c>
       <c r="E39" s="36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F39" s="55"/>
     </row>
     <row r="40" spans="1:6" s="26" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="63"/>
       <c r="B40" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="36" t="s">
-        <v>56</v>
-      </c>
       <c r="D40" s="64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="26" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" s="65" t="s">
-        <v>58</v>
-      </c>
       <c r="E41" s="32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="36" t="s">
         <v>59</v>
-      </c>
-      <c r="C42" s="36" t="s">
-        <v>60</v>
       </c>
       <c r="D42" s="57"/>
       <c r="E42" s="36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="36" t="s">
         <v>61</v>
-      </c>
-      <c r="C43" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="E43" s="36" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="36" t="s">
+      <c r="E44" s="36" t="s">
         <v>64</v>
-      </c>
-      <c r="E44" s="36" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1835,20 +1846,6 @@
     <row r="58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="D18:D21"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:A37"/>
     <mergeCell ref="B3:B6"/>
@@ -1865,6 +1862,20 @@
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="C25:C28"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="D18:D21"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1877,8 +1888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1892,335 +1903,335 @@
   <sheetData>
     <row r="1" spans="1:5" s="23" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="E1" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="28" t="s">
+    </row>
+    <row r="2" spans="1:5" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="78">
+        <v>41521</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="73">
-        <v>41521</v>
-      </c>
-      <c r="B2" s="29" t="s">
+      <c r="C2" s="24" t="s">
         <v>70</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>71</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="74"/>
+      <c r="A3" s="83"/>
       <c r="B3" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>72</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>73</v>
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:5" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="75"/>
+      <c r="A4" s="79"/>
       <c r="B4" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="73">
+      <c r="A5" s="78">
         <v>41522</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="83"/>
+      <c r="B6" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="E5" s="24"/>
-    </row>
-    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="74"/>
-      <c r="B6" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="C6" s="32"/>
       <c r="D6" s="32"/>
       <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="74"/>
+      <c r="A7" s="83"/>
       <c r="B7" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
       <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="75"/>
+      <c r="A8" s="79"/>
       <c r="B8" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="73">
+      <c r="A9" s="78">
         <v>41523</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="32"/>
       <c r="E9" s="25"/>
     </row>
     <row r="10" spans="1:5" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="74"/>
+      <c r="A10" s="83"/>
       <c r="B10" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="32"/>
       <c r="E10" s="25"/>
     </row>
     <row r="11" spans="1:5" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="74"/>
+      <c r="A11" s="83"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="34"/>
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="73">
+      <c r="A12" s="78">
         <v>41524</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="32"/>
       <c r="E12" s="25"/>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="74"/>
+      <c r="A13" s="83"/>
       <c r="B13" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="36"/>
       <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="75"/>
+      <c r="A14" s="79"/>
       <c r="B14" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="75">
+        <v>41525</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="76">
-        <v>41525</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="77"/>
+      <c r="A16" s="80"/>
       <c r="B16" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:5" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="77"/>
+      <c r="A17" s="80"/>
       <c r="B17" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" s="41"/>
       <c r="D17" s="41"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="76">
+      <c r="A18" s="75">
         <v>41526</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="77"/>
+      <c r="A19" s="80"/>
       <c r="B19" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="77"/>
+      <c r="A20" s="80"/>
       <c r="B20" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="77"/>
+      <c r="A21" s="80"/>
       <c r="B21" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C21" s="41"/>
       <c r="D21" s="41"/>
       <c r="E21" s="42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="81">
+        <v>41527</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="78">
-        <v>41527</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>95</v>
       </c>
       <c r="C22" s="36"/>
       <c r="D22" s="36"/>
     </row>
     <row r="23" spans="1:5" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="79"/>
+      <c r="A23" s="82"/>
       <c r="B23" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C23" s="34"/>
       <c r="D23" s="34"/>
     </row>
     <row r="24" spans="1:5" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="76">
+      <c r="A24" s="75">
         <v>41528</v>
       </c>
       <c r="B24" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="75"/>
+      <c r="B25" s="20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="76"/>
-      <c r="B25" s="20" t="s">
+    <row r="26" spans="1:5" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="75"/>
+      <c r="B26" s="20" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="76"/>
-      <c r="B26" s="20" t="s">
+    <row r="27" spans="1:5" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="75"/>
+      <c r="B27" s="7" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="76"/>
-      <c r="B27" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="C27" s="41"/>
       <c r="D27" s="41"/>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="76">
+      <c r="A28" s="75">
         <v>41529</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="77"/>
+      <c r="A29" s="80"/>
       <c r="B29" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="77"/>
+      <c r="A30" s="80"/>
       <c r="B30" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:5" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="77"/>
+      <c r="A31" s="80"/>
       <c r="B31" s="37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31" s="41"/>
       <c r="D31" s="41"/>
     </row>
     <row r="32" spans="1:5" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="76">
+      <c r="A32" s="75">
         <v>41530</v>
       </c>
       <c r="B32" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="80"/>
+      <c r="B33" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="77"/>
-      <c r="B33" s="8" t="s">
+    <row r="34" spans="1:2" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="80"/>
+      <c r="B34" s="20" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="77"/>
-      <c r="B34" s="20" t="s">
+    <row r="35" spans="1:2" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="80"/>
+      <c r="B35" s="21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="77"/>
-      <c r="B35" s="21" t="s">
+    <row r="36" spans="1:2" s="39" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="76">
+        <v>41531</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="39" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="80">
-        <v>41531</v>
-      </c>
-      <c r="B36" s="11" t="s">
+    <row r="37" spans="1:2" s="39" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="77"/>
+      <c r="B37" s="11" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" s="39" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="81"/>
-      <c r="B37" s="11" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:2" s="39" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2228,49 +2239,49 @@
         <v>41532</v>
       </c>
       <c r="B38" s="43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="78">
+        <v>41533</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="73">
-        <v>41533</v>
-      </c>
-      <c r="B39" s="8" t="s">
+    <row r="40" spans="1:2" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="79"/>
+      <c r="B40" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="75"/>
-      <c r="B40" s="7" t="s">
+    <row r="41" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="78">
+        <v>41534</v>
+      </c>
+      <c r="B41" s="20" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="73">
-        <v>41534</v>
-      </c>
-      <c r="B41" s="20" t="s">
+    <row r="42" spans="1:2" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="79"/>
+      <c r="B42" s="20" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:2" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="75"/>
-      <c r="B42" s="20" t="s">
+    <row r="43" spans="1:2" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="75">
+        <v>41535</v>
+      </c>
+      <c r="B43" s="44" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="76">
-        <v>41535</v>
-      </c>
-      <c r="B43" s="44" t="s">
+    <row r="44" spans="1:2" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="75"/>
+      <c r="B44" s="21" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="76"/>
-      <c r="B44" s="21" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2278,7 +2289,7 @@
         <v>41536</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="39" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2286,7 +2297,7 @@
         <v>41537</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:2" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2294,111 +2305,111 @@
         <v>41538</v>
       </c>
       <c r="B47" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="75">
+        <v>41539</v>
+      </c>
+      <c r="B48" s="44" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:2" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="76">
-        <v>41539</v>
-      </c>
-      <c r="B48" s="44" t="s">
+    <row r="49" spans="1:2" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="75"/>
+      <c r="B49" s="21" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:2" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="76"/>
-      <c r="B49" s="21" t="s">
+    <row r="50" spans="1:2" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="76">
+        <v>41540</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:2" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="80">
-        <v>41540</v>
-      </c>
-      <c r="B50" s="9" t="s">
+    <row r="51" spans="1:2" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="77"/>
+      <c r="B51" s="25" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="81"/>
-      <c r="B51" s="25" t="s">
+    <row r="52" spans="1:2" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="76">
+        <v>41541</v>
+      </c>
+      <c r="B52" s="24" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="80">
-        <v>41541</v>
-      </c>
-      <c r="B52" s="24" t="s">
+    <row r="53" spans="1:2" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="77"/>
+      <c r="B53" s="25" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="81"/>
-      <c r="B53" s="25" t="s">
+    <row r="54" spans="1:2" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="75">
+        <v>41542</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="75"/>
+      <c r="B55" s="25" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:2" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="76">
-        <v>41542</v>
-      </c>
-      <c r="B54" s="24" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="76"/>
-      <c r="B55" s="25" t="s">
+    <row r="56" spans="1:2" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="75"/>
+      <c r="B56" s="25" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="56" spans="1:2" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="76"/>
-      <c r="B56" s="25" t="s">
+    <row r="57" spans="1:2" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="75">
+        <v>41543</v>
+      </c>
+      <c r="B57" s="24" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="57" spans="1:2" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="76">
-        <v>41543</v>
-      </c>
-      <c r="B57" s="24" t="s">
+    <row r="58" spans="1:2" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="75"/>
+      <c r="B58" s="25" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:2" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="76"/>
-      <c r="B58" s="25" t="s">
+    <row r="59" spans="1:2" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="75">
+        <v>41544</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="75"/>
+      <c r="B60" s="25" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="59" spans="1:2" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="76">
-        <v>41544</v>
-      </c>
-      <c r="B59" s="24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="76"/>
-      <c r="B60" s="25" t="s">
+    <row r="61" spans="1:2" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="75">
+        <v>41545</v>
+      </c>
+      <c r="B61" s="24" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="61" spans="1:2" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="76">
-        <v>41545</v>
-      </c>
-      <c r="B61" s="24" t="s">
+    <row r="62" spans="1:2" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="75"/>
+      <c r="B62" s="10" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="76"/>
-      <c r="B62" s="10" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:2" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2406,21 +2417,21 @@
         <v>41546</v>
       </c>
       <c r="B63" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="76">
+        <v>41547</v>
+      </c>
+      <c r="B64" s="25" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="64" spans="1:2" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="80">
-        <v>41547</v>
-      </c>
-      <c r="B64" s="25" t="s">
+    <row r="65" spans="1:2" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="77"/>
+      <c r="B65" s="10" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="81"/>
-      <c r="B65" s="10" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:2" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2428,7 +2439,7 @@
         <v>41548</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:2" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2436,35 +2447,35 @@
         <v>41549</v>
       </c>
       <c r="B67" s="25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="75">
+        <v>41550</v>
+      </c>
+      <c r="B68" s="24" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="68" spans="1:2" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="76">
-        <v>41550</v>
-      </c>
-      <c r="B68" s="24" t="s">
+    <row r="69" spans="1:2" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="75"/>
+      <c r="B69" s="10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="1:2" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="76"/>
-      <c r="B69" s="10" t="s">
+    <row r="70" spans="1:2" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="75">
+        <v>41551</v>
+      </c>
+      <c r="B70" s="9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="70" spans="1:2" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="76">
-        <v>41551</v>
-      </c>
-      <c r="B70" s="9" t="s">
+    <row r="71" spans="1:2" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="75"/>
+      <c r="B71" s="10" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="76"/>
-      <c r="B71" s="10" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:2" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2476,6 +2487,21 @@
     <row r="76" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A48:A49"/>
     <mergeCell ref="A61:A62"/>
     <mergeCell ref="A64:A65"/>
     <mergeCell ref="A68:A69"/>
@@ -2485,25 +2511,105 @@
     <mergeCell ref="A54:A56"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.25" customWidth="1"/>
+    <col min="3" max="3" width="38.75" customWidth="1"/>
+    <col min="4" max="4" width="35" customWidth="1"/>
+    <col min="5" max="5" width="32.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="67">
+        <v>41552</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="84"/>
+    </row>
+    <row r="4" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="84"/>
+    </row>
+    <row r="5" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="84"/>
+    </row>
+    <row r="6" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="84"/>
+    </row>
+    <row r="7" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="84"/>
+    </row>
+    <row r="8" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="84"/>
+    </row>
+    <row r="9" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="84"/>
+    </row>
+    <row r="10" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="84"/>
+    </row>
+    <row r="11" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="84"/>
+    </row>
+    <row r="12" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="84"/>
+    </row>
+    <row r="13" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="84"/>
+    </row>
+    <row r="14" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="84"/>
+    </row>
+    <row r="15" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="84"/>
+    </row>
+    <row r="16" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="84"/>
+    </row>
+    <row r="17" spans="1:1" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="84"/>
+    </row>
+    <row r="18" spans="1:1" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="84"/>
+    </row>
+    <row r="19" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/日志.xlsx
+++ b/日志.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19500" windowHeight="10335"/>
+    <workbookView windowWidth="20480" windowHeight="7840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="执行计划" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146">
+  <si>
+    <t>公平价网络推广团队2013年执行计划</t>
+  </si>
   <si>
     <t>日  期</t>
   </si>
@@ -479,20 +482,41 @@
     <t>2、整理小型车排名报告</t>
   </si>
   <si>
-    <t>公平价网络推广团队2013年执行计划</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>在爱卡二手汽车论坛，我的汽车之家论坛、51汽车网论坛\车一路二手车论坛注册，并发表一些关于公平价的评论。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">关于灌水的具体细节不是很清楚，不敢大量灌水，会被封号，只是尝试一下暗示性的回复。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">浏览对比了一些主流汽车论坛和综合性网站的汽车专题和对于网络推广途径的思考
+</t>
+  </si>
+  <si>
+    <t>有一个WORD具体说明</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -511,30 +535,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="30"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="30"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -568,6 +571,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="30"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="30"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -578,12 +602,6 @@
       <color indexed="10"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -638,27 +656,12 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -679,7 +682,40 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -718,295 +754,260 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
-      </left>
-      <right/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1305,7 +1306,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -1340,14 +1340,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="E10" sqref="E10:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="30.625" customWidth="1"/>
@@ -1357,493 +1358,493 @@
     <col min="6" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-    </row>
-    <row r="2" spans="1:5" s="46" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="49" t="s">
+    <row r="1" ht="44.25" customHeight="1" spans="1:5">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+    </row>
+    <row r="2" s="52" customFormat="1" ht="29.25" customHeight="1" spans="1:5">
+      <c r="A2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="B2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="C2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="D2" s="56" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="72" t="s">
+      <c r="E2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="73" t="s">
+    </row>
+    <row r="3" customHeight="1" spans="1:5">
+      <c r="A3" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="B3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="69" t="s">
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
-    </row>
-    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="72"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="69"/>
-    </row>
-    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="72"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="69"/>
-    </row>
-    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="72"/>
-      <c r="B7" s="73" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="68" t="s">
+    </row>
+    <row r="4" customHeight="1" spans="1:5">
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:5">
+      <c r="A5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:5">
+      <c r="A6" s="59"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:5">
+      <c r="A7" s="59"/>
+      <c r="B7" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="C7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="69"/>
-    </row>
-    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="72"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="69"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="72"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69"/>
-    </row>
-    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="72"/>
-      <c r="B10" s="73" t="s">
+      <c r="D7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:5">
+      <c r="A8" s="59"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:5">
+      <c r="A9" s="59"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:5">
+      <c r="A10" s="59"/>
+      <c r="B10" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="70"/>
-    </row>
-    <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="72"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="70"/>
-    </row>
-    <row r="12" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="72"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="70"/>
-    </row>
-    <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="72"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="70"/>
-    </row>
-    <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="72"/>
-      <c r="B14" s="73" t="s">
+      <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="68" t="s">
+      <c r="E10" s="35"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:5">
+      <c r="A11" s="59"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="35"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:5">
+      <c r="A12" s="59"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="35"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:5">
+      <c r="A13" s="59"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="35"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:5">
+      <c r="A14" s="59"/>
+      <c r="B14" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="70"/>
-    </row>
-    <row r="15" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="72"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="70"/>
-    </row>
-    <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="72"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="70"/>
-    </row>
-    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="72"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="70"/>
-    </row>
-    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="72"/>
-      <c r="B18" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="74" t="s">
+      <c r="D14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="35"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:5">
+      <c r="A15" s="59"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="35"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:5">
+      <c r="A16" s="59"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="35"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:5">
+      <c r="A17" s="59"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="35"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:5">
+      <c r="A18" s="59"/>
+      <c r="B18" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="68" t="s">
+      <c r="C18" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="70"/>
-    </row>
-    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="72"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="70"/>
-    </row>
-    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="72"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="70"/>
-    </row>
-    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="72"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="70"/>
-    </row>
-    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="72"/>
-      <c r="B22" s="73" t="s">
+      <c r="D18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="68" t="s">
+      <c r="E18" s="35"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:5">
+      <c r="A19" s="59"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="35"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:5">
+      <c r="A20" s="59"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="35"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:5">
+      <c r="A21" s="59"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="35"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:5">
+      <c r="A22" s="59"/>
+      <c r="B22" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="68" t="s">
+      <c r="C22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="70"/>
-    </row>
-    <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="72"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="70"/>
-    </row>
-    <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="72"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="70"/>
-    </row>
-    <row r="25" spans="1:6" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="72"/>
-      <c r="B25" s="73" t="s">
+      <c r="D22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="68" t="s">
+      <c r="E22" s="35"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:5">
+      <c r="A23" s="59"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="35"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:5">
+      <c r="A24" s="59"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="35"/>
+    </row>
+    <row r="25" ht="8.1" customHeight="1" spans="1:5">
+      <c r="A25" s="59"/>
+      <c r="B25" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="69" t="s">
+      <c r="C25" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="69"/>
-    </row>
-    <row r="26" spans="1:6" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="72"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-    </row>
-    <row r="27" spans="1:6" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="72"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-    </row>
-    <row r="28" spans="1:6" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="72"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-    </row>
-    <row r="29" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="72"/>
-      <c r="B29" s="53" t="s">
+      <c r="D25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" ht="8.1" customHeight="1" spans="1:5">
+      <c r="A26" s="59"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" ht="8.1" customHeight="1" spans="1:5">
+      <c r="A27" s="59"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" ht="8.1" customHeight="1" spans="1:5">
+      <c r="A28" s="59"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" ht="58.5" customHeight="1" spans="1:4">
+      <c r="A29" s="59"/>
+      <c r="B29" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="C29" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="72"/>
-      <c r="B30" s="8" t="s">
+      <c r="D29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="36" t="s">
+    </row>
+    <row r="30" ht="30" customHeight="1" spans="1:4">
+      <c r="A30" s="59"/>
+      <c r="B30" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="C30" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="72"/>
-      <c r="B31" s="8" t="s">
+      <c r="D30" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="4" t="s">
+    </row>
+    <row r="31" s="2" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="A31" s="59"/>
+      <c r="B31" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="55"/>
-    </row>
-    <row r="32" spans="1:6" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="72"/>
-      <c r="B32" s="8" t="s">
+      <c r="C31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="F32" s="55"/>
-    </row>
-    <row r="33" spans="1:6" s="47" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="72"/>
-      <c r="B33" s="53" t="s">
+      <c r="F31" s="63"/>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="A32" s="59"/>
+      <c r="B32" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="54" t="s">
+      <c r="C32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="63"/>
+    </row>
+    <row r="33" s="53" customFormat="1" ht="39.95" customHeight="1" spans="1:5">
+      <c r="A33" s="59"/>
+      <c r="B33" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="57" t="s">
+      <c r="C33" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="54" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="72"/>
-      <c r="B34" s="53" t="s">
+      <c r="D33" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="58" t="s">
+      <c r="E33" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" ht="39.95" customHeight="1" spans="1:5">
+      <c r="A34" s="59"/>
+      <c r="B34" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="72"/>
-      <c r="B35" s="8" t="s">
+      <c r="C34" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="57" t="s">
+      <c r="E34" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" ht="30" customHeight="1" spans="1:5">
+      <c r="A35" s="59"/>
+      <c r="B35" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="36" t="s">
+      <c r="C35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="65" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="72"/>
-      <c r="B36" s="53" t="s">
+      <c r="E35" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="57" t="s">
+    </row>
+    <row r="36" ht="39.95" customHeight="1" spans="1:5">
+      <c r="A36" s="59"/>
+      <c r="B36" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="36" t="s">
+      <c r="C36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="65" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="72"/>
-      <c r="B37" s="53" t="s">
+      <c r="E36" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="57" t="s">
+    </row>
+    <row r="37" ht="39.95" customHeight="1" spans="1:5">
+      <c r="A37" s="59"/>
+      <c r="B37" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="48" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="59"/>
-      <c r="B38" s="60" t="s">
+      <c r="C37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="E37" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" s="54" customFormat="1" ht="49.5" customHeight="1" spans="1:5">
+      <c r="A38" s="67"/>
+      <c r="B38" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="61" t="s">
+      <c r="C38" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="52"/>
-      <c r="B39" s="8" t="s">
+      <c r="D38" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="E38" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" s="2" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="A39" s="59"/>
+      <c r="B39" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="62" t="s">
+      <c r="C39" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="F39" s="55"/>
-    </row>
-    <row r="40" spans="1:6" s="26" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="63"/>
-      <c r="B40" s="17" t="s">
+      <c r="D39" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="36" t="s">
+      <c r="E39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="63"/>
+    </row>
+    <row r="40" s="11" customFormat="1" ht="39.95" customHeight="1" spans="1:5">
+      <c r="A40" s="71"/>
+      <c r="B40" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="64" t="s">
+      <c r="C40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" s="11" customFormat="1" ht="39.95" customHeight="1" spans="2:5">
+      <c r="B41" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="26" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="E41" s="32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="53" t="s">
+      <c r="D41" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="36" t="s">
+      <c r="E41" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" ht="39.95" customHeight="1" spans="2:5">
+      <c r="B42" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="57"/>
-      <c r="E42" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="53" t="s">
+      <c r="C42" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="E43" s="36" t="s">
+      <c r="D42" s="65"/>
+      <c r="E42" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" ht="20.1" customHeight="1" spans="2:5">
+      <c r="B43" s="60" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="53" t="s">
+      <c r="C43" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="36" t="s">
+    </row>
+    <row r="44" ht="20.1" customHeight="1" spans="2:5">
+      <c r="B44" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="E44" s="36" t="s">
+      <c r="C44" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="E44" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" ht="20.1" customHeight="1"/>
+    <row r="46" ht="20.1" customHeight="1"/>
+    <row r="47" ht="20.1" customHeight="1"/>
+    <row r="48" ht="20.1" customHeight="1"/>
+    <row r="49" ht="20.1" customHeight="1"/>
+    <row r="50" ht="20.1" customHeight="1"/>
+    <row r="51" ht="20.1" customHeight="1"/>
+    <row r="52" ht="20.1" customHeight="1"/>
+    <row r="53" ht="20.1" customHeight="1"/>
+    <row r="54" ht="20.1" customHeight="1"/>
+    <row r="55" ht="20.1" customHeight="1"/>
+    <row r="56" ht="20.1" customHeight="1"/>
+    <row r="57" ht="20.1" customHeight="1"/>
+    <row r="58" ht="20.1" customHeight="1"/>
   </sheetData>
   <mergeCells count="30">
     <mergeCell ref="A1:E1"/>
@@ -1862,6 +1863,11 @@
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="C25:C28"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="D18:D21"/>
     <mergeCell ref="D22:D24"/>
     <mergeCell ref="D25:D28"/>
     <mergeCell ref="E3:E6"/>
@@ -1871,13 +1877,7 @@
     <mergeCell ref="E18:E21"/>
     <mergeCell ref="E22:E24"/>
     <mergeCell ref="E25:E28"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="D18:D21"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -1885,606 +1885,607 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A1" sqref="1:1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="11.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.875" style="3" customWidth="1"/>
     <col min="2" max="2" width="61.5" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
     <col min="5" max="5" width="39.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="23" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
+    <row r="1" s="9" customFormat="1" ht="35.25" customHeight="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="21" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="78">
+      <c r="E1" s="21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A2" s="22">
         <v>41521</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="24"/>
-    </row>
-    <row r="3" spans="1:5" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="83"/>
-      <c r="B3" s="31" t="s">
+      <c r="C2" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" s="11" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A3" s="5"/>
+      <c r="B3" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="25"/>
-    </row>
-    <row r="4" spans="1:5" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="79"/>
-      <c r="B4" s="33" t="s">
+      <c r="C3" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" s="12" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="78">
+      <c r="C4" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="29"/>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" ht="33.75" customHeight="1" spans="1:5">
+      <c r="A5" s="22">
         <v>41522</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="35" t="s">
+      <c r="B5" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="24"/>
-    </row>
-    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="83"/>
-      <c r="B6" s="6" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="25"/>
-    </row>
-    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="83"/>
-      <c r="B7" s="6" t="s">
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A6" s="5"/>
+      <c r="B6" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="25"/>
-    </row>
-    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="79"/>
-      <c r="B8" s="7" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A7" s="5"/>
+      <c r="B7" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="78">
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A8" s="27"/>
+      <c r="B8" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" s="11" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A9" s="22">
         <v>41523</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="25"/>
-    </row>
-    <row r="10" spans="1:5" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="83"/>
-      <c r="B10" s="6" t="s">
+      <c r="B9" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="25"/>
-    </row>
-    <row r="11" spans="1:5" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="83"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:5" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="78">
+      <c r="C9" s="32"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" s="11" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A10" s="5"/>
+      <c r="B10" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" s="12" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A11" s="5"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" s="11" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A12" s="22">
         <v>41524</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="25"/>
-    </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="83"/>
-      <c r="B13" s="8" t="s">
+      <c r="B12" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="79"/>
-      <c r="B14" s="7" t="s">
+      <c r="C12" s="15"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A13" s="5"/>
+      <c r="B13" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="40" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" s="12" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A14" s="27"/>
+      <c r="B14" s="17" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="75">
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A15" s="34">
         <v>41525</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="80"/>
-      <c r="B16" s="8" t="s">
+      <c r="B15" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="80"/>
-      <c r="B17" s="7" t="s">
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+    </row>
+    <row r="16" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A16" s="36"/>
+      <c r="B16" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="75">
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+    </row>
+    <row r="17" s="12" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A17" s="36"/>
+      <c r="B17" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="34">
         <v>41526</v>
       </c>
-      <c r="B18" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="80"/>
-      <c r="B19" s="27" t="s">
+      <c r="B18" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="80"/>
-      <c r="B20" s="27" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="36"/>
+      <c r="B19" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="80"/>
-      <c r="B21" s="37" t="s">
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="36"/>
+      <c r="B20" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="42" t="s">
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+    </row>
+    <row r="21" s="12" customFormat="1" spans="1:5">
+      <c r="A21" s="36"/>
+      <c r="B21" s="39" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="81">
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" s="13" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A22" s="41">
         <v>41527</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-    </row>
-    <row r="23" spans="1:5" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="82"/>
-      <c r="B23" s="7" t="s">
+      <c r="B22" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-    </row>
-    <row r="24" spans="1:5" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="75">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A23" s="42"/>
+      <c r="B23" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+    </row>
+    <row r="24" s="13" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A24" s="34">
         <v>41528</v>
       </c>
-      <c r="B24" s="20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="75"/>
-      <c r="B25" s="20" t="s">
+      <c r="B24" s="43" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="75"/>
-      <c r="B26" s="20" t="s">
+    <row r="25" s="15" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A25" s="34"/>
+      <c r="B25" s="43" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="75"/>
-      <c r="B27" s="7" t="s">
+    <row r="26" s="15" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A26" s="34"/>
+      <c r="B26" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-    </row>
-    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="75">
+    </row>
+    <row r="27" s="12" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A27" s="34"/>
+      <c r="B27" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+    </row>
+    <row r="28" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A28" s="34">
         <v>41529</v>
       </c>
-      <c r="B28" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="80"/>
-      <c r="B29" s="27" t="s">
+      <c r="B28" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="80"/>
-      <c r="B30" s="27" t="s">
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+    </row>
+    <row r="29" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A29" s="36"/>
+      <c r="B29" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="80"/>
-      <c r="B31" s="37" t="s">
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+    </row>
+    <row r="30" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A30" s="36"/>
+      <c r="B30" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-    </row>
-    <row r="32" spans="1:5" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="75">
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+    </row>
+    <row r="31" s="12" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A31" s="36"/>
+      <c r="B31" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+    </row>
+    <row r="32" s="16" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A32" s="34">
         <v>41530</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="80"/>
-      <c r="B33" s="8" t="s">
+      <c r="B32" s="16" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="80"/>
-      <c r="B34" s="20" t="s">
+    <row r="33" s="16" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A33" s="36"/>
+      <c r="B33" s="16" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="80"/>
-      <c r="B35" s="21" t="s">
+    <row r="34" s="16" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A34" s="36"/>
+      <c r="B34" s="43" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="39" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="76">
+    <row r="35" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A35" s="36"/>
+      <c r="B35" s="44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" s="18" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A36" s="45">
         <v>41531</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" s="39" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="77"/>
-      <c r="B37" s="11" t="s">
+      <c r="B36" s="46" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="39" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="15">
+    <row r="37" s="18" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A37" s="47"/>
+      <c r="B37" s="46" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" s="18" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A38" s="34">
         <v>41532</v>
       </c>
-      <c r="B38" s="43" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="78">
+      <c r="B38" s="48" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" s="16" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A39" s="22">
         <v>41533</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="79"/>
-      <c r="B40" s="7" t="s">
+      <c r="B39" s="16" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="78">
+    <row r="40" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A40" s="27"/>
+      <c r="B40" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A41" s="22">
         <v>41534</v>
       </c>
-      <c r="B41" s="20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="79"/>
-      <c r="B42" s="20" t="s">
+      <c r="B41" s="43" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="75">
+    <row r="42" s="11" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A42" s="27"/>
+      <c r="B42" s="43" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A43" s="34">
         <v>41535</v>
       </c>
-      <c r="B43" s="44" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="75"/>
-      <c r="B44" s="21" t="s">
+      <c r="B43" s="49" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="1:2" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="18">
+    <row r="44" s="12" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A44" s="34"/>
+      <c r="B44" s="44" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A45" s="27">
         <v>41536</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" s="39" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="22">
+      <c r="B45" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" s="18" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A46" s="50">
         <v>41537</v>
       </c>
-      <c r="B46" s="43" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="19">
+      <c r="B46" s="48" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A47" s="22">
         <v>41538</v>
       </c>
-      <c r="B47" s="24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="75">
+      <c r="B47" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A48" s="34">
         <v>41539</v>
       </c>
-      <c r="B48" s="44" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="75"/>
-      <c r="B49" s="21" t="s">
+      <c r="B48" s="49" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:2" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="76">
+    <row r="49" s="12" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A49" s="34"/>
+      <c r="B49" s="44" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" s="13" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A50" s="45">
         <v>41540</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="77"/>
-      <c r="B51" s="25" t="s">
+      <c r="B50" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="76">
+    <row r="51" s="15" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A51" s="47"/>
+      <c r="B51" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" s="19" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A52" s="45">
         <v>41541</v>
       </c>
-      <c r="B52" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="77"/>
-      <c r="B53" s="25" t="s">
+      <c r="B52" s="19" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="54" spans="1:2" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="75">
+    <row r="53" s="15" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A53" s="47"/>
+      <c r="B53" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" s="19" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A54" s="34">
         <v>41542</v>
       </c>
-      <c r="B54" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="75"/>
-      <c r="B55" s="25" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="75"/>
-      <c r="B56" s="25" t="s">
+      <c r="B54" s="19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" s="15" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A55" s="34"/>
+      <c r="B55" s="15" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="57" spans="1:2" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="75">
+    <row r="56" s="15" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A56" s="34"/>
+      <c r="B56" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" s="19" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A57" s="34">
         <v>41543</v>
       </c>
-      <c r="B57" s="24" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="75"/>
-      <c r="B58" s="25" t="s">
+      <c r="B57" s="19" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="59" spans="1:2" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="75">
+    <row r="58" s="15" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A58" s="34"/>
+      <c r="B58" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" s="19" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A59" s="34">
         <v>41544</v>
       </c>
-      <c r="B59" s="24" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="75"/>
-      <c r="B60" s="25" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="75">
+      <c r="B59" s="19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" s="15" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A60" s="34"/>
+      <c r="B60" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" s="19" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A61" s="34">
         <v>41545</v>
       </c>
-      <c r="B61" s="24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="75"/>
-      <c r="B62" s="10" t="s">
+      <c r="B61" s="19" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="63" spans="1:2" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="15">
+    <row r="62" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A62" s="34"/>
+      <c r="B62" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63" s="20" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A63" s="34">
         <v>41546</v>
       </c>
-      <c r="B63" s="14" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="76">
+      <c r="B63" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" s="15" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A64" s="45">
         <v>41547</v>
       </c>
-      <c r="B64" s="25" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="77"/>
-      <c r="B65" s="10" t="s">
+      <c r="B64" s="15" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="66" spans="1:2" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="22">
+    <row r="65" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A65" s="47"/>
+      <c r="B65" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" s="20" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A66" s="50">
         <v>41548</v>
       </c>
-      <c r="B66" s="14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="16">
+      <c r="B66" s="20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" s="15" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A67" s="5">
         <v>41549</v>
       </c>
-      <c r="B67" s="25" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="75">
+      <c r="B67" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" s="19" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A68" s="34">
         <v>41550</v>
       </c>
-      <c r="B68" s="24" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="75"/>
-      <c r="B69" s="10" t="s">
+      <c r="B68" s="19" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:2" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="75">
+    <row r="69" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A69" s="34"/>
+      <c r="B69" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" s="13" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A70" s="34">
         <v>41551</v>
       </c>
-      <c r="B70" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="75"/>
-      <c r="B71" s="10" t="s">
+      <c r="B70" s="13" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="72" spans="1:2" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="45"/>
-    </row>
-    <row r="73" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A71" s="34"/>
+      <c r="B71" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" s="13" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
+      <c r="A72" s="51"/>
+    </row>
+    <row r="73" ht="20.1" customHeight="1"/>
+    <row r="74" ht="20.1" customHeight="1"/>
+    <row r="75" ht="20.1" customHeight="1"/>
+    <row r="76" ht="20.1" customHeight="1"/>
   </sheetData>
   <mergeCells count="24">
     <mergeCell ref="A2:A4"/>
@@ -2502,114 +2503,147 @@
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="A54:A56"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="31.25" customWidth="1"/>
     <col min="3" max="3" width="38.75" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
     <col min="5" max="5" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
+    <row r="1" s="1" customFormat="1" ht="42" customHeight="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="67">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A2" s="5">
         <v>41552</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84"/>
-    </row>
-    <row r="4" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="84"/>
-    </row>
-    <row r="5" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="84"/>
-    </row>
-    <row r="6" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="84"/>
-    </row>
-    <row r="7" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="84"/>
-    </row>
-    <row r="8" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="84"/>
-    </row>
-    <row r="9" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="84"/>
-    </row>
-    <row r="10" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="84"/>
-    </row>
-    <row r="11" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="84"/>
-    </row>
-    <row r="12" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="84"/>
-    </row>
-    <row r="13" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="84"/>
-    </row>
-    <row r="14" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="84"/>
-    </row>
-    <row r="15" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="84"/>
-    </row>
-    <row r="16" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="84"/>
-    </row>
-    <row r="17" spans="1:1" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="84"/>
-    </row>
-    <row r="18" spans="1:1" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="84"/>
-    </row>
-    <row r="19" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="B2" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="7">
+        <v>41552</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A5" s="5">
+        <v>41553</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="7">
+        <v>41553</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
+      <c r="A6" s="8"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
+      <c r="A7" s="8"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
+      <c r="A8" s="8"/>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
+      <c r="A9" s="8"/>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
+      <c r="A10" s="8"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
+      <c r="A11" s="8"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
+      <c r="A12" s="8"/>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
+      <c r="A13" s="8"/>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
+      <c r="A14" s="8"/>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
+      <c r="A15" s="8"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
+      <c r="A16" s="8"/>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
+      <c r="A17" s="8"/>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
+      <c r="A18" s="8"/>
+    </row>
+    <row r="19" ht="20.1" customHeight="1"/>
+    <row r="20" ht="20.1" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="6">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/日志.xlsx
+++ b/日志.xlsx
@@ -945,40 +945,40 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -990,10 +990,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1358,13 +1358,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
     </row>
     <row r="2" spans="1:5" s="46" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="49" t="s">
@@ -1384,235 +1384,235 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="69" t="s">
+      <c r="E3" s="74" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="74"/>
     </row>
     <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="72"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="69"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="74"/>
     </row>
     <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="72"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="69"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="74"/>
     </row>
     <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="72"/>
-      <c r="B7" s="73" t="s">
+      <c r="A7" s="70"/>
+      <c r="B7" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="69"/>
+      <c r="E7" s="74"/>
     </row>
     <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="72"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="69"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="74"/>
     </row>
     <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="72"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="74"/>
     </row>
     <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="72"/>
-      <c r="B10" s="73" t="s">
+      <c r="A10" s="70"/>
+      <c r="B10" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="70"/>
+      <c r="E10" s="75"/>
     </row>
     <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="72"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="70"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="75"/>
     </row>
     <row r="12" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="72"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="70"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="75"/>
     </row>
     <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="72"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="70"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="75"/>
     </row>
     <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="72"/>
-      <c r="B14" s="73" t="s">
+      <c r="A14" s="70"/>
+      <c r="B14" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="70"/>
+      <c r="E14" s="75"/>
     </row>
     <row r="15" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="72"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="70"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="75"/>
     </row>
     <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="72"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="70"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="75"/>
     </row>
     <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="72"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="70"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="75"/>
     </row>
     <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="72"/>
-      <c r="B18" s="73" t="s">
+      <c r="A18" s="70"/>
+      <c r="B18" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="74" t="s">
+      <c r="C18" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="68" t="s">
+      <c r="D18" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="70"/>
+      <c r="E18" s="75"/>
     </row>
     <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="72"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="70"/>
+      <c r="A19" s="70"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="75"/>
     </row>
     <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="72"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="70"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="75"/>
     </row>
     <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="72"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="70"/>
+      <c r="A21" s="70"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="75"/>
     </row>
     <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="72"/>
-      <c r="B22" s="73" t="s">
+      <c r="A22" s="70"/>
+      <c r="B22" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="68" t="s">
+      <c r="C22" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="68" t="s">
+      <c r="D22" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="70"/>
+      <c r="E22" s="75"/>
     </row>
     <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="72"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="70"/>
+      <c r="A23" s="70"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="75"/>
     </row>
     <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="72"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="70"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="75"/>
     </row>
     <row r="25" spans="1:6" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="72"/>
-      <c r="B25" s="73" t="s">
+      <c r="A25" s="70"/>
+      <c r="B25" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="68" t="s">
+      <c r="C25" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="69" t="s">
+      <c r="D25" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="69"/>
+      <c r="E25" s="74"/>
     </row>
     <row r="26" spans="1:6" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="72"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
     </row>
     <row r="27" spans="1:6" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="72"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
     </row>
     <row r="28" spans="1:6" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="72"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
+      <c r="A28" s="70"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
     </row>
     <row r="29" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="72"/>
+      <c r="A29" s="70"/>
       <c r="B29" s="53" t="s">
         <v>26</v>
       </c>
@@ -1624,7 +1624,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="72"/>
+      <c r="A30" s="70"/>
       <c r="B30" s="8" t="s">
         <v>29</v>
       </c>
@@ -1636,7 +1636,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="72"/>
+      <c r="A31" s="70"/>
       <c r="B31" s="8" t="s">
         <v>32</v>
       </c>
@@ -1649,7 +1649,7 @@
       <c r="F31" s="55"/>
     </row>
     <row r="32" spans="1:6" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="72"/>
+      <c r="A32" s="70"/>
       <c r="B32" s="8" t="s">
         <v>34</v>
       </c>
@@ -1662,7 +1662,7 @@
       <c r="F32" s="55"/>
     </row>
     <row r="33" spans="1:6" s="47" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="72"/>
+      <c r="A33" s="70"/>
       <c r="B33" s="53" t="s">
         <v>35</v>
       </c>
@@ -1677,7 +1677,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="72"/>
+      <c r="A34" s="70"/>
       <c r="B34" s="53" t="s">
         <v>38</v>
       </c>
@@ -1692,7 +1692,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="72"/>
+      <c r="A35" s="70"/>
       <c r="B35" s="8" t="s">
         <v>40</v>
       </c>
@@ -1707,7 +1707,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="72"/>
+      <c r="A36" s="70"/>
       <c r="B36" s="53" t="s">
         <v>43</v>
       </c>
@@ -1722,7 +1722,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="72"/>
+      <c r="A37" s="70"/>
       <c r="B37" s="53" t="s">
         <v>46</v>
       </c>
@@ -1846,6 +1846,20 @@
     <row r="58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="D18:D21"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:A37"/>
     <mergeCell ref="B3:B6"/>
@@ -1862,20 +1876,6 @@
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="C25:C28"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="D18:D21"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1919,7 +1919,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="78">
+      <c r="A2" s="76">
         <v>41521</v>
       </c>
       <c r="B2" s="29" t="s">
@@ -1932,7 +1932,7 @@
       <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="83"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="31" t="s">
         <v>71</v>
       </c>
@@ -1943,7 +1943,7 @@
       <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:5" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="79"/>
+      <c r="A4" s="78"/>
       <c r="B4" s="33" t="s">
         <v>73</v>
       </c>
@@ -1954,7 +1954,7 @@
       <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="78">
+      <c r="A5" s="76">
         <v>41522</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -1967,7 +1967,7 @@
       <c r="E5" s="24"/>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="83"/>
+      <c r="A6" s="77"/>
       <c r="B6" s="6" t="s">
         <v>77</v>
       </c>
@@ -1976,7 +1976,7 @@
       <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="83"/>
+      <c r="A7" s="77"/>
       <c r="B7" s="6" t="s">
         <v>78</v>
       </c>
@@ -1985,7 +1985,7 @@
       <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="79"/>
+      <c r="A8" s="78"/>
       <c r="B8" s="7" t="s">
         <v>79</v>
       </c>
@@ -1994,7 +1994,7 @@
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="78">
+      <c r="A9" s="76">
         <v>41523</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -2005,7 +2005,7 @@
       <c r="E9" s="25"/>
     </row>
     <row r="10" spans="1:5" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="83"/>
+      <c r="A10" s="77"/>
       <c r="B10" s="6" t="s">
         <v>81</v>
       </c>
@@ -2014,14 +2014,14 @@
       <c r="E10" s="25"/>
     </row>
     <row r="11" spans="1:5" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="83"/>
+      <c r="A11" s="77"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="34"/>
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="78">
+      <c r="A12" s="76">
         <v>41524</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -2032,7 +2032,7 @@
       <c r="E12" s="25"/>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="83"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="8" t="s">
         <v>83</v>
       </c>
@@ -2041,7 +2041,7 @@
       <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="79"/>
+      <c r="A14" s="78"/>
       <c r="B14" s="7" t="s">
         <v>84</v>
       </c>
@@ -2052,7 +2052,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="75">
+      <c r="A15" s="79">
         <v>41525</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -2078,7 +2078,7 @@
       <c r="D17" s="41"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="75">
+      <c r="A18" s="79">
         <v>41526</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -2133,7 +2133,7 @@
       <c r="D23" s="34"/>
     </row>
     <row r="24" spans="1:5" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="75">
+      <c r="A24" s="79">
         <v>41528</v>
       </c>
       <c r="B24" s="20" t="s">
@@ -2141,19 +2141,19 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="75"/>
+      <c r="A25" s="79"/>
       <c r="B25" s="20" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="75"/>
+      <c r="A26" s="79"/>
       <c r="B26" s="20" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="75"/>
+      <c r="A27" s="79"/>
       <c r="B27" s="7" t="s">
         <v>99</v>
       </c>
@@ -2161,7 +2161,7 @@
       <c r="D27" s="41"/>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="75">
+      <c r="A28" s="79">
         <v>41529</v>
       </c>
       <c r="B28" s="27" t="s">
@@ -2195,7 +2195,7 @@
       <c r="D31" s="41"/>
     </row>
     <row r="32" spans="1:5" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="75">
+      <c r="A32" s="79">
         <v>41530</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -2221,7 +2221,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" s="39" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="76">
+      <c r="A36" s="83">
         <v>41531</v>
       </c>
       <c r="B36" s="11" t="s">
@@ -2229,7 +2229,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" s="39" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="77"/>
+      <c r="A37" s="84"/>
       <c r="B37" s="11" t="s">
         <v>109</v>
       </c>
@@ -2243,7 +2243,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="78">
+      <c r="A39" s="76">
         <v>41533</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -2251,13 +2251,13 @@
       </c>
     </row>
     <row r="40" spans="1:2" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="79"/>
+      <c r="A40" s="78"/>
       <c r="B40" s="7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="78">
+      <c r="A41" s="76">
         <v>41534</v>
       </c>
       <c r="B41" s="20" t="s">
@@ -2265,13 +2265,13 @@
       </c>
     </row>
     <row r="42" spans="1:2" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="79"/>
+      <c r="A42" s="78"/>
       <c r="B42" s="20" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:2" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="75">
+      <c r="A43" s="79">
         <v>41535</v>
       </c>
       <c r="B43" s="44" t="s">
@@ -2279,7 +2279,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="75"/>
+      <c r="A44" s="79"/>
       <c r="B44" s="21" t="s">
         <v>116</v>
       </c>
@@ -2309,7 +2309,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="75">
+      <c r="A48" s="79">
         <v>41539</v>
       </c>
       <c r="B48" s="44" t="s">
@@ -2317,13 +2317,13 @@
       </c>
     </row>
     <row r="49" spans="1:2" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="75"/>
+      <c r="A49" s="79"/>
       <c r="B49" s="21" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:2" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="76">
+      <c r="A50" s="83">
         <v>41540</v>
       </c>
       <c r="B50" s="9" t="s">
@@ -2331,13 +2331,13 @@
       </c>
     </row>
     <row r="51" spans="1:2" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="77"/>
+      <c r="A51" s="84"/>
       <c r="B51" s="25" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:2" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="76">
+      <c r="A52" s="83">
         <v>41541</v>
       </c>
       <c r="B52" s="24" t="s">
@@ -2345,13 +2345,13 @@
       </c>
     </row>
     <row r="53" spans="1:2" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="77"/>
+      <c r="A53" s="84"/>
       <c r="B53" s="25" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:2" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="75">
+      <c r="A54" s="79">
         <v>41542</v>
       </c>
       <c r="B54" s="24" t="s">
@@ -2359,19 +2359,19 @@
       </c>
     </row>
     <row r="55" spans="1:2" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="75"/>
+      <c r="A55" s="79"/>
       <c r="B55" s="25" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:2" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="75"/>
+      <c r="A56" s="79"/>
       <c r="B56" s="25" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:2" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="75">
+      <c r="A57" s="79">
         <v>41543</v>
       </c>
       <c r="B57" s="24" t="s">
@@ -2379,13 +2379,13 @@
       </c>
     </row>
     <row r="58" spans="1:2" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="75"/>
+      <c r="A58" s="79"/>
       <c r="B58" s="25" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:2" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="75">
+      <c r="A59" s="79">
         <v>41544</v>
       </c>
       <c r="B59" s="24" t="s">
@@ -2393,13 +2393,13 @@
       </c>
     </row>
     <row r="60" spans="1:2" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="75"/>
+      <c r="A60" s="79"/>
       <c r="B60" s="25" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:2" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="75">
+      <c r="A61" s="79">
         <v>41545</v>
       </c>
       <c r="B61" s="24" t="s">
@@ -2407,7 +2407,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="75"/>
+      <c r="A62" s="79"/>
       <c r="B62" s="10" t="s">
         <v>132</v>
       </c>
@@ -2421,7 +2421,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="76">
+      <c r="A64" s="83">
         <v>41547</v>
       </c>
       <c r="B64" s="25" t="s">
@@ -2429,7 +2429,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="77"/>
+      <c r="A65" s="84"/>
       <c r="B65" s="10" t="s">
         <v>135</v>
       </c>
@@ -2451,7 +2451,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="75">
+      <c r="A68" s="79">
         <v>41550</v>
       </c>
       <c r="B68" s="24" t="s">
@@ -2459,13 +2459,13 @@
       </c>
     </row>
     <row r="69" spans="1:2" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="75"/>
+      <c r="A69" s="79"/>
       <c r="B69" s="10" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:2" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="75">
+      <c r="A70" s="79">
         <v>41551</v>
       </c>
       <c r="B70" s="9" t="s">
@@ -2473,7 +2473,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="75"/>
+      <c r="A71" s="79"/>
       <c r="B71" s="10" t="s">
         <v>140</v>
       </c>
@@ -2487,21 +2487,6 @@
     <row r="76" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A48:A49"/>
     <mergeCell ref="A61:A62"/>
     <mergeCell ref="A64:A65"/>
     <mergeCell ref="A68:A69"/>
@@ -2511,6 +2496,21 @@
     <mergeCell ref="A54:A56"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2523,7 +2523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -2559,52 +2559,52 @@
       </c>
     </row>
     <row r="3" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84"/>
+      <c r="A3" s="68"/>
     </row>
     <row r="4" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="84"/>
+      <c r="A4" s="68"/>
     </row>
     <row r="5" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="84"/>
+      <c r="A5" s="68"/>
     </row>
     <row r="6" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="84"/>
+      <c r="A6" s="68"/>
     </row>
     <row r="7" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="84"/>
+      <c r="A7" s="68"/>
     </row>
     <row r="8" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="84"/>
+      <c r="A8" s="68"/>
     </row>
     <row r="9" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="84"/>
+      <c r="A9" s="68"/>
     </row>
     <row r="10" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="84"/>
+      <c r="A10" s="68"/>
     </row>
     <row r="11" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="84"/>
+      <c r="A11" s="68"/>
     </row>
     <row r="12" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="84"/>
+      <c r="A12" s="68"/>
     </row>
     <row r="13" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="84"/>
+      <c r="A13" s="68"/>
     </row>
     <row r="14" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="84"/>
+      <c r="A14" s="68"/>
     </row>
     <row r="15" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="84"/>
+      <c r="A15" s="68"/>
     </row>
     <row r="16" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="84"/>
+      <c r="A16" s="68"/>
     </row>
     <row r="17" spans="1:1" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="84"/>
+      <c r="A17" s="68"/>
     </row>
     <row r="18" spans="1:1" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="84"/>
+      <c r="A18" s="68"/>
     </row>
     <row r="19" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/日志.xlsx
+++ b/日志.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20480" windowHeight="7840" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19500" windowHeight="10335"/>
   </bookViews>
   <sheets>
     <sheet name="执行计划" sheetId="1" r:id="rId1"/>
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146">
-  <si>
-    <t>公平价网络推广团队2013年执行计划</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="142">
   <si>
     <t>日  期</t>
   </si>
@@ -482,41 +479,20 @@
     <t>2、整理小型车排名报告</t>
   </si>
   <si>
-    <t>在爱卡二手汽车论坛，我的汽车之家论坛、51汽车网论坛\车一路二手车论坛注册，并发表一些关于公平价的评论。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">关于灌水的具体细节不是很清楚，不敢大量灌水，会被封号，只是尝试一下暗示性的回复。
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">浏览对比了一些主流汽车论坛和综合性网站的汽车专题和对于网络推广途径的思考
-</t>
-  </si>
-  <si>
-    <t>有一个WORD具体说明</t>
+    <t>公平价网络推广团队2013年执行计划</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -535,9 +511,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="30"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="30"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -571,27 +568,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="30"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="30"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -602,6 +578,12 @@
       <color indexed="10"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -656,12 +638,27 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -682,40 +679,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -754,204 +718,246 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
         <color indexed="64"/>
-      </right>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+  </cellStyleXfs>
+  <cellXfs count="85">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="75">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -960,54 +966,47 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1306,6 +1305,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -1340,15 +1340,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="30.625" customWidth="1"/>
@@ -1358,493 +1357,493 @@
     <col min="6" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="44.25" customHeight="1" spans="1:5">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="71" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+    </row>
+    <row r="2" spans="1:5" s="46" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-    </row>
-    <row r="2" s="52" customFormat="1" ht="29.25" customHeight="1" spans="1:5">
-      <c r="A2" s="56" t="s">
+      <c r="B2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="C2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="D2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="E2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="58" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="72" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="59" t="s">
+      <c r="B3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="C3" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69"/>
+    </row>
+    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69"/>
+    </row>
+    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="69"/>
+    </row>
+    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="72"/>
+      <c r="B7" s="73" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="59"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:5">
-      <c r="A6" s="59"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="59"/>
-      <c r="B7" s="60" t="s">
+      <c r="C7" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="69"/>
+    </row>
+    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="72"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="69"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="72"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="69"/>
+    </row>
+    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="72"/>
+      <c r="B10" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:5">
-      <c r="A8" s="59"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:5">
-      <c r="A9" s="59"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:5">
-      <c r="A10" s="59"/>
-      <c r="B10" s="60" t="s">
+      <c r="C10" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="70"/>
+    </row>
+    <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="72"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="70"/>
+    </row>
+    <row r="12" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="72"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="70"/>
+    </row>
+    <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="72"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="70"/>
+    </row>
+    <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="72"/>
+      <c r="B14" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="35"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:5">
-      <c r="A11" s="59"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="35"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:5">
-      <c r="A12" s="59"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="35"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:5">
-      <c r="A13" s="59"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="35"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:5">
-      <c r="A14" s="59"/>
-      <c r="B14" s="60" t="s">
+      <c r="C14" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="70"/>
+    </row>
+    <row r="15" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="72"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="70"/>
+    </row>
+    <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="72"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="70"/>
+    </row>
+    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="72"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="70"/>
+    </row>
+    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="72"/>
+      <c r="B18" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="35"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:5">
-      <c r="A15" s="59"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="35"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:5">
-      <c r="A16" s="59"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="35"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:5">
-      <c r="A17" s="59"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="35"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:5">
-      <c r="A18" s="59"/>
-      <c r="B18" s="60" t="s">
+      <c r="C18" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="D18" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="70"/>
+    </row>
+    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="72"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="70"/>
+    </row>
+    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="72"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="70"/>
+    </row>
+    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="72"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="70"/>
+    </row>
+    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="72"/>
+      <c r="B22" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="35"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:5">
-      <c r="A19" s="59"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="35"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:5">
-      <c r="A20" s="59"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="35"/>
-    </row>
-    <row r="21" customHeight="1" spans="1:5">
-      <c r="A21" s="59"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="35"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:5">
-      <c r="A22" s="59"/>
-      <c r="B22" s="60" t="s">
+      <c r="C22" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="E22" s="70"/>
+    </row>
+    <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="72"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="70"/>
+    </row>
+    <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="72"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="70"/>
+    </row>
+    <row r="25" spans="1:6" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="72"/>
+      <c r="B25" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="35"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:5">
-      <c r="A23" s="59"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="35"/>
-    </row>
-    <row r="24" customHeight="1" spans="1:5">
-      <c r="A24" s="59"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="35"/>
-    </row>
-    <row r="25" ht="8.1" customHeight="1" spans="1:5">
-      <c r="A25" s="59"/>
-      <c r="B25" s="60" t="s">
+      <c r="C25" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="69"/>
+    </row>
+    <row r="26" spans="1:6" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="72"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+    </row>
+    <row r="27" spans="1:6" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="72"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+    </row>
+    <row r="28" spans="1:6" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="72"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+    </row>
+    <row r="29" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="72"/>
+      <c r="B29" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" ht="8.1" customHeight="1" spans="1:5">
-      <c r="A26" s="59"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" ht="8.1" customHeight="1" spans="1:5">
-      <c r="A27" s="59"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" ht="8.1" customHeight="1" spans="1:5">
-      <c r="A28" s="59"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" ht="58.5" customHeight="1" spans="1:4">
-      <c r="A29" s="59"/>
-      <c r="B29" s="60" t="s">
+      <c r="C29" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="2" t="s">
+    </row>
+    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="72"/>
+      <c r="B30" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" ht="30" customHeight="1" spans="1:4">
-      <c r="A30" s="59"/>
-      <c r="B30" s="16" t="s">
+      <c r="C30" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="2" t="s">
+    </row>
+    <row r="31" spans="1:6" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="72"/>
+      <c r="B31" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" s="2" customFormat="1" ht="30" customHeight="1" spans="1:6">
-      <c r="A31" s="59"/>
-      <c r="B31" s="16" t="s">
+      <c r="C31" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="62" t="s">
+      <c r="F31" s="55"/>
+    </row>
+    <row r="32" spans="1:6" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="72"/>
+      <c r="B32" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="63"/>
-    </row>
-    <row r="32" s="2" customFormat="1" ht="30" customHeight="1" spans="1:6">
-      <c r="A32" s="59"/>
-      <c r="B32" s="16" t="s">
+      <c r="C32" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="55"/>
+    </row>
+    <row r="33" spans="1:6" s="47" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="72"/>
+      <c r="B33" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32" s="63"/>
-    </row>
-    <row r="33" s="53" customFormat="1" ht="39.95" customHeight="1" spans="1:5">
-      <c r="A33" s="59"/>
-      <c r="B33" s="60" t="s">
+      <c r="C33" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="D33" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="65" t="s">
+      <c r="E33" s="54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="72"/>
+      <c r="B34" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" ht="39.95" customHeight="1" spans="1:5">
-      <c r="A34" s="59"/>
-      <c r="B34" s="60" t="s">
+      <c r="C34" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="66" t="s">
+      <c r="E34" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="72"/>
+      <c r="B35" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" ht="30" customHeight="1" spans="1:5">
-      <c r="A35" s="59"/>
-      <c r="B35" s="16" t="s">
+      <c r="C35" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="65" t="s">
+      <c r="E35" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="2" t="s">
+    </row>
+    <row r="36" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="72"/>
+      <c r="B36" s="53" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="36" ht="39.95" customHeight="1" spans="1:5">
-      <c r="A36" s="59"/>
-      <c r="B36" s="60" t="s">
+      <c r="C36" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="65" t="s">
+      <c r="E36" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="2" t="s">
+    </row>
+    <row r="37" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="72"/>
+      <c r="B37" s="53" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="37" ht="39.95" customHeight="1" spans="1:5">
-      <c r="A37" s="59"/>
-      <c r="B37" s="60" t="s">
+      <c r="C37" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="65" t="s">
+      <c r="E37" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="48" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="59"/>
+      <c r="B38" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" s="54" customFormat="1" ht="49.5" customHeight="1" spans="1:5">
-      <c r="A38" s="67"/>
-      <c r="B38" s="68" t="s">
+      <c r="C38" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="D38" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="69" t="s">
+      <c r="E38" s="30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="52"/>
+      <c r="B39" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E38" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" s="2" customFormat="1" ht="30" customHeight="1" spans="1:6">
-      <c r="A39" s="59"/>
-      <c r="B39" s="16" t="s">
+      <c r="C39" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="70" t="s">
+      <c r="E39" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="55"/>
+    </row>
+    <row r="40" spans="1:6" s="26" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="63"/>
+      <c r="B40" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F39" s="63"/>
-    </row>
-    <row r="40" s="11" customFormat="1" ht="39.95" customHeight="1" spans="1:5">
-      <c r="A40" s="71"/>
-      <c r="B40" s="72" t="s">
+      <c r="C40" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="26" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="73" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" s="11" customFormat="1" ht="39.95" customHeight="1" spans="2:5">
-      <c r="B41" s="72" t="s">
+      <c r="C41" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" s="74" t="s">
+      <c r="E41" s="32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="E41" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" ht="39.95" customHeight="1" spans="2:5">
-      <c r="B42" s="60" t="s">
+      <c r="C42" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="57"/>
+      <c r="E42" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="D42" s="65"/>
-      <c r="E42" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" ht="20.1" customHeight="1" spans="2:5">
-      <c r="B43" s="60" t="s">
+      <c r="C43" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E43" s="2" t="s">
+    </row>
+    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="53" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="44" ht="20.1" customHeight="1" spans="2:5">
-      <c r="B44" s="60" t="s">
+      <c r="C44" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="E44" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" ht="20.1" customHeight="1"/>
-    <row r="46" ht="20.1" customHeight="1"/>
-    <row r="47" ht="20.1" customHeight="1"/>
-    <row r="48" ht="20.1" customHeight="1"/>
-    <row r="49" ht="20.1" customHeight="1"/>
-    <row r="50" ht="20.1" customHeight="1"/>
-    <row r="51" ht="20.1" customHeight="1"/>
-    <row r="52" ht="20.1" customHeight="1"/>
-    <row r="53" ht="20.1" customHeight="1"/>
-    <row r="54" ht="20.1" customHeight="1"/>
-    <row r="55" ht="20.1" customHeight="1"/>
-    <row r="56" ht="20.1" customHeight="1"/>
-    <row r="57" ht="20.1" customHeight="1"/>
-    <row r="58" ht="20.1" customHeight="1"/>
+    </row>
+    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="30">
     <mergeCell ref="A1:E1"/>
@@ -1863,11 +1862,6 @@
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="C25:C28"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="D18:D21"/>
     <mergeCell ref="D22:D24"/>
     <mergeCell ref="D25:D28"/>
     <mergeCell ref="E3:E6"/>
@@ -1877,7 +1871,13 @@
     <mergeCell ref="E18:E21"/>
     <mergeCell ref="E22:E24"/>
     <mergeCell ref="E25:E28"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="D18:D21"/>
   </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -1885,607 +1885,606 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="1:1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="61.5" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
     <col min="5" max="5" width="39.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="35.25" customHeight="1" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>1</v>
+    <row r="1" spans="1:5" s="23" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="21" t="s">
+    </row>
+    <row r="2" spans="1:5" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="78">
+        <v>41521</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A2" s="22">
-        <v>41521</v>
-      </c>
-      <c r="B2" s="23" t="s">
+      <c r="C2" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" spans="1:5" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="83"/>
+      <c r="B3" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="19"/>
-    </row>
-    <row r="3" s="11" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A3" s="5"/>
-      <c r="B3" s="25" t="s">
+      <c r="C3" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" spans="1:5" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="79"/>
+      <c r="B4" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" s="12" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28" t="s">
+      <c r="C4" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="D4" s="34"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="78">
+        <v>41522</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" ht="33.75" customHeight="1" spans="1:5">
-      <c r="A5" s="22">
-        <v>41522</v>
-      </c>
-      <c r="B5" s="30" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="31" t="s">
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="83"/>
+      <c r="B6" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="19"/>
-    </row>
-    <row r="6" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A6" s="5"/>
-      <c r="B6" s="32" t="s">
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="83"/>
+      <c r="B7" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A7" s="5"/>
-      <c r="B7" s="32" t="s">
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="79"/>
+      <c r="B8" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A8" s="27"/>
-      <c r="B8" s="17" t="s">
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:5" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="78">
+        <v>41523</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" s="11" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A9" s="22">
-        <v>41523</v>
-      </c>
-      <c r="B9" s="32" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" spans="1:5" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="83"/>
+      <c r="B10" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" s="11" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A10" s="5"/>
-      <c r="B10" s="32" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="25"/>
+    </row>
+    <row r="11" spans="1:5" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="83"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:5" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="78">
+        <v>41524</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="15"/>
-    </row>
-    <row r="11" s="12" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A11" s="5"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" s="11" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A12" s="22">
-        <v>41524</v>
-      </c>
-      <c r="B12" s="32" t="s">
+      <c r="C12" s="25"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="25"/>
+    </row>
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="83"/>
+      <c r="B13" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A13" s="5"/>
-      <c r="B13" s="16" t="s">
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="79"/>
+      <c r="B14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" s="12" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A14" s="27"/>
-      <c r="B14" s="17" t="s">
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="33" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="75">
+        <v>41525</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="15" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A15" s="34">
-        <v>41525</v>
-      </c>
-      <c r="B15" s="16" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="80"/>
+      <c r="B16" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-    </row>
-    <row r="16" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A16" s="36"/>
-      <c r="B16" s="16" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="80"/>
+      <c r="B17" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-    </row>
-    <row r="17" s="12" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A17" s="36"/>
-      <c r="B17" s="17" t="s">
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="75">
+        <v>41526</v>
+      </c>
+      <c r="B18" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="34">
-        <v>41526</v>
-      </c>
-      <c r="B18" s="38" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="80"/>
+      <c r="B19" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="36"/>
-      <c r="B19" s="38" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="80"/>
+      <c r="B20" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="36"/>
-      <c r="B20" s="38" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="80"/>
+      <c r="B21" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-    </row>
-    <row r="21" s="12" customFormat="1" spans="1:5">
-      <c r="A21" s="36"/>
-      <c r="B21" s="39" t="s">
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="40" t="s">
+    </row>
+    <row r="22" spans="1:5" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="81">
+        <v>41527</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="22" s="13" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A22" s="41">
-        <v>41527</v>
-      </c>
-      <c r="B22" s="16" t="s">
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+    </row>
+    <row r="23" spans="1:5" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="82"/>
+      <c r="B23" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A23" s="42"/>
-      <c r="B23" s="17" t="s">
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+    </row>
+    <row r="24" spans="1:5" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="75">
+        <v>41528</v>
+      </c>
+      <c r="B24" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-    </row>
-    <row r="24" s="13" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A24" s="34">
-        <v>41528</v>
-      </c>
-      <c r="B24" s="43" t="s">
+    </row>
+    <row r="25" spans="1:5" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="75"/>
+      <c r="B25" s="20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" s="15" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A25" s="34"/>
-      <c r="B25" s="43" t="s">
+    <row r="26" spans="1:5" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="75"/>
+      <c r="B26" s="20" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26" s="15" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A26" s="34"/>
-      <c r="B26" s="43" t="s">
+    <row r="27" spans="1:5" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="75"/>
+      <c r="B27" s="7" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="27" s="12" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A27" s="34"/>
-      <c r="B27" s="17" t="s">
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+    </row>
+    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="75">
+        <v>41529</v>
+      </c>
+      <c r="B28" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-    </row>
-    <row r="28" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A28" s="34">
-        <v>41529</v>
-      </c>
-      <c r="B28" s="38" t="s">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="80"/>
+      <c r="B29" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-    </row>
-    <row r="29" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A29" s="36"/>
-      <c r="B29" s="38" t="s">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="80"/>
+      <c r="B30" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-    </row>
-    <row r="30" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A30" s="36"/>
-      <c r="B30" s="38" t="s">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="80"/>
+      <c r="B31" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-    </row>
-    <row r="31" s="12" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A31" s="36"/>
-      <c r="B31" s="39" t="s">
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+    </row>
+    <row r="32" spans="1:5" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="75">
+        <v>41530</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-    </row>
-    <row r="32" s="16" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A32" s="34">
-        <v>41530</v>
-      </c>
-      <c r="B32" s="16" t="s">
+    </row>
+    <row r="33" spans="1:2" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="80"/>
+      <c r="B33" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="33" s="16" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A33" s="36"/>
-      <c r="B33" s="16" t="s">
+    <row r="34" spans="1:2" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="80"/>
+      <c r="B34" s="20" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="34" s="16" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A34" s="36"/>
-      <c r="B34" s="43" t="s">
+    <row r="35" spans="1:2" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="80"/>
+      <c r="B35" s="21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="35" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A35" s="36"/>
-      <c r="B35" s="44" t="s">
+    <row r="36" spans="1:2" s="39" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="76">
+        <v>41531</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="36" s="18" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A36" s="45">
-        <v>41531</v>
-      </c>
-      <c r="B36" s="46" t="s">
+    <row r="37" spans="1:2" s="39" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="77"/>
+      <c r="B37" s="11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="37" s="18" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A37" s="47"/>
-      <c r="B37" s="46" t="s">
+    <row r="38" spans="1:2" s="39" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="15">
+        <v>41532</v>
+      </c>
+      <c r="B38" s="43" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="38" s="18" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A38" s="34">
-        <v>41532</v>
-      </c>
-      <c r="B38" s="48" t="s">
+    <row r="39" spans="1:2" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="78">
+        <v>41533</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="39" s="16" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A39" s="22">
-        <v>41533</v>
-      </c>
-      <c r="B39" s="16" t="s">
+    <row r="40" spans="1:2" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="79"/>
+      <c r="B40" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="40" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A40" s="27"/>
-      <c r="B40" s="17" t="s">
+    <row r="41" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="78">
+        <v>41534</v>
+      </c>
+      <c r="B41" s="20" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="41" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A41" s="22">
-        <v>41534</v>
-      </c>
-      <c r="B41" s="43" t="s">
+    <row r="42" spans="1:2" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="79"/>
+      <c r="B42" s="20" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="42" s="11" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A42" s="27"/>
-      <c r="B42" s="43" t="s">
+    <row r="43" spans="1:2" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="75">
+        <v>41535</v>
+      </c>
+      <c r="B43" s="44" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="43" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A43" s="34">
-        <v>41535</v>
-      </c>
-      <c r="B43" s="49" t="s">
+    <row r="44" spans="1:2" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="75"/>
+      <c r="B44" s="21" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="44" s="12" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A44" s="34"/>
-      <c r="B44" s="44" t="s">
+    <row r="45" spans="1:2" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="18">
+        <v>41536</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="45" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A45" s="27">
-        <v>41536</v>
-      </c>
-      <c r="B45" s="17" t="s">
+    <row r="46" spans="1:2" s="39" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="22">
+        <v>41537</v>
+      </c>
+      <c r="B46" s="43" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="46" s="18" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A46" s="50">
-        <v>41537</v>
-      </c>
-      <c r="B46" s="48" t="s">
+    <row r="47" spans="1:2" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="19">
+        <v>41538</v>
+      </c>
+      <c r="B47" s="24" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="47" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A47" s="22">
-        <v>41538</v>
-      </c>
-      <c r="B47" s="19" t="s">
+    <row r="48" spans="1:2" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="75">
+        <v>41539</v>
+      </c>
+      <c r="B48" s="44" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="48" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A48" s="34">
-        <v>41539</v>
-      </c>
-      <c r="B48" s="49" t="s">
+    <row r="49" spans="1:2" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="75"/>
+      <c r="B49" s="21" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="49" s="12" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A49" s="34"/>
-      <c r="B49" s="44" t="s">
+    <row r="50" spans="1:2" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="76">
+        <v>41540</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="50" s="13" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A50" s="45">
-        <v>41540</v>
-      </c>
-      <c r="B50" s="13" t="s">
+    <row r="51" spans="1:2" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="77"/>
+      <c r="B51" s="25" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="51" s="15" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A51" s="47"/>
-      <c r="B51" s="15" t="s">
+    <row r="52" spans="1:2" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="76">
+        <v>41541</v>
+      </c>
+      <c r="B52" s="24" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="52" s="19" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A52" s="45">
-        <v>41541</v>
-      </c>
-      <c r="B52" s="19" t="s">
+    <row r="53" spans="1:2" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="77"/>
+      <c r="B53" s="25" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="53" s="15" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A53" s="47"/>
-      <c r="B53" s="15" t="s">
+    <row r="54" spans="1:2" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="75">
+        <v>41542</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="75"/>
+      <c r="B55" s="25" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="54" s="19" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A54" s="34">
-        <v>41542</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="55" s="15" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A55" s="34"/>
-      <c r="B55" s="15" t="s">
+    <row r="56" spans="1:2" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="75"/>
+      <c r="B56" s="25" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="56" s="15" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A56" s="34"/>
-      <c r="B56" s="15" t="s">
+    <row r="57" spans="1:2" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="75">
+        <v>41543</v>
+      </c>
+      <c r="B57" s="24" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="57" s="19" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A57" s="34">
-        <v>41543</v>
-      </c>
-      <c r="B57" s="19" t="s">
+    <row r="58" spans="1:2" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="75"/>
+      <c r="B58" s="25" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="58" s="15" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A58" s="34"/>
-      <c r="B58" s="15" t="s">
+    <row r="59" spans="1:2" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="75">
+        <v>41544</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="75"/>
+      <c r="B60" s="25" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="59" s="19" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A59" s="34">
-        <v>41544</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="60" s="15" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A60" s="34"/>
-      <c r="B60" s="15" t="s">
+    <row r="61" spans="1:2" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="75">
+        <v>41545</v>
+      </c>
+      <c r="B61" s="24" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="61" s="19" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A61" s="34">
-        <v>41545</v>
-      </c>
-      <c r="B61" s="19" t="s">
+    <row r="62" spans="1:2" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="75"/>
+      <c r="B62" s="10" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="62" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A62" s="34"/>
-      <c r="B62" s="14" t="s">
+    <row r="63" spans="1:2" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="15">
+        <v>41546</v>
+      </c>
+      <c r="B63" s="14" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="63" s="20" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A63" s="34">
-        <v>41546</v>
-      </c>
-      <c r="B63" s="20" t="s">
+    <row r="64" spans="1:2" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="76">
+        <v>41547</v>
+      </c>
+      <c r="B64" s="25" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="64" s="15" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A64" s="45">
-        <v>41547</v>
-      </c>
-      <c r="B64" s="15" t="s">
+    <row r="65" spans="1:2" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="77"/>
+      <c r="B65" s="10" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="65" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A65" s="47"/>
-      <c r="B65" s="14" t="s">
+    <row r="66" spans="1:2" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="22">
+        <v>41548</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="16">
+        <v>41549</v>
+      </c>
+      <c r="B67" s="25" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="66" s="20" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A66" s="50">
-        <v>41548</v>
-      </c>
-      <c r="B66" s="20" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="67" s="15" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A67" s="5">
-        <v>41549</v>
-      </c>
-      <c r="B67" s="15" t="s">
+    <row r="68" spans="1:2" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="75">
+        <v>41550</v>
+      </c>
+      <c r="B68" s="24" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="68" s="19" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A68" s="34">
-        <v>41550</v>
-      </c>
-      <c r="B68" s="19" t="s">
+    <row r="69" spans="1:2" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="75"/>
+      <c r="B69" s="10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="69" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A69" s="34"/>
-      <c r="B69" s="14" t="s">
+    <row r="70" spans="1:2" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="75">
+        <v>41551</v>
+      </c>
+      <c r="B70" s="9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="70" s="13" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A70" s="34">
-        <v>41551</v>
-      </c>
-      <c r="B70" s="13" t="s">
+    <row r="71" spans="1:2" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="75"/>
+      <c r="B71" s="10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="71" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A71" s="34"/>
-      <c r="B71" s="14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="72" s="13" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
-      <c r="A72" s="51"/>
-    </row>
-    <row r="73" ht="20.1" customHeight="1"/>
-    <row r="74" ht="20.1" customHeight="1"/>
-    <row r="75" ht="20.1" customHeight="1"/>
-    <row r="76" ht="20.1" customHeight="1"/>
+    <row r="72" spans="1:2" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="45"/>
+    </row>
+    <row r="73" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="24">
     <mergeCell ref="A2:A4"/>
@@ -2503,147 +2502,114 @@
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="A54:A56"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.25" customWidth="1"/>
     <col min="3" max="3" width="38.75" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
     <col min="5" max="5" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="42" customHeight="1" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>1</v>
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A2" s="5">
+    </row>
+    <row r="2" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="67">
         <v>41552</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="7">
-        <v>41552</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A5" s="5">
-        <v>41553</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" s="7">
-        <v>41553</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
-      <c r="A6" s="8"/>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
-      <c r="A7" s="8"/>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
-      <c r="A8" s="8"/>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
-      <c r="A9" s="8"/>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
-      <c r="A10" s="8"/>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
-      <c r="A11" s="8"/>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
-      <c r="A12" s="8"/>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
-      <c r="A13" s="8"/>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
-      <c r="A14" s="8"/>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
-      <c r="A15" s="8"/>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
-      <c r="A16" s="8"/>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
-      <c r="A17" s="8"/>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
-      <c r="A18" s="8"/>
-    </row>
-    <row r="19" ht="20.1" customHeight="1"/>
-    <row r="20" ht="20.1" customHeight="1"/>
+    </row>
+    <row r="3" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="84"/>
+    </row>
+    <row r="4" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="84"/>
+    </row>
+    <row r="5" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="84"/>
+    </row>
+    <row r="6" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="84"/>
+    </row>
+    <row r="7" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="84"/>
+    </row>
+    <row r="8" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="84"/>
+    </row>
+    <row r="9" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="84"/>
+    </row>
+    <row r="10" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="84"/>
+    </row>
+    <row r="11" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="84"/>
+    </row>
+    <row r="12" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="84"/>
+    </row>
+    <row r="13" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="84"/>
+    </row>
+    <row r="14" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="84"/>
+    </row>
+    <row r="15" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="84"/>
+    </row>
+    <row r="16" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="84"/>
+    </row>
+    <row r="17" spans="1:1" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="84"/>
+    </row>
+    <row r="18" spans="1:1" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="84"/>
+    </row>
+    <row r="19" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D7"/>
-  </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/日志.xlsx
+++ b/日志.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19500" windowHeight="10335"/>
+    <workbookView windowWidth="20480" windowHeight="7840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="执行计划" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143">
+  <si>
+    <t>公平价网络推广团队2013年执行计划</t>
+  </si>
   <si>
     <t>日  期</t>
   </si>
@@ -479,20 +482,30 @@
     <t>2、整理小型车排名报告</t>
   </si>
   <si>
-    <t>公平价网络推广团队2013年执行计划</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -511,30 +524,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="30"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="30"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -568,6 +560,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="30"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="30"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -578,12 +591,6 @@
       <color indexed="10"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -638,27 +645,12 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -679,7 +671,40 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -718,295 +743,257 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
-      </left>
-      <right/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1305,7 +1292,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -1340,14 +1326,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="30.625" customWidth="1"/>
@@ -1357,509 +1344,495 @@
     <col min="6" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-    </row>
-    <row r="2" spans="1:5" s="46" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="49" t="s">
+    <row r="1" ht="44.25" customHeight="1" spans="1:5">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+    </row>
+    <row r="2" s="50" customFormat="1" ht="29.25" customHeight="1" spans="1:5">
+      <c r="A2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="B2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="C2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="D2" s="54" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="70" t="s">
+      <c r="E2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="71" t="s">
+    </row>
+    <row r="3" customHeight="1" spans="1:5">
+      <c r="A3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="B3" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="C3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="74" t="s">
+      <c r="D3" s="59" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="74"/>
-    </row>
-    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="70"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="74"/>
-    </row>
-    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="70"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="74"/>
-    </row>
-    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="70"/>
-      <c r="B7" s="71" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="72" t="s">
+    </row>
+    <row r="4" customHeight="1" spans="1:5">
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:5">
+      <c r="A5" s="57"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:5">
+      <c r="A6" s="57"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:5">
+      <c r="A7" s="57"/>
+      <c r="B7" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="72" t="s">
+      <c r="C7" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="74"/>
-    </row>
-    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="70"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="74"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="70"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="74"/>
-    </row>
-    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="70"/>
-      <c r="B10" s="71" t="s">
+      <c r="D7" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:5">
+      <c r="A8" s="57"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:5">
+      <c r="A9" s="57"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:5">
+      <c r="A10" s="57"/>
+      <c r="B10" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="72" t="s">
+      <c r="C10" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="75"/>
-    </row>
-    <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="70"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="75"/>
-    </row>
-    <row r="12" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="70"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="75"/>
-    </row>
-    <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="70"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="75"/>
-    </row>
-    <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="70"/>
-      <c r="B14" s="71" t="s">
+      <c r="D10" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="72" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="72" t="s">
+      <c r="E10" s="33"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:5">
+      <c r="A11" s="57"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="33"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:5">
+      <c r="A12" s="57"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="33"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:5">
+      <c r="A13" s="57"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="33"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:5">
+      <c r="A14" s="57"/>
+      <c r="B14" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="75"/>
-    </row>
-    <row r="15" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="70"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="75"/>
-    </row>
-    <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="70"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="75"/>
-    </row>
-    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="70"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="75"/>
-    </row>
-    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="70"/>
-      <c r="B18" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="73" t="s">
+      <c r="D14" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="33"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:5">
+      <c r="A15" s="57"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="33"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:5">
+      <c r="A16" s="57"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="33"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:5">
+      <c r="A17" s="57"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="33"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:5">
+      <c r="A18" s="57"/>
+      <c r="B18" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="72" t="s">
+      <c r="C18" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="75"/>
-    </row>
-    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="70"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="75"/>
-    </row>
-    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="70"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="75"/>
-    </row>
-    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="70"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="75"/>
-    </row>
-    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="70"/>
-      <c r="B22" s="71" t="s">
+      <c r="D18" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="E18" s="33"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:5">
+      <c r="A19" s="57"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="33"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:5">
+      <c r="A20" s="57"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="33"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:5">
+      <c r="A21" s="57"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="33"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:5">
+      <c r="A22" s="57"/>
+      <c r="B22" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="72" t="s">
+      <c r="C22" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="75"/>
-    </row>
-    <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="70"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="75"/>
-    </row>
-    <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="70"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="75"/>
-    </row>
-    <row r="25" spans="1:6" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="70"/>
-      <c r="B25" s="71" t="s">
+      <c r="D22" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="72" t="s">
+      <c r="E22" s="33"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:5">
+      <c r="A23" s="57"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="33"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:5">
+      <c r="A24" s="57"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="33"/>
+    </row>
+    <row r="25" ht="8.1" customHeight="1" spans="1:5">
+      <c r="A25" s="57"/>
+      <c r="B25" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="74" t="s">
+      <c r="C25" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="74"/>
-    </row>
-    <row r="26" spans="1:6" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="70"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-    </row>
-    <row r="27" spans="1:6" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="70"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-    </row>
-    <row r="28" spans="1:6" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="70"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-    </row>
-    <row r="29" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="70"/>
-      <c r="B29" s="53" t="s">
+      <c r="D25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" ht="8.1" customHeight="1" spans="1:5">
+      <c r="A26" s="57"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" ht="8.1" customHeight="1" spans="1:5">
+      <c r="A27" s="57"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" ht="8.1" customHeight="1" spans="1:5">
+      <c r="A28" s="57"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" ht="58.5" customHeight="1" spans="1:4">
+      <c r="A29" s="57"/>
+      <c r="B29" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="C29" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="70"/>
-      <c r="B30" s="8" t="s">
+      <c r="D29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="36" t="s">
+    </row>
+    <row r="30" ht="30" customHeight="1" spans="1:4">
+      <c r="A30" s="57"/>
+      <c r="B30" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="C30" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="70"/>
-      <c r="B31" s="8" t="s">
+      <c r="D30" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="4" t="s">
+    </row>
+    <row r="31" s="2" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="A31" s="57"/>
+      <c r="B31" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="55"/>
-    </row>
-    <row r="32" spans="1:6" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="70"/>
-      <c r="B32" s="8" t="s">
+      <c r="C31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="F32" s="55"/>
-    </row>
-    <row r="33" spans="1:6" s="47" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="70"/>
-      <c r="B33" s="53" t="s">
+      <c r="F31" s="62"/>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="A32" s="57"/>
+      <c r="B32" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="54" t="s">
+      <c r="C32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="62"/>
+    </row>
+    <row r="33" s="51" customFormat="1" ht="39.95" customHeight="1" spans="1:5">
+      <c r="A33" s="57"/>
+      <c r="B33" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="57" t="s">
+      <c r="C33" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="54" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="70"/>
-      <c r="B34" s="53" t="s">
+      <c r="D33" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="58" t="s">
+      <c r="E33" s="59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" ht="39.95" customHeight="1" spans="1:5">
+      <c r="A34" s="57"/>
+      <c r="B34" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="70"/>
-      <c r="B35" s="8" t="s">
+      <c r="C34" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="57" t="s">
+      <c r="E34" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" ht="30" customHeight="1" spans="1:5">
+      <c r="A35" s="57"/>
+      <c r="B35" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="36" t="s">
+      <c r="C35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="64" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="70"/>
-      <c r="B36" s="53" t="s">
+      <c r="E35" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="57" t="s">
+    </row>
+    <row r="36" ht="39.95" customHeight="1" spans="1:5">
+      <c r="A36" s="57"/>
+      <c r="B36" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="36" t="s">
+      <c r="C36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="64" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="70"/>
-      <c r="B37" s="53" t="s">
+      <c r="E36" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="57" t="s">
+    </row>
+    <row r="37" ht="39.95" customHeight="1" spans="1:5">
+      <c r="A37" s="57"/>
+      <c r="B37" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="48" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="59"/>
-      <c r="B38" s="60" t="s">
+      <c r="C37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="E37" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" s="52" customFormat="1" ht="49.5" customHeight="1" spans="1:5">
+      <c r="A38" s="66"/>
+      <c r="B38" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="61" t="s">
+      <c r="C38" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="52"/>
-      <c r="B39" s="8" t="s">
+      <c r="D38" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="E38" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" s="2" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="A39" s="57"/>
+      <c r="B39" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="62" t="s">
+      <c r="C39" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="F39" s="55"/>
-    </row>
-    <row r="40" spans="1:6" s="26" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="63"/>
-      <c r="B40" s="17" t="s">
+      <c r="D39" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="36" t="s">
+      <c r="E39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="62"/>
+    </row>
+    <row r="40" s="9" customFormat="1" ht="39.95" customHeight="1" spans="1:5">
+      <c r="A40" s="70"/>
+      <c r="B40" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="64" t="s">
+      <c r="C40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" s="9" customFormat="1" ht="39.95" customHeight="1" spans="2:5">
+      <c r="B41" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="26" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="E41" s="32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="53" t="s">
+      <c r="D41" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="36" t="s">
+      <c r="E41" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" ht="39.95" customHeight="1" spans="2:5">
+      <c r="B42" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="57"/>
-      <c r="E42" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="53" t="s">
+      <c r="C42" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="E43" s="36" t="s">
+      <c r="D42" s="64"/>
+      <c r="E42" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" ht="20.1" customHeight="1" spans="2:5">
+      <c r="B43" s="58" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="53" t="s">
+      <c r="C43" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="36" t="s">
+    </row>
+    <row r="44" ht="20.1" customHeight="1" spans="2:5">
+      <c r="B44" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="E44" s="36" t="s">
+      <c r="C44" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="E44" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" ht="20.1" customHeight="1"/>
+    <row r="46" ht="20.1" customHeight="1"/>
+    <row r="47" ht="20.1" customHeight="1"/>
+    <row r="48" ht="20.1" customHeight="1"/>
+    <row r="49" ht="20.1" customHeight="1"/>
+    <row r="50" ht="20.1" customHeight="1"/>
+    <row r="51" ht="20.1" customHeight="1"/>
+    <row r="52" ht="20.1" customHeight="1"/>
+    <row r="53" ht="20.1" customHeight="1"/>
+    <row r="54" ht="20.1" customHeight="1"/>
+    <row r="55" ht="20.1" customHeight="1"/>
+    <row r="56" ht="20.1" customHeight="1"/>
+    <row r="57" ht="20.1" customHeight="1"/>
+    <row r="58" ht="20.1" customHeight="1"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="D18:D21"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:A37"/>
     <mergeCell ref="B3:B6"/>
@@ -1876,8 +1849,21 @@
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="C25:C28"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="E25:E28"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -1885,731 +1871,736 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A1" sqref="1:1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="11.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.875" style="3" customWidth="1"/>
     <col min="2" max="2" width="61.5" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
     <col min="5" max="5" width="39.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="23" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
+    <row r="1" s="7" customFormat="1" ht="35.25" customHeight="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="19" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="76">
+      <c r="E1" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" s="8" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A2" s="20">
         <v>41521</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="24" t="s">
+      <c r="B2" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="24"/>
-    </row>
-    <row r="3" spans="1:5" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="77"/>
-      <c r="B3" s="31" t="s">
+      <c r="C2" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" s="9" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A3" s="5"/>
+      <c r="B3" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="25"/>
-    </row>
-    <row r="4" spans="1:5" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="78"/>
-      <c r="B4" s="33" t="s">
+      <c r="C3" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A4" s="25"/>
+      <c r="B4" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="76">
+      <c r="C4" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" ht="33.75" customHeight="1" spans="1:5">
+      <c r="A5" s="20">
         <v>41522</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="35" t="s">
+      <c r="B5" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="24"/>
-    </row>
-    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="77"/>
-      <c r="B6" s="6" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="25"/>
-    </row>
-    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="77"/>
-      <c r="B7" s="6" t="s">
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A6" s="5"/>
+      <c r="B6" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="25"/>
-    </row>
-    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="78"/>
-      <c r="B8" s="7" t="s">
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A7" s="5"/>
+      <c r="B7" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="76">
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A8" s="25"/>
+      <c r="B8" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" s="9" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A9" s="20">
         <v>41523</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="25"/>
-    </row>
-    <row r="10" spans="1:5" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="77"/>
-      <c r="B10" s="6" t="s">
+      <c r="B9" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="25"/>
-    </row>
-    <row r="11" spans="1:5" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="77"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:5" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="76">
+      <c r="C9" s="30"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" s="9" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A10" s="5"/>
+      <c r="B10" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A11" s="5"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" s="9" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A12" s="20">
         <v>41524</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="25"/>
-    </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="77"/>
-      <c r="B13" s="8" t="s">
+      <c r="B12" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="78"/>
-      <c r="B14" s="7" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A13" s="5"/>
+      <c r="B13" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="40" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A14" s="25"/>
+      <c r="B14" s="15" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="79">
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A15" s="32">
         <v>41525</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="80"/>
-      <c r="B16" s="8" t="s">
+      <c r="B15" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="80"/>
-      <c r="B17" s="7" t="s">
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+    </row>
+    <row r="16" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A16" s="34"/>
+      <c r="B16" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="79">
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+    </row>
+    <row r="17" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A17" s="34"/>
+      <c r="B17" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="32">
         <v>41526</v>
       </c>
-      <c r="B18" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="80"/>
-      <c r="B19" s="27" t="s">
+      <c r="B18" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="80"/>
-      <c r="B20" s="27" t="s">
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="34"/>
+      <c r="B19" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="80"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="34"/>
+      <c r="B20" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+    </row>
+    <row r="21" s="10" customFormat="1" spans="1:5">
+      <c r="A21" s="34"/>
       <c r="B21" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="42" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="81">
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" s="11" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A22" s="39">
         <v>41527</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-    </row>
-    <row r="23" spans="1:5" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="82"/>
-      <c r="B23" s="7" t="s">
+      <c r="B22" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-    </row>
-    <row r="24" spans="1:5" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="79">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" s="12" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A23" s="40"/>
+      <c r="B23" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+    </row>
+    <row r="24" s="11" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A24" s="32">
         <v>41528</v>
       </c>
-      <c r="B24" s="20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="79"/>
-      <c r="B25" s="20" t="s">
+      <c r="B24" s="41" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="79"/>
-      <c r="B26" s="20" t="s">
+    <row r="25" s="13" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A25" s="32"/>
+      <c r="B25" s="41" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="79"/>
-      <c r="B27" s="7" t="s">
+    <row r="26" s="13" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A26" s="32"/>
+      <c r="B26" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-    </row>
-    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="79">
+    </row>
+    <row r="27" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A27" s="32"/>
+      <c r="B27" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+    </row>
+    <row r="28" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A28" s="32">
         <v>41529</v>
       </c>
-      <c r="B28" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="80"/>
-      <c r="B29" s="27" t="s">
+      <c r="B28" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="80"/>
-      <c r="B30" s="27" t="s">
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+    </row>
+    <row r="29" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A29" s="34"/>
+      <c r="B29" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="80"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+    </row>
+    <row r="30" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A30" s="34"/>
+      <c r="B30" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+    </row>
+    <row r="31" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A31" s="34"/>
       <c r="B31" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-    </row>
-    <row r="32" spans="1:5" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="79">
+        <v>104</v>
+      </c>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+    </row>
+    <row r="32" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A32" s="32">
         <v>41530</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="80"/>
-      <c r="B33" s="8" t="s">
+      <c r="B32" s="14" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="80"/>
-      <c r="B34" s="20" t="s">
+    <row r="33" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A33" s="34"/>
+      <c r="B33" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="80"/>
-      <c r="B35" s="21" t="s">
+    <row r="34" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A34" s="34"/>
+      <c r="B34" s="41" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="39" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="83">
+    <row r="35" s="15" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A35" s="34"/>
+      <c r="B35" s="42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" s="16" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A36" s="43">
         <v>41531</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" s="39" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="84"/>
-      <c r="B37" s="11" t="s">
+      <c r="B36" s="44" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="39" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="15">
+    <row r="37" s="16" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A37" s="45"/>
+      <c r="B37" s="44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" s="16" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A38" s="32">
         <v>41532</v>
       </c>
-      <c r="B38" s="43" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="76">
+      <c r="B38" s="46" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A39" s="20">
         <v>41533</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="78"/>
-      <c r="B40" s="7" t="s">
+      <c r="B39" s="14" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="76">
+    <row r="40" s="15" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A40" s="25"/>
+      <c r="B40" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A41" s="20">
         <v>41534</v>
       </c>
-      <c r="B41" s="20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="78"/>
-      <c r="B42" s="20" t="s">
+      <c r="B41" s="41" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="79">
+    <row r="42" s="9" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A42" s="25"/>
+      <c r="B42" s="41" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" s="8" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A43" s="32">
         <v>41535</v>
       </c>
-      <c r="B43" s="44" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="79"/>
-      <c r="B44" s="21" t="s">
+      <c r="B43" s="47" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="1:2" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="18">
+    <row r="44" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A44" s="32"/>
+      <c r="B44" s="42" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" s="15" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A45" s="25">
         <v>41536</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" s="39" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="22">
+      <c r="B45" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" s="16" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A46" s="48">
         <v>41537</v>
       </c>
-      <c r="B46" s="43" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="19">
+      <c r="B46" s="46" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" s="8" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A47" s="20">
         <v>41538</v>
       </c>
-      <c r="B47" s="24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="79">
+      <c r="B47" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" s="8" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A48" s="32">
         <v>41539</v>
       </c>
-      <c r="B48" s="44" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="79"/>
-      <c r="B49" s="21" t="s">
+      <c r="B48" s="47" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:2" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="83">
+    <row r="49" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A49" s="32"/>
+      <c r="B49" s="42" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" s="11" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A50" s="43">
         <v>41540</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="84"/>
-      <c r="B51" s="25" t="s">
+      <c r="B50" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="83">
+    <row r="51" s="13" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A51" s="45"/>
+      <c r="B51" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A52" s="43">
         <v>41541</v>
       </c>
-      <c r="B52" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="84"/>
-      <c r="B53" s="25" t="s">
+      <c r="B52" s="17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="54" spans="1:2" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="79">
+    <row r="53" s="13" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A53" s="45"/>
+      <c r="B53" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A54" s="32">
         <v>41542</v>
       </c>
-      <c r="B54" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="79"/>
-      <c r="B55" s="25" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="79"/>
-      <c r="B56" s="25" t="s">
+      <c r="B54" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" s="13" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A55" s="32"/>
+      <c r="B55" s="13" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="57" spans="1:2" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="79">
+    <row r="56" s="13" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A56" s="32"/>
+      <c r="B56" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A57" s="32">
         <v>41543</v>
       </c>
-      <c r="B57" s="24" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="79"/>
-      <c r="B58" s="25" t="s">
+      <c r="B57" s="17" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="59" spans="1:2" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="79">
+    <row r="58" s="13" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A58" s="32"/>
+      <c r="B58" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A59" s="32">
         <v>41544</v>
       </c>
-      <c r="B59" s="24" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="79"/>
-      <c r="B60" s="25" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="79">
+      <c r="B59" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" s="13" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A60" s="32"/>
+      <c r="B60" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A61" s="32">
         <v>41545</v>
       </c>
-      <c r="B61" s="24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="79"/>
-      <c r="B62" s="10" t="s">
+      <c r="B61" s="17" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="63" spans="1:2" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="15">
+    <row r="62" s="12" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A62" s="32"/>
+      <c r="B62" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63" s="18" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A63" s="32">
         <v>41546</v>
       </c>
-      <c r="B63" s="14" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="83">
+      <c r="B63" s="18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" s="13" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A64" s="43">
         <v>41547</v>
       </c>
-      <c r="B64" s="25" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="84"/>
-      <c r="B65" s="10" t="s">
+      <c r="B64" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="66" spans="1:2" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="22">
+    <row r="65" s="12" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A65" s="45"/>
+      <c r="B65" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" s="18" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A66" s="48">
         <v>41548</v>
       </c>
-      <c r="B66" s="14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="16">
+      <c r="B66" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" s="13" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A67" s="5">
         <v>41549</v>
       </c>
-      <c r="B67" s="25" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="79">
+      <c r="B67" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A68" s="32">
         <v>41550</v>
       </c>
-      <c r="B68" s="24" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="79"/>
-      <c r="B69" s="10" t="s">
+      <c r="B68" s="17" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:2" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="79">
+    <row r="69" s="12" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A69" s="32"/>
+      <c r="B69" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" s="11" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A70" s="32">
         <v>41551</v>
       </c>
-      <c r="B70" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="79"/>
-      <c r="B71" s="10" t="s">
+      <c r="B70" s="11" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="72" spans="1:2" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="45"/>
-    </row>
-    <row r="73" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" s="12" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A71" s="32"/>
+      <c r="B71" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" s="11" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
+      <c r="A72" s="49"/>
+    </row>
+    <row r="73" ht="20.1" customHeight="1"/>
+    <row r="74" ht="20.1" customHeight="1"/>
+    <row r="75" ht="20.1" customHeight="1"/>
+    <row r="76" ht="20.1" customHeight="1"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A48:A49"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="A54:A56"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="31.25" customWidth="1"/>
     <col min="3" max="3" width="38.75" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
     <col min="5" max="5" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
+    <row r="1" s="1" customFormat="1" ht="42" customHeight="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="67">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A2" s="5">
         <v>41552</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="68"/>
-    </row>
-    <row r="4" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="68"/>
-    </row>
-    <row r="5" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="68"/>
-    </row>
-    <row r="6" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="68"/>
-    </row>
-    <row r="7" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="68"/>
-    </row>
-    <row r="8" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="68"/>
-    </row>
-    <row r="9" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="68"/>
-    </row>
-    <row r="10" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="68"/>
-    </row>
-    <row r="11" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="68"/>
-    </row>
-    <row r="12" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="68"/>
-    </row>
-    <row r="13" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="68"/>
-    </row>
-    <row r="14" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="68"/>
-    </row>
-    <row r="15" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="68"/>
-    </row>
-    <row r="16" spans="1:5" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="68"/>
-    </row>
-    <row r="17" spans="1:1" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="68"/>
-    </row>
-    <row r="18" spans="1:1" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="68"/>
-    </row>
-    <row r="19" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="B2" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
+      <c r="A3" s="6"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
+      <c r="A4" s="6"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
+      <c r="A5" s="6"/>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
+      <c r="A6" s="6"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
+      <c r="A7" s="6"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
+      <c r="A8" s="6"/>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
+      <c r="A9" s="6"/>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
+      <c r="A10" s="6"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
+      <c r="A11" s="6"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
+      <c r="A12" s="6"/>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
+      <c r="A13" s="6"/>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
+      <c r="A14" s="6"/>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
+      <c r="A15" s="6"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
+      <c r="A16" s="6"/>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
+      <c r="A17" s="6"/>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
+      <c r="A18" s="6"/>
+    </row>
+    <row r="19" ht="20.1" customHeight="1"/>
+    <row r="20" ht="20.1" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/日志.xlsx
+++ b/日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144">
   <si>
     <t>公平价网络推广团队2013年执行计划</t>
   </si>
@@ -484,6 +484,9 @@
   <si>
     <t>test</t>
   </si>
+  <si>
+    <t>test22</t>
+  </si>
 </sst>
 </file>
 
@@ -495,17 +498,12 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -760,32 +758,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -794,7 +792,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -822,7 +820,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -858,7 +856,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -879,7 +877,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -913,7 +911,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -922,19 +920,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -946,43 +944,43 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2511,7 +2509,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2548,8 +2546,11 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
+    <row r="3" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
       <c r="A3" s="6"/>
+      <c r="B3" s="2" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
       <c r="A4" s="6"/>

--- a/日志.xlsx
+++ b/日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156">
   <si>
     <t>公平价网络推广团队2013年执行计划</t>
   </si>
@@ -482,10 +482,49 @@
     <t>2、整理小型车排名报告</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>test22</t>
+    <t>目标完成时间</t>
+  </si>
+  <si>
+    <t>工作进度</t>
+  </si>
+  <si>
+    <t>1.浏览汽车之家上发布的所有帖子并总结回复率高的帖子的特点，调查版主、编辑及其作品</t>
+  </si>
+  <si>
+    <t>10月9日完成</t>
+  </si>
+  <si>
+    <t>2.浏览易车网上发布的帖子并
+总结回复率高的帖子，调查版主编辑</t>
+  </si>
+  <si>
+    <t>10月11日完成</t>
+  </si>
+  <si>
+    <t>3.天涯汽车板块浏览总结</t>
+  </si>
+  <si>
+    <t>10月13日完成</t>
+  </si>
+  <si>
+    <t>4.总结并记住所有的汽车品牌</t>
+  </si>
+  <si>
+    <t>10月15日完成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.归纳总结所有汽车品牌的车型并记住特别有名的车型及其配置
+</t>
+  </si>
+  <si>
+    <t>10月18日完成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6、熟悉车辆配置所涉及的参数和专业名词以及保养流程、具体方法及收费标准。
+</t>
+  </si>
+  <si>
+    <t>10月20日完成</t>
   </si>
 </sst>
 </file>
@@ -789,6 +828,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -937,9 +979,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1329,7 +1368,7 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E13"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1343,42 +1382,42 @@
   </cols>
   <sheetData>
     <row r="1" ht="44.25" customHeight="1" spans="1:5">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-    </row>
-    <row r="2" s="50" customFormat="1" ht="29.25" customHeight="1" spans="1:5">
-      <c r="A2" s="54" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+    </row>
+    <row r="2" s="51" customFormat="1" ht="29.25" customHeight="1" spans="1:5">
+      <c r="A2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="57" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1386,188 +1425,188 @@
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="57"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" customHeight="1" spans="1:5">
-      <c r="A6" s="57"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="57"/>
-      <c r="B7" s="58" t="s">
+      <c r="A7" s="58"/>
+      <c r="B7" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" customHeight="1" spans="1:5">
-      <c r="A8" s="57"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" customHeight="1" spans="1:5">
-      <c r="A9" s="57"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" customHeight="1" spans="1:5">
-      <c r="A10" s="57"/>
-      <c r="B10" s="58" t="s">
+      <c r="A10" s="58"/>
+      <c r="B10" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="33"/>
+      <c r="E10" s="34"/>
     </row>
     <row r="11" customHeight="1" spans="1:5">
-      <c r="A11" s="57"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="33"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="34"/>
     </row>
     <row r="12" customHeight="1" spans="1:5">
-      <c r="A12" s="57"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="33"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="34"/>
     </row>
     <row r="13" customHeight="1" spans="1:5">
-      <c r="A13" s="57"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="33"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="34"/>
     </row>
     <row r="14" customHeight="1" spans="1:5">
-      <c r="A14" s="57"/>
-      <c r="B14" s="58" t="s">
+      <c r="A14" s="58"/>
+      <c r="B14" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="33"/>
+      <c r="E14" s="34"/>
     </row>
     <row r="15" customHeight="1" spans="1:5">
-      <c r="A15" s="57"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="33"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="34"/>
     </row>
     <row r="16" customHeight="1" spans="1:5">
-      <c r="A16" s="57"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="33"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="34"/>
     </row>
     <row r="17" customHeight="1" spans="1:5">
-      <c r="A17" s="57"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="33"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="34"/>
     </row>
     <row r="18" customHeight="1" spans="1:5">
-      <c r="A18" s="57"/>
-      <c r="B18" s="58" t="s">
+      <c r="A18" s="58"/>
+      <c r="B18" s="59" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="33"/>
+      <c r="E18" s="34"/>
     </row>
     <row r="19" customHeight="1" spans="1:5">
-      <c r="A19" s="57"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="33"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="34"/>
     </row>
     <row r="20" customHeight="1" spans="1:5">
-      <c r="A20" s="57"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="33"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="34"/>
     </row>
     <row r="21" customHeight="1" spans="1:5">
-      <c r="A21" s="57"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="33"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="34"/>
     </row>
     <row r="22" customHeight="1" spans="1:5">
-      <c r="A22" s="57"/>
-      <c r="B22" s="58" t="s">
+      <c r="A22" s="58"/>
+      <c r="B22" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="59" t="s">
+      <c r="D22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="33"/>
+      <c r="E22" s="34"/>
     </row>
     <row r="23" customHeight="1" spans="1:5">
-      <c r="A23" s="57"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="33"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="34"/>
     </row>
     <row r="24" customHeight="1" spans="1:5">
-      <c r="A24" s="57"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="33"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="34"/>
     </row>
     <row r="25" ht="8.1" customHeight="1" spans="1:5">
-      <c r="A25" s="57"/>
-      <c r="B25" s="58" t="s">
+      <c r="A25" s="58"/>
+      <c r="B25" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -1576,29 +1615,29 @@
       <c r="E25" s="2"/>
     </row>
     <row r="26" ht="8.1" customHeight="1" spans="1:5">
-      <c r="A26" s="57"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="59"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="6"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" ht="8.1" customHeight="1" spans="1:5">
-      <c r="A27" s="57"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="59"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="6"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" ht="8.1" customHeight="1" spans="1:5">
-      <c r="A28" s="57"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="59"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="6"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" ht="58.5" customHeight="1" spans="1:4">
-      <c r="A29" s="57"/>
-      <c r="B29" s="58" t="s">
+      <c r="A29" s="58"/>
+      <c r="B29" s="59" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -1609,8 +1648,8 @@
       </c>
     </row>
     <row r="30" ht="30" customHeight="1" spans="1:4">
-      <c r="A30" s="57"/>
-      <c r="B30" s="14" t="s">
+      <c r="A30" s="58"/>
+      <c r="B30" s="15" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -1621,8 +1660,8 @@
       </c>
     </row>
     <row r="31" s="2" customFormat="1" ht="30" customHeight="1" spans="1:6">
-      <c r="A31" s="57"/>
-      <c r="B31" s="14" t="s">
+      <c r="A31" s="58"/>
+      <c r="B31" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -1634,8 +1673,8 @@
       <c r="F31" s="62"/>
     </row>
     <row r="32" s="2" customFormat="1" ht="30" customHeight="1" spans="1:6">
-      <c r="A32" s="57"/>
-      <c r="B32" s="14" t="s">
+      <c r="A32" s="58"/>
+      <c r="B32" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -1646,27 +1685,27 @@
       </c>
       <c r="F32" s="62"/>
     </row>
-    <row r="33" s="51" customFormat="1" ht="39.95" customHeight="1" spans="1:5">
-      <c r="A33" s="57"/>
-      <c r="B33" s="58" t="s">
+    <row r="33" s="52" customFormat="1" ht="39.95" customHeight="1" spans="1:5">
+      <c r="A33" s="58"/>
+      <c r="B33" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D33" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="59" t="s">
+      <c r="E33" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="34" ht="39.95" customHeight="1" spans="1:5">
-      <c r="A34" s="57"/>
-      <c r="B34" s="58" t="s">
+      <c r="A34" s="58"/>
+      <c r="B34" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="59" t="s">
+      <c r="C34" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D34" s="65" t="s">
@@ -1677,8 +1716,8 @@
       </c>
     </row>
     <row r="35" ht="30" customHeight="1" spans="1:5">
-      <c r="A35" s="57"/>
-      <c r="B35" s="14" t="s">
+      <c r="A35" s="58"/>
+      <c r="B35" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -1692,8 +1731,8 @@
       </c>
     </row>
     <row r="36" ht="39.95" customHeight="1" spans="1:5">
-      <c r="A36" s="57"/>
-      <c r="B36" s="58" t="s">
+      <c r="A36" s="58"/>
+      <c r="B36" s="59" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -1707,8 +1746,8 @@
       </c>
     </row>
     <row r="37" ht="39.95" customHeight="1" spans="1:5">
-      <c r="A37" s="57"/>
-      <c r="B37" s="58" t="s">
+      <c r="A37" s="58"/>
+      <c r="B37" s="59" t="s">
         <v>47</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -1721,24 +1760,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" s="52" customFormat="1" ht="49.5" customHeight="1" spans="1:5">
+    <row r="38" s="53" customFormat="1" ht="49.5" customHeight="1" spans="1:5">
       <c r="A38" s="66"/>
       <c r="B38" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="30" t="s">
         <v>50</v>
       </c>
       <c r="D38" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="23" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" ht="30" customHeight="1" spans="1:6">
-      <c r="A39" s="57"/>
-      <c r="B39" s="14" t="s">
+      <c r="A39" s="58"/>
+      <c r="B39" s="15" t="s">
         <v>52</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -1752,7 +1791,7 @@
       </c>
       <c r="F39" s="62"/>
     </row>
-    <row r="40" s="9" customFormat="1" ht="39.95" customHeight="1" spans="1:5">
+    <row r="40" s="10" customFormat="1" ht="39.95" customHeight="1" spans="1:5">
       <c r="A40" s="70"/>
       <c r="B40" s="71" t="s">
         <v>55</v>
@@ -1763,11 +1802,11 @@
       <c r="D40" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="24" t="s">
+      <c r="E40" s="25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41" s="9" customFormat="1" ht="39.95" customHeight="1" spans="2:5">
+    <row r="41" s="10" customFormat="1" ht="39.95" customHeight="1" spans="2:5">
       <c r="B41" s="71" t="s">
         <v>57</v>
       </c>
@@ -1777,12 +1816,12 @@
       <c r="D41" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="E41" s="24" t="s">
+      <c r="E41" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="42" ht="39.95" customHeight="1" spans="2:5">
-      <c r="B42" s="58" t="s">
+      <c r="B42" s="59" t="s">
         <v>59</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -1794,7 +1833,7 @@
       </c>
     </row>
     <row r="43" ht="20.1" customHeight="1" spans="2:5">
-      <c r="B43" s="58" t="s">
+      <c r="B43" s="59" t="s">
         <v>61</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -1805,7 +1844,7 @@
       </c>
     </row>
     <row r="44" ht="20.1" customHeight="1" spans="2:5">
-      <c r="B44" s="58" t="s">
+      <c r="B44" s="59" t="s">
         <v>63</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -1886,7 +1925,7 @@
     <col min="5" max="5" width="39.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="35.25" customHeight="1" spans="1:5">
+    <row r="1" s="8" customFormat="1" ht="35.25" customHeight="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1896,575 +1935,575 @@
       <c r="C1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="20" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A2" s="20">
+    <row r="2" s="9" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A2" s="21">
         <v>41521</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="17"/>
-    </row>
-    <row r="3" s="9" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+      <c r="D2" s="23"/>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A3" s="5"/>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" s="11" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A4" s="26"/>
+      <c r="B4" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="12"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" ht="33.75" customHeight="1" spans="1:5">
-      <c r="A5" s="20">
+      <c r="A5" s="21">
         <v>41522</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="29" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="17"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="1:5">
       <c r="A6" s="5"/>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="13"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="1:5">
       <c r="A7" s="5"/>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="13"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A8" s="25"/>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" s="9" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A9" s="20">
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A9" s="21">
         <v>41523</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" s="9" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+      <c r="C9" s="31"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A10" s="5"/>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="13"/>
-    </row>
-    <row r="11" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+      <c r="C10" s="31"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" s="11" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A11" s="5"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" s="9" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A12" s="20">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A12" s="21">
         <v>41524</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:5">
       <c r="A13" s="5"/>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="15" t="s">
         <v>84</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A14" s="25"/>
-      <c r="B14" s="15" t="s">
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" s="11" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A14" s="26"/>
+      <c r="B14" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="31" t="s">
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="32" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A15" s="32">
+      <c r="A15" s="33">
         <v>41525</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
     </row>
     <row r="16" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A16" s="34"/>
-      <c r="B16" s="14" t="s">
+      <c r="A16" s="35"/>
+      <c r="B16" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-    </row>
-    <row r="17" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A17" s="34"/>
-      <c r="B17" s="15" t="s">
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+    </row>
+    <row r="17" s="11" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A17" s="35"/>
+      <c r="B17" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="32">
+      <c r="A18" s="33">
         <v>41526</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="34"/>
-      <c r="B19" s="36" t="s">
+      <c r="A19" s="35"/>
+      <c r="B19" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="34"/>
-      <c r="B20" s="36" t="s">
+      <c r="A20" s="35"/>
+      <c r="B20" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-    </row>
-    <row r="21" s="10" customFormat="1" spans="1:5">
-      <c r="A21" s="34"/>
-      <c r="B21" s="37" t="s">
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+    </row>
+    <row r="21" s="11" customFormat="1" spans="1:5">
+      <c r="A21" s="35"/>
+      <c r="B21" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="38" t="s">
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="39" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="22" s="11" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A22" s="39">
+    <row r="22" s="12" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A22" s="40">
         <v>41527</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="15" t="s">
         <v>95</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" s="12" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A23" s="40"/>
-      <c r="B23" s="15" t="s">
+    <row r="23" s="13" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A23" s="41"/>
+      <c r="B23" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-    </row>
-    <row r="24" s="11" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A24" s="32">
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+    </row>
+    <row r="24" s="12" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A24" s="33">
         <v>41528</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="42" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" s="13" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A25" s="32"/>
-      <c r="B25" s="41" t="s">
+    <row r="25" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A25" s="33"/>
+      <c r="B25" s="42" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26" s="13" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A26" s="32"/>
-      <c r="B26" s="41" t="s">
+    <row r="26" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A26" s="33"/>
+      <c r="B26" s="42" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="27" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A27" s="32"/>
-      <c r="B27" s="15" t="s">
+    <row r="27" s="11" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A27" s="33"/>
+      <c r="B27" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
     </row>
     <row r="28" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A28" s="32">
+      <c r="A28" s="33">
         <v>41529</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
     </row>
     <row r="29" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A29" s="34"/>
-      <c r="B29" s="36" t="s">
+      <c r="A29" s="35"/>
+      <c r="B29" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
     </row>
     <row r="30" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A30" s="34"/>
-      <c r="B30" s="36" t="s">
+      <c r="A30" s="35"/>
+      <c r="B30" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-    </row>
-    <row r="31" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A31" s="34"/>
-      <c r="B31" s="37" t="s">
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+    </row>
+    <row r="31" s="11" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A31" s="35"/>
+      <c r="B31" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-    </row>
-    <row r="32" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A32" s="32">
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+    </row>
+    <row r="32" s="15" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A32" s="33">
         <v>41530</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="15" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="33" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A33" s="34"/>
-      <c r="B33" s="14" t="s">
+    <row r="33" s="15" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A33" s="35"/>
+      <c r="B33" s="15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="34" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A34" s="34"/>
-      <c r="B34" s="41" t="s">
+    <row r="34" s="15" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A34" s="35"/>
+      <c r="B34" s="42" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="35" s="15" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A35" s="34"/>
-      <c r="B35" s="42" t="s">
+    <row r="35" s="16" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A35" s="35"/>
+      <c r="B35" s="43" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="36" s="16" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A36" s="43">
+    <row r="36" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A36" s="44">
         <v>41531</v>
       </c>
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="45" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="37" s="16" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A37" s="45"/>
-      <c r="B37" s="44" t="s">
+    <row r="37" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A37" s="46"/>
+      <c r="B37" s="45" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="38" s="16" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A38" s="32">
+    <row r="38" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A38" s="33">
         <v>41532</v>
       </c>
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="47" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="39" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A39" s="20">
+    <row r="39" s="15" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A39" s="21">
         <v>41533</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="15" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="40" s="15" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="15" t="s">
+    <row r="40" s="16" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A40" s="26"/>
+      <c r="B40" s="16" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="41" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A41" s="20">
+      <c r="A41" s="21">
         <v>41534</v>
       </c>
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="42" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="42" s="9" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A42" s="25"/>
-      <c r="B42" s="41" t="s">
+    <row r="42" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A42" s="26"/>
+      <c r="B42" s="42" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="43" s="8" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A43" s="32">
+    <row r="43" s="9" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A43" s="33">
         <v>41535</v>
       </c>
-      <c r="B43" s="47" t="s">
+      <c r="B43" s="48" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="44" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A44" s="32"/>
-      <c r="B44" s="42" t="s">
+    <row r="44" s="11" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A44" s="33"/>
+      <c r="B44" s="43" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="45" s="15" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A45" s="25">
+    <row r="45" s="16" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A45" s="26">
         <v>41536</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="16" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="46" s="16" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A46" s="48">
+    <row r="46" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A46" s="49">
         <v>41537</v>
       </c>
-      <c r="B46" s="46" t="s">
+      <c r="B46" s="47" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="47" s="8" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A47" s="20">
+    <row r="47" s="9" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A47" s="21">
         <v>41538</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="18" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="48" s="8" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A48" s="32">
+    <row r="48" s="9" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A48" s="33">
         <v>41539</v>
       </c>
-      <c r="B48" s="47" t="s">
+      <c r="B48" s="48" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="49" s="10" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A49" s="32"/>
-      <c r="B49" s="42" t="s">
+    <row r="49" s="11" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A49" s="33"/>
+      <c r="B49" s="43" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="50" s="11" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A50" s="43">
+    <row r="50" s="12" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A50" s="44">
         <v>41540</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="51" s="13" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A51" s="45"/>
-      <c r="B51" s="13" t="s">
+    <row r="51" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A51" s="46"/>
+      <c r="B51" s="14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="52" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A52" s="43">
+    <row r="52" s="18" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A52" s="44">
         <v>41541</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="18" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="53" s="13" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A53" s="45"/>
-      <c r="B53" s="13" t="s">
+    <row r="53" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A53" s="46"/>
+      <c r="B53" s="14" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="54" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A54" s="32">
+    <row r="54" s="18" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A54" s="33">
         <v>41542</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="18" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="55" s="13" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A55" s="32"/>
-      <c r="B55" s="13" t="s">
+    <row r="55" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A55" s="33"/>
+      <c r="B55" s="14" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="56" s="13" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A56" s="32"/>
-      <c r="B56" s="13" t="s">
+    <row r="56" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A56" s="33"/>
+      <c r="B56" s="14" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="57" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A57" s="32">
+    <row r="57" s="18" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A57" s="33">
         <v>41543</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="18" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="58" s="13" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A58" s="32"/>
-      <c r="B58" s="13" t="s">
+    <row r="58" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A58" s="33"/>
+      <c r="B58" s="14" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="59" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A59" s="32">
+    <row r="59" s="18" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A59" s="33">
         <v>41544</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="18" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="60" s="13" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A60" s="32"/>
-      <c r="B60" s="13" t="s">
+    <row r="60" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A60" s="33"/>
+      <c r="B60" s="14" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="61" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A61" s="32">
+    <row r="61" s="18" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A61" s="33">
         <v>41545</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="B61" s="18" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="62" s="12" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A62" s="32"/>
-      <c r="B62" s="12" t="s">
+    <row r="62" s="13" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A62" s="33"/>
+      <c r="B62" s="13" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="63" s="18" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A63" s="32">
+    <row r="63" s="19" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A63" s="33">
         <v>41546</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="19" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="64" s="13" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A64" s="43">
+    <row r="64" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A64" s="44">
         <v>41547</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="14" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="65" s="12" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A65" s="45"/>
-      <c r="B65" s="12" t="s">
+    <row r="65" s="13" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A65" s="46"/>
+      <c r="B65" s="13" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="66" s="18" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A66" s="48">
+    <row r="66" s="19" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A66" s="49">
         <v>41548</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="19" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="67" s="13" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+    <row r="67" s="14" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
       <c r="A67" s="5">
         <v>41549</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="14" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="68" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A68" s="32">
+    <row r="68" s="18" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A68" s="33">
         <v>41550</v>
       </c>
-      <c r="B68" s="17" t="s">
+      <c r="B68" s="18" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="69" s="12" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A69" s="32"/>
-      <c r="B69" s="12" t="s">
+    <row r="69" s="13" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A69" s="33"/>
+      <c r="B69" s="13" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="70" s="11" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A70" s="32">
+    <row r="70" s="12" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A70" s="33">
         <v>41551</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="71" s="12" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A71" s="32"/>
-      <c r="B71" s="12" t="s">
+    <row r="71" s="13" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A71" s="33"/>
+      <c r="B71" s="13" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="72" s="11" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
-      <c r="A72" s="49"/>
+    <row r="72" s="12" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
+      <c r="A72" s="50"/>
     </row>
     <row r="73" ht="20.1" customHeight="1"/>
     <row r="74" ht="20.1" customHeight="1"/>
@@ -2508,8 +2547,8 @@
   <sheetPr/>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2529,77 +2568,124 @@
         <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A2" s="5">
-        <v>41552</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>142</v>
+    <row r="2" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
-      <c r="A4" s="6"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
-      <c r="A5" s="6"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
-      <c r="A7" s="6"/>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
-      <c r="A8" s="6"/>
+      <c r="A7" s="7"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
-      <c r="A9" s="6"/>
+      <c r="A9" s="7"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
-      <c r="A10" s="6"/>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
-      <c r="A11" s="6"/>
+      <c r="A10" s="7"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
-      <c r="A12" s="6"/>
+      <c r="A12" s="7"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
-      <c r="A13" s="6"/>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
-      <c r="A14" s="6"/>
+      <c r="A13" s="7"/>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
-      <c r="A15" s="6"/>
+      <c r="A15" s="7"/>
     </row>
     <row r="16" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
-      <c r="A16" s="6"/>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
-      <c r="A17" s="6"/>
+      <c r="A16" s="7"/>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="18" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
-      <c r="A18" s="6"/>
-    </row>
-    <row r="19" ht="20.1" customHeight="1"/>
+      <c r="A18" s="7"/>
+    </row>
+    <row r="19" ht="20.1" customHeight="1" spans="2:3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
     <row r="20" ht="20.1" customHeight="1"/>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C19"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>

--- a/日志.xlsx
+++ b/日志.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20475" windowHeight="7845" activeTab="1"/>
+    <workbookView windowWidth="20480" windowHeight="7840"/>
   </bookViews>
   <sheets>
     <sheet name="执行计划" sheetId="1" r:id="rId1"/>
-    <sheet name="李媛琪" sheetId="3" r:id="rId2"/>
+    <sheet name="李媛琪" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>公平价网络推广团队2013年执行计划</t>
   </si>
@@ -54,67 +54,53 @@
     <t>参 与 人 员</t>
   </si>
   <si>
+    <t>归纳总结网络推广的方式及具体流程</t>
+  </si>
+  <si>
+    <t>将推广方式根据公平价实际具体化</t>
+  </si>
+  <si>
+    <t>分析国内主流二手车网站（竞争对手）
+推广方案及广告投放点</t>
+  </si>
+  <si>
     <t>工  作  日  志</t>
   </si>
   <si>
+    <t>目标完成时间</t>
+  </si>
+  <si>
+    <t>工作进度</t>
+  </si>
+  <si>
     <t>说  明</t>
   </si>
   <si>
-    <t>目标完成时间</t>
-  </si>
-  <si>
-    <t>工作进度</t>
-  </si>
-  <si>
-    <t>1.浏览汽车之家上发布的所有帖子并总结回复率高的帖子的特点，调查版主、编辑及其作品</t>
-  </si>
-  <si>
-    <t>10月9日完成</t>
-  </si>
-  <si>
-    <t>2.浏览易车网上发布的帖子并
-总结回复率高的帖子，调查版主编辑</t>
-  </si>
-  <si>
-    <t>10月11日完成</t>
-  </si>
-  <si>
-    <t>3.天涯汽车板块浏览总结</t>
-  </si>
-  <si>
-    <t>10月13日完成</t>
-  </si>
-  <si>
-    <t>4.总结并记住所有的汽车品牌</t>
-  </si>
-  <si>
-    <t>10月15日完成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.归纳总结所有汽车品牌的车型并记住特别有名的车型及其配置
+    <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>10月18日完成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6、熟悉车辆配置所涉及的参数和专业名词以及保养流程、具体方法及收费标准。
-</t>
-  </si>
-  <si>
-    <t>10月20日完成</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -157,12 +143,6 @@
       <color indexed="10"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -212,61 +192,83 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -565,7 +567,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -600,14 +601,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="30.625" customWidth="1"/>
@@ -617,51 +619,76 @@
     <col min="6" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="1" ht="44.25" customHeight="1" spans="1:5">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" s="9" customFormat="1" ht="29.25" customHeight="1" spans="1:5">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" ht="20.1" customHeight="1" spans="2:3">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="14">
+        <v>41556</v>
+      </c>
+    </row>
+    <row r="4" ht="20.1" customHeight="1" spans="2:3">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="14">
+        <v>41559</v>
+      </c>
+    </row>
+    <row r="5" ht="20.1" customHeight="1" spans="2:3">
+      <c r="B5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="14">
+        <v>41562</v>
+      </c>
+    </row>
+    <row r="6" ht="20.1" customHeight="1" spans="2:3">
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+    </row>
+    <row r="7" ht="20.1" customHeight="1"/>
+    <row r="8" ht="20.1" customHeight="1"/>
+    <row r="9" ht="20.1" customHeight="1"/>
+    <row r="10" ht="20.1" customHeight="1"/>
+    <row r="11" ht="20.1" customHeight="1"/>
+    <row r="12" ht="20.1" customHeight="1"/>
+    <row r="13" ht="20.1" customHeight="1"/>
+    <row r="14" ht="20.1" customHeight="1"/>
+    <row r="15" ht="20.1" customHeight="1"/>
+    <row r="16" ht="20.1" customHeight="1"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -669,14 +696,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="31.25" customWidth="1"/>
@@ -685,154 +713,121 @@
     <col min="5" max="5" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="42" customHeight="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A2" s="5"/>
-      <c r="B2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-    </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-    </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6"/>
-      <c r="B5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="13" t="s">
+      <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-    </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-    </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
-      <c r="B8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-    </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-    </row>
-    <row r="11" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
-      <c r="B11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-    </row>
-    <row r="13" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="6"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-    </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6"/>
-      <c r="B14" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-    </row>
-    <row r="16" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="6"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-    </row>
-    <row r="17" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="6"/>
-      <c r="B17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-    </row>
-    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-    </row>
-    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" ht="20.1" customHeight="1" spans="2:3">
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" ht="20.1" customHeight="1"/>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-  </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/日志.xlsx
+++ b/日志.xlsx
@@ -57,11 +57,11 @@
     <t>归纳总结网络推广的方式及具体流程</t>
   </si>
   <si>
-    <t>将推广方式根据公平价实际具体化</t>
-  </si>
-  <si>
-    <t>分析国内主流二手车网站（竞争对手）
-推广方案及广告投放点</t>
+    <t>将推广方式根据公平价实际具体化
+写出具体实施方案和效果预测</t>
+  </si>
+  <si>
+    <t>分析国内主流二手车网站（竞争对手：易车网、汽车之家、51二手车）推广方案及广告投放点</t>
   </si>
   <si>
     <t>工  作  日  志</t>
@@ -90,17 +90,12 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -196,32 +191,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -236,29 +231,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -606,7 +601,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -646,35 +641,41 @@
       </c>
     </row>
     <row r="3" ht="20.1" customHeight="1" spans="2:3">
-      <c r="B3" t="s">
+      <c r="B3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="15">
         <v>41556</v>
       </c>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="2:3">
-      <c r="B4" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+    </row>
+    <row r="5" ht="20.1" customHeight="1" spans="2:3">
+      <c r="B5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C5" s="15">
         <v>41559</v>
       </c>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="2:3">
-      <c r="B5" s="15" t="s">
+    <row r="6" ht="20.1" customHeight="1" spans="2:3">
+      <c r="B6" s="16"/>
+      <c r="C6" s="15"/>
+    </row>
+    <row r="7" ht="20.1" customHeight="1" spans="2:3">
+      <c r="B7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C7" s="15">
         <v>41562</v>
       </c>
     </row>
-    <row r="6" ht="20.1" customHeight="1" spans="2:3">
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-    </row>
-    <row r="7" ht="20.1" customHeight="1"/>
-    <row r="8" ht="20.1" customHeight="1"/>
+    <row r="8" ht="20.1" customHeight="1" spans="2:3">
+      <c r="B8" s="16"/>
+      <c r="C8" s="14"/>
+    </row>
     <row r="9" ht="20.1" customHeight="1"/>
     <row r="10" ht="20.1" customHeight="1"/>
     <row r="11" ht="20.1" customHeight="1"/>
@@ -684,10 +685,14 @@
     <row r="15" ht="20.1" customHeight="1"/>
     <row r="16" ht="20.1" customHeight="1"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/日志.xlsx
+++ b/日志.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20480" windowHeight="7840"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="20475" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="执行计划" sheetId="1" r:id="rId1"/>
@@ -15,15 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>公平价网络推广团队2013年执行计划</t>
   </si>
   <si>
     <t>日  期</t>
-  </si>
-  <si>
-    <t>销 售 团 队 目 标</t>
   </si>
   <si>
     <t>目 标 完 成 时 间</t>
@@ -54,16 +51,6 @@
     <t>参 与 人 员</t>
   </si>
   <si>
-    <t>归纳总结网络推广的方式及具体流程</t>
-  </si>
-  <si>
-    <t>将推广方式根据公平价实际具体化
-写出具体实施方案和效果预测</t>
-  </si>
-  <si>
-    <t>分析国内主流二手车网站（竞争对手：易车网、汽车之家、51二手车）推广方案及广告投放点</t>
-  </si>
-  <si>
     <t>工  作  日  志</t>
   </si>
   <si>
@@ -78,19 +65,37 @@
   <si>
     <t xml:space="preserve">
 </t>
+  </si>
+  <si>
+    <t>将推广方式根据公平价实际具体化写出具体实施方案和效果预测</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>归纳总结网络推广的方式及具体流程</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析国内主流二手车网站（竞争对手：易车网、汽车之家、51二手车）推广方案及广告投放点</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习了解网络新媒体（微信、微博、QQ空间、百度知道、豆瓣、人人）的推广方式</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>推 广 团 队 目 标</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -136,6 +141,20 @@
     <font>
       <sz val="14"/>
       <color indexed="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -187,27 +206,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -234,36 +238,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -562,6 +574,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -596,120 +609,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="2" max="2" width="42.5" customWidth="1"/>
     <col min="3" max="3" width="22.25" customWidth="1"/>
     <col min="4" max="4" width="48.625" customWidth="1"/>
     <col min="5" max="5" width="32.125" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="44.25" customHeight="1" spans="1:5">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-    </row>
-    <row r="2" s="9" customFormat="1" ht="29.25" customHeight="1" spans="1:5">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" ht="20.1" customHeight="1" spans="2:3">
-      <c r="B3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="15">
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="14">
         <v>41556</v>
       </c>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="2:3">
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-    </row>
-    <row r="5" ht="20.1" customHeight="1" spans="2:3">
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="18"/>
+      <c r="B4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="14">
+        <v>41559</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="18"/>
       <c r="B5" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="15">
-        <v>41559</v>
-      </c>
-    </row>
-    <row r="6" ht="20.1" customHeight="1" spans="2:3">
-      <c r="B6" s="16"/>
-      <c r="C6" s="15"/>
-    </row>
-    <row r="7" ht="20.1" customHeight="1" spans="2:3">
-      <c r="B7" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="15">
+        <v>13</v>
+      </c>
+      <c r="C5" s="14"/>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="18"/>
+      <c r="B6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="14">
         <v>41562</v>
       </c>
     </row>
-    <row r="8" ht="20.1" customHeight="1" spans="2:3">
-      <c r="B8" s="16"/>
-      <c r="C8" s="14"/>
-    </row>
-    <row r="9" ht="20.1" customHeight="1"/>
-    <row r="10" ht="20.1" customHeight="1"/>
-    <row r="11" ht="20.1" customHeight="1"/>
-    <row r="12" ht="20.1" customHeight="1"/>
-    <row r="13" ht="20.1" customHeight="1"/>
-    <row r="14" ht="20.1" customHeight="1"/>
-    <row r="15" ht="20.1" customHeight="1"/>
-    <row r="16" ht="20.1" customHeight="1"/>
+    <row r="7" spans="1:5" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="2">
+    <mergeCell ref="A3:A6"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="31.25" customWidth="1"/>
@@ -718,121 +725,122 @@
     <col min="5" max="5" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="42" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" s="7"/>
     </row>
-    <row r="3" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="6" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="7" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="8" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="9" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="10" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="11" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="12" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="13" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="14" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8"/>
       <c r="B14" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="16" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="17" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8"/>
       <c r="B17" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="18" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" ht="20.1" customHeight="1" spans="2:3">
+    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
     </row>
-    <row r="20" ht="20.1" customHeight="1"/>
+    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/日志.xlsx
+++ b/日志.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20475" windowHeight="7815"/>
+    <workbookView windowWidth="20480" windowHeight="7840"/>
   </bookViews>
   <sheets>
     <sheet name="执行计划" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>公平价网络推广团队2013年执行计划</t>
   </si>
   <si>
     <t>日  期</t>
+  </si>
+  <si>
+    <t>推 广 团 队 目 标</t>
   </si>
   <si>
     <t>目 标 完 成 时 间</t>
@@ -51,6 +54,21 @@
     <t>参 与 人 员</t>
   </si>
   <si>
+    <t>10月</t>
+  </si>
+  <si>
+    <t>归纳总结网络推广的方式及具体流程</t>
+  </si>
+  <si>
+    <t>将推广方式根据公平价实际具体化写出具体实施方案和效果预测</t>
+  </si>
+  <si>
+    <t>学习了解网络新媒体（微信、微博、QQ空间、百度知道、豆瓣、人人）的推广方式</t>
+  </si>
+  <si>
+    <t>分析国内主流二手车网站（竞争对手：易车网、汽车之家、51二手车）推广方案及广告投放点</t>
+  </si>
+  <si>
     <t>工  作  日  志</t>
   </si>
   <si>
@@ -65,37 +83,19 @@
   <si>
     <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>将推广方式根据公平价实际具体化写出具体实施方案和效果预测</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>归纳总结网络推广的方式及具体流程</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>分析国内主流二手车网站（竞争对手：易车网、汽车之家、51二手车）推广方案及广告投放点</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习了解网络新媒体（微信、微博、QQ空间、百度知道、豆瓣、人人）的推广方式</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>10月</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>推 广 团 队 目 标</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -139,22 +139,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color indexed="10"/>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <sz val="14"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -206,8 +200,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -238,6 +247,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -247,35 +262,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -574,7 +581,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -609,14 +615,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="42.5" customWidth="1"/>
@@ -626,97 +633,99 @@
     <col min="6" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+    <row r="1" ht="44.25" customHeight="1" spans="1:5">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" s="9" customFormat="1" ht="29.25" customHeight="1" spans="1:5">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="14">
+      <c r="E2" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="30" customHeight="1" spans="1:3">
+      <c r="A3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="17">
         <v>41556</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="18"/>
-      <c r="B4" s="16" t="s">
+    <row r="4" s="2" customFormat="1" ht="39.95" customHeight="1" spans="1:3">
+      <c r="A4" s="15"/>
+      <c r="B4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="17">
+        <v>41559</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="39.95" customHeight="1" spans="1:3">
+      <c r="A5" s="15"/>
+      <c r="B5" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="17">
+        <v>41561</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="39.95" customHeight="1" spans="1:3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="14">
-        <v>41559</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18"/>
-      <c r="B5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="14"/>
-    </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="18"/>
-      <c r="B6" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="14">
-        <v>41562</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="C6" s="17">
+        <v>41563</v>
+      </c>
+    </row>
+    <row r="7" s="10" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="8" ht="20.1" customHeight="1"/>
+    <row r="9" ht="20.1" customHeight="1"/>
+    <row r="10" ht="20.1" customHeight="1"/>
+    <row r="11" ht="20.1" customHeight="1"/>
+    <row r="12" ht="20.1" customHeight="1"/>
+    <row r="13" ht="20.1" customHeight="1"/>
+    <row r="14" ht="20.1" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="31.25" customWidth="1"/>
@@ -725,122 +734,121 @@
     <col min="5" max="5" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="42" customHeight="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7"/>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A3" s="8"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A4" s="8"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A5" s="8"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A6" s="8"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A7" s="8"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A8" s="8"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A9" s="8"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A10" s="8"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A11" s="8"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A12" s="8"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A13" s="8"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A14" s="8"/>
       <c r="B14" s="6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A15" s="8"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A16" s="8"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A17" s="8"/>
       <c r="B17" s="6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A18" s="8"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" ht="20.1" customHeight="1" spans="2:3">
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
     </row>
-    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" ht="20.1" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/日志.xlsx
+++ b/日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20480" windowHeight="7840"/>
+    <workbookView windowWidth="20480" windowHeight="7840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="执行计划" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>公平价网络推广团队2013年执行计划</t>
   </si>
@@ -79,6 +79,10 @@
   </si>
   <si>
     <t>说  明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">基本完成一个微信制作 
+</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -619,7 +623,7 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -721,8 +725,8 @@
   <sheetPr/>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -752,7 +756,9 @@
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A2" s="5"/>
+      <c r="A2" s="5">
+        <v>41555</v>
+      </c>
       <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
@@ -816,7 +822,7 @@
     <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A14" s="8"/>
       <c r="B14" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7"/>
     </row>
@@ -833,7 +839,7 @@
     <row r="17" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A17" s="8"/>
       <c r="B17" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7"/>
     </row>

--- a/日志.xlsx
+++ b/日志.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20480" windowHeight="7840" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20475" windowHeight="7845"/>
   </bookViews>
   <sheets>
     <sheet name="执行计划" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>公平价网络推广团队2013年执行计划</t>
   </si>
@@ -72,34 +72,31 @@
     <t>工  作  日  志</t>
   </si>
   <si>
-    <t>目标完成时间</t>
-  </si>
-  <si>
-    <t>工作进度</t>
-  </si>
-  <si>
-    <t>说  明</t>
-  </si>
-  <si>
     <t xml:space="preserve">基本完成一个微信制作 
 </t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
+  </si>
+  <si>
+    <t>说   明</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -153,6 +150,19 @@
     <font>
       <sz val="14"/>
       <color indexed="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -204,27 +214,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -254,39 +249,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -585,6 +585,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -619,15 +620,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="42.5" customWidth="1"/>
@@ -637,108 +637,114 @@
     <col min="6" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="44.25" customHeight="1" spans="1:5">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" s="9" customFormat="1" ht="29.25" customHeight="1" spans="1:5">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:5" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="30" customHeight="1" spans="1:3">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="15">
         <v>41556</v>
       </c>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="39.95" customHeight="1" spans="1:3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="18" t="s">
+      <c r="D3" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="18"/>
+      <c r="B4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="15">
         <v>41559</v>
       </c>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="39.95" customHeight="1" spans="1:3">
-      <c r="A5" s="15"/>
-      <c r="B5" s="18" t="s">
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="18"/>
+      <c r="B5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="15">
         <v>41561</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="39.95" customHeight="1" spans="1:3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="1:5" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="18"/>
+      <c r="B6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="15">
         <v>41563</v>
       </c>
     </row>
-    <row r="7" s="10" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="8" ht="20.1" customHeight="1"/>
-    <row r="9" ht="20.1" customHeight="1"/>
-    <row r="10" ht="20.1" customHeight="1"/>
-    <row r="11" ht="20.1" customHeight="1"/>
-    <row r="12" ht="20.1" customHeight="1"/>
-    <row r="13" ht="20.1" customHeight="1"/>
-    <row r="14" ht="20.1" customHeight="1"/>
+    <row r="7" spans="1:5" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:A6"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.25" customWidth="1"/>
+    <col min="2" max="2" width="58.125" customWidth="1"/>
     <col min="3" max="3" width="38.75" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
     <col min="5" max="5" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="42" customHeight="1" spans="1:5">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -746,115 +752,109 @@
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="2" spans="1:3" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
         <v>41555</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="7"/>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="B2" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="4" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="5" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="6" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="7" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="8" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="9" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="10" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="11" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="12" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="13" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="14" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8"/>
       <c r="B14" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="15" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="16" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="17" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8"/>
       <c r="B17" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="18" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" ht="20.1" customHeight="1" spans="2:3">
+    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
     </row>
-    <row r="20" ht="20.1" customHeight="1"/>
+    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/日志.xlsx
+++ b/日志.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20475" windowHeight="7845"/>
+    <workbookView windowWidth="20480" windowHeight="7840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="执行计划" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>公平价网络推广团队2013年执行计划</t>
   </si>
@@ -60,6 +60,9 @@
     <t>归纳总结网络推广的方式及具体流程</t>
   </si>
   <si>
+    <t>进行中</t>
+  </si>
+  <si>
     <t>将推广方式根据公平价实际具体化写出具体实施方案和效果预测</t>
   </si>
   <si>
@@ -70,38 +73,43 @@
   </si>
   <si>
     <t>工  作  日  志</t>
+  </si>
+  <si>
+    <t>说   明</t>
   </si>
   <si>
     <t xml:space="preserve">基本完成一个微信制作 
 </t>
   </si>
   <si>
+    <t>1、归纳总结网络推广的方式和流程 2、修改微信</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>说   明</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -148,21 +156,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color indexed="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -214,24 +216,45 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -243,7 +266,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -252,41 +275,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -585,7 +603,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -620,14 +637,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="42.5" customWidth="1"/>
@@ -637,224 +655,227 @@
     <col min="6" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+    <row r="1" ht="44.25" customHeight="1" spans="1:5">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-    </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" s="11" customFormat="1" ht="29.25" customHeight="1" spans="1:5">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="18" t="s">
+    <row r="3" s="3" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="18">
         <v>41556</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="18"/>
-      <c r="B4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="15">
+    </row>
+    <row r="4" s="3" customFormat="1" ht="39.95" customHeight="1" spans="1:4">
+      <c r="A4" s="17"/>
+      <c r="B4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="18">
         <v>41559</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18"/>
-      <c r="B5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="15">
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="39.95" customHeight="1" spans="1:3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="18">
         <v>41561</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="18"/>
-      <c r="B6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="15">
+    <row r="6" s="3" customFormat="1" ht="39.95" customHeight="1" spans="1:3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="18">
         <v>41563</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" s="12" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="8" ht="20.1" customHeight="1"/>
+    <row r="9" ht="20.1" customHeight="1"/>
+    <row r="10" ht="20.1" customHeight="1"/>
+    <row r="11" ht="20.1" customHeight="1"/>
+    <row r="12" ht="20.1" customHeight="1"/>
+    <row r="13" ht="20.1" customHeight="1"/>
+    <row r="14" ht="20.1" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:A6"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="58.125" customWidth="1"/>
     <col min="3" max="3" width="38.75" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
     <col min="5" max="5" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" ht="42" customHeight="1" spans="1:3">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A2" s="6">
+        <v>41555</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5">
-        <v>41555</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="8"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="8"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="8"/>
-      <c r="B14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="8"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-    </row>
-    <row r="17" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="8"/>
-      <c r="B17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-    </row>
-    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-    </row>
-    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A3" s="7">
+        <v>41556</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" ht="20.1" customHeight="1" spans="2:3">
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" ht="20.1" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/日志.xlsx
+++ b/日志.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>公平价网络推广团队2013年执行计划</t>
   </si>
@@ -60,10 +60,13 @@
     <t>归纳总结网络推广的方式及具体流程</t>
   </si>
   <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>将推广方式根据公平价实际具体化写出具体实施方案和效果预测</t>
+  </si>
+  <si>
     <t>进行中</t>
-  </si>
-  <si>
-    <t>将推广方式根据公平价实际具体化写出具体实施方案和效果预测</t>
   </si>
   <si>
     <t>学习了解网络新媒体（微信、微博、QQ空间、百度知道、豆瓣、人人）的推广方式</t>
@@ -83,6 +86,9 @@
   </si>
   <si>
     <t>1、归纳总结网络推广的方式和流程 2、修改微信</t>
+  </si>
+  <si>
+    <t>1、推广方案具体化总结中 2.整理SUV图片 3、整理话术</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -109,11 +115,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -157,9 +158,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -220,25 +227,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -248,7 +255,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -266,35 +273,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -642,7 +652,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -703,14 +713,14 @@
       <c r="C4" s="18">
         <v>41559</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
+      <c r="D4" s="21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" ht="39.95" customHeight="1" spans="1:3">
       <c r="A5" s="17"/>
       <c r="B5" s="20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="18">
         <v>41561</v>
@@ -719,7 +729,7 @@
     <row r="6" s="3" customFormat="1" ht="39.95" customHeight="1" spans="1:3">
       <c r="A6" s="17"/>
       <c r="B6" s="20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="18">
         <v>41563</v>
@@ -750,7 +760,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -767,10 +777,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
@@ -778,7 +788,7 @@
         <v>41555</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
@@ -786,13 +796,17 @@
         <v>41556</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="9"/>
     </row>
     <row r="4" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="8"/>
+      <c r="A4" s="7">
+        <v>41557</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="C4" s="9"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
@@ -843,7 +857,7 @@
     <row r="14" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A14" s="10"/>
       <c r="B14" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
     </row>
@@ -860,7 +874,7 @@
     <row r="17" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A17" s="10"/>
       <c r="B17" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="9"/>
     </row>

--- a/日志.xlsx
+++ b/日志.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>公平价网络推广团队2013年执行计划</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>1、推广方案具体化总结中 2.整理SUV图片 3、整理话术</t>
+  </si>
+  <si>
+    <t>1.推广方案 2.整理博客</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -760,7 +763,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -810,8 +813,12 @@
       <c r="C4" s="9"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="7">
+        <v>41558</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="C5" s="9"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
@@ -857,7 +864,7 @@
     <row r="14" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A14" s="10"/>
       <c r="B14" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="9"/>
     </row>
@@ -874,7 +881,7 @@
     <row r="17" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A17" s="10"/>
       <c r="B17" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="9"/>
     </row>

--- a/日志.xlsx
+++ b/日志.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20480" windowHeight="7840" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20475" windowHeight="7845" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="执行计划" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>公平价网络推广团队2013年执行计划</t>
   </si>
@@ -81,34 +81,48 @@
     <t>说   明</t>
   </si>
   <si>
-    <t xml:space="preserve">基本完成一个微信制作 
-</t>
-  </si>
-  <si>
-    <t>1、归纳总结网络推广的方式和流程 2、修改微信</t>
-  </si>
-  <si>
-    <t>1、推广方案具体化总结中 2.整理SUV图片 3、整理话术</t>
-  </si>
-  <si>
-    <t>1.推广方案 2.整理博客</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 </t>
+  </si>
+  <si>
+    <t>1、归纳总结网络推广的方式和流程 2、修改微信</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、修改微信</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、推广方案具体化总结中 </t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、整理话术</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2、整理SUV图片 </t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、整理博客</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、推广方案 </t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、基本完成一个微信制作 
+</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -177,6 +191,12 @@
       <color indexed="10"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -188,7 +208,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -225,28 +245,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -261,12 +292,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -282,42 +307,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -616,6 +661,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -650,15 +696,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="42.5" customWidth="1"/>
@@ -668,89 +713,90 @@
     <col min="6" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="44.25" customHeight="1" spans="1:5">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:5" ht="44.25" customHeight="1">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" s="11" customFormat="1" ht="29.25" customHeight="1" spans="1:5">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" s="9" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A3" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="14">
         <v>41556</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="39.95" customHeight="1" spans="1:4">
-      <c r="A4" s="17"/>
-      <c r="B4" s="20" t="s">
+    <row r="4" spans="1:5" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A4" s="19"/>
+      <c r="B4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="14">
         <v>41559</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" ht="39.95" customHeight="1" spans="1:3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="20" t="s">
+    <row r="5" spans="1:5" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A5" s="19"/>
+      <c r="B5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="14">
         <v>41561</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" ht="39.95" customHeight="1" spans="1:3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="20" t="s">
+    <row r="6" spans="1:5" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A6" s="19"/>
+      <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="14">
         <v>41563</v>
       </c>
     </row>
-    <row r="7" s="12" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="8" ht="20.1" customHeight="1"/>
-    <row r="9" ht="20.1" customHeight="1"/>
-    <row r="10" ht="20.1" customHeight="1"/>
-    <row r="11" ht="20.1" customHeight="1"/>
-    <row r="12" ht="20.1" customHeight="1"/>
-    <row r="13" ht="20.1" customHeight="1"/>
-    <row r="14" ht="20.1" customHeight="1"/>
+    <row r="7" spans="1:5" s="10" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1"/>
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1"/>
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1"/>
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1"/>
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1"/>
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1"/>
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:A6"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -758,15 +804,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:C20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="58.125" customWidth="1"/>
@@ -775,7 +820,7 @@
     <col min="5" max="5" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="42" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="103.5" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -786,117 +831,146 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A2" s="6">
+    <row r="2" spans="1:3" s="25" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="23">
         <v>41555</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="24">
+        <v>41556</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:3" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="24"/>
+      <c r="B4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="21"/>
+    </row>
+    <row r="5" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="24">
+        <v>41557</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="24"/>
+      <c r="B6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:3" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="24"/>
+      <c r="B7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="21"/>
+    </row>
+    <row r="8" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="24">
+        <v>41558</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:3" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="24"/>
+      <c r="B9" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="21"/>
+    </row>
+    <row r="10" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="8"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="8"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="8"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="8"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="8"/>
+      <c r="B17" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A3" s="7">
-        <v>41556</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="9"/>
-    </row>
-    <row r="4" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A4" s="7">
-        <v>41557</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="9"/>
-    </row>
-    <row r="5" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A5" s="7">
-        <v>41558</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="6" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-    </row>
-    <row r="8" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-    </row>
-    <row r="9" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-    </row>
-    <row r="10" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-    </row>
-    <row r="11" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-    </row>
-    <row r="12" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-    </row>
-    <row r="13" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-    </row>
-    <row r="14" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="9"/>
-    </row>
-    <row r="15" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-    </row>
-    <row r="16" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-    </row>
-    <row r="17" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="9"/>
-    </row>
-    <row r="18" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-    </row>
-    <row r="19" ht="20.1" customHeight="1" spans="2:3">
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-    </row>
-    <row r="20" ht="20.1" customHeight="1"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="8"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="8"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="8"/>
+      <c r="B20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="8"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="3">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A9"/>
+  </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/日志.xlsx
+++ b/日志.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20475" windowHeight="7845" activeTab="1"/>
+    <workbookView windowWidth="20480" windowHeight="7840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="执行计划" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>公平价网络推广团队2013年执行计划</t>
   </si>
@@ -81,48 +81,34 @@
     <t>说   明</t>
   </si>
   <si>
+    <t xml:space="preserve">基本完成一个微信制作 
+</t>
+  </si>
+  <si>
+    <t>1、归纳总结网络推广的方式和流程 2、修改微信</t>
+  </si>
+  <si>
+    <t>1、推广方案具体化总结中 2.整理SUV图片 3、整理话术</t>
+  </si>
+  <si>
+    <t>1.推广方案 2.整理博客</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>1、归纳总结网络推广的方式和流程 2、修改微信</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、修改微信</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1、推广方案具体化总结中 </t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、整理话术</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2、整理SUV图片 </t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、整理博客</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1、推广方案 </t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1、基本完成一个微信制作 
-</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -193,12 +179,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -208,7 +188,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -245,39 +225,28 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -292,6 +261,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -307,6 +282,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -316,6 +294,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -328,41 +309,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -661,7 +616,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -696,14 +650,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="42.5" customWidth="1"/>
@@ -713,90 +668,89 @@
     <col min="6" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="44.25" customHeight="1">
-      <c r="A1" s="18" t="s">
+    <row r="1" ht="44.25" customHeight="1" spans="1:5">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-    </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" s="11" customFormat="1" ht="29.25" customHeight="1" spans="1:5">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="19" t="s">
+    <row r="3" s="3" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="18">
         <v>41556</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A4" s="19"/>
-      <c r="B4" s="16" t="s">
+    <row r="4" s="3" customFormat="1" ht="39.95" customHeight="1" spans="1:4">
+      <c r="A4" s="17"/>
+      <c r="B4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="18">
         <v>41559</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="16" t="s">
+    <row r="5" s="3" customFormat="1" ht="39.95" customHeight="1" spans="1:3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="18">
         <v>41561</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A6" s="19"/>
-      <c r="B6" s="16" t="s">
+    <row r="6" s="3" customFormat="1" ht="39.95" customHeight="1" spans="1:3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="18">
         <v>41563</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="10" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1"/>
-    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1"/>
-    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1"/>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1"/>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1"/>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1"/>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1"/>
+    <row r="7" s="12" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="8" ht="20.1" customHeight="1"/>
+    <row r="9" ht="20.1" customHeight="1"/>
+    <row r="10" ht="20.1" customHeight="1"/>
+    <row r="11" ht="20.1" customHeight="1"/>
+    <row r="12" ht="20.1" customHeight="1"/>
+    <row r="13" ht="20.1" customHeight="1"/>
+    <row r="14" ht="20.1" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:A6"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -804,14 +758,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="10.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="58.125" customWidth="1"/>
@@ -820,7 +775,7 @@
     <col min="5" max="5" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="103.5" customHeight="1">
+    <row r="1" s="1" customFormat="1" ht="42" customHeight="1" spans="1:3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -831,146 +786,117 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="25" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="23">
+    <row r="2" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A2" s="6">
         <v>41555</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="24">
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A3" s="7">
         <v>41556</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:3" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="20" t="s">
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A4" s="7">
+        <v>41557</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="21"/>
-    </row>
-    <row r="5" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="24">
-        <v>41557</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A5" s="7">
+        <v>41558</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="24"/>
-      <c r="B6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:3" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="24"/>
-      <c r="B7" s="20" t="s">
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="21"/>
-    </row>
-    <row r="8" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="24">
-        <v>41558</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="1:3" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="24"/>
-      <c r="B9" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="21"/>
-    </row>
-    <row r="10" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-    </row>
-    <row r="17" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="8"/>
-      <c r="B17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="8"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-    </row>
-    <row r="19" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="8"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-    </row>
-    <row r="20" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7"/>
-    </row>
-    <row r="21" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="8"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-    </row>
-    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-    </row>
-    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1"/>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" ht="20.1" customHeight="1" spans="2:3">
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" ht="20.1" customHeight="1"/>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A9"/>
-  </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/日志.xlsx
+++ b/日志.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>公平价网络推广团队2013年执行计划</t>
   </si>
@@ -66,9 +66,6 @@
     <t>将推广方式根据公平价实际具体化写出具体实施方案和效果预测</t>
   </si>
   <si>
-    <t>进行中</t>
-  </si>
-  <si>
     <t>学习了解网络新媒体（微信、微博、QQ空间、百度知道、豆瓣、人人）的推广方式</t>
   </si>
   <si>
@@ -92,6 +89,15 @@
   </si>
   <si>
     <t>1.推广方案 2.整理博客</t>
+  </si>
+  <si>
+    <t>1.网络推广办法报告2.微信和微博</t>
+  </si>
+  <si>
+    <t>休假</t>
+  </si>
+  <si>
+    <t>SNS社交网站具体推广流程和主要汽车网站案例。</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -167,7 +173,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -717,22 +722,25 @@
         <v>41559</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="1" ht="39.95" customHeight="1" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="39.95" customHeight="1" spans="1:4">
       <c r="A5" s="17"/>
       <c r="B5" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="18">
         <v>41561</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" ht="39.95" customHeight="1" spans="1:3">
       <c r="A6" s="17"/>
       <c r="B6" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="18">
         <v>41563</v>
@@ -763,7 +771,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -780,10 +788,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
@@ -791,7 +799,7 @@
         <v>41555</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
@@ -799,7 +807,7 @@
         <v>41556</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="9"/>
     </row>
@@ -808,7 +816,7 @@
         <v>41557</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="9"/>
     </row>
@@ -817,23 +825,35 @@
         <v>41558</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A6" s="7">
+        <v>41559</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="6" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="8"/>
       <c r="C6" s="9"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="7">
+        <v>41560</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="C7" s="9"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="7">
+        <v>41561</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="C8" s="9"/>
     </row>
     <row r="9" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
@@ -864,7 +884,7 @@
     <row r="14" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A14" s="10"/>
       <c r="B14" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C14" s="9"/>
     </row>
@@ -881,7 +901,7 @@
     <row r="17" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A17" s="10"/>
       <c r="B17" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C17" s="9"/>
     </row>

--- a/日志.xlsx
+++ b/日志.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20480" windowHeight="7840" activeTab="1"/>
+    <workbookView windowWidth="23880" windowHeight="9920" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="执行计划" sheetId="1" r:id="rId1"/>
     <sheet name="李媛琪" sheetId="2" r:id="rId2"/>
+    <sheet name="耿静" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>公平价网络推广团队2013年执行计划</t>
   </si>
@@ -102,6 +103,12 @@
   <si>
     <t xml:space="preserve">
 </t>
+  </si>
+  <si>
+    <t>整理文档上传百度文库 百度百科</t>
+  </si>
+  <si>
+    <t>西祠论坛发帖</t>
   </si>
 </sst>
 </file>
@@ -660,7 +667,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -770,8 +777,8 @@
   <sheetPr/>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -920,4 +927,142 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="13.25" style="4" customWidth="1"/>
+    <col min="2" max="2" width="58.125" customWidth="1"/>
+    <col min="3" max="3" width="38.75" customWidth="1"/>
+    <col min="4" max="4" width="35" customWidth="1"/>
+    <col min="5" max="5" width="32.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="42" customHeight="1" spans="1:3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A2" s="6">
+        <v>41567</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
+      <c r="A20" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/日志.xlsx
+++ b/日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>公平价网络推广团队2013年执行计划</t>
   </si>
@@ -73,6 +73,15 @@
     <t>分析国内主流二手车网站（竞争对手：易车网、汽车之家、51二手车）推广方案及广告投放点</t>
   </si>
   <si>
+    <t>微信相关公益性汽车常识发布</t>
+  </si>
+  <si>
+    <t>新浪微博等微博汽车相关</t>
+  </si>
+  <si>
+    <t>论坛整理发布（西祠 易车等）</t>
+  </si>
+  <si>
     <t>工  作  日  志</t>
   </si>
   <si>
@@ -109,6 +118,9 @@
   </si>
   <si>
     <t>西祠论坛发帖</t>
+  </si>
+  <si>
+    <t>整理二手车相关资料</t>
   </si>
 </sst>
 </file>
@@ -116,10 +128,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -276,14 +288,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -667,7 +679,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -753,10 +765,27 @@
         <v>41563</v>
       </c>
     </row>
-    <row r="7" s="12" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="8" ht="20.1" customHeight="1"/>
-    <row r="9" ht="20.1" customHeight="1"/>
-    <row r="10" ht="20.1" customHeight="1"/>
+    <row r="7" s="12" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A7" s="17"/>
+      <c r="B7" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A8" s="17"/>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A9" s="17"/>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" ht="20.1" customHeight="1" spans="1:1">
+      <c r="A10" s="17"/>
+    </row>
     <row r="11" ht="20.1" customHeight="1"/>
     <row r="12" ht="20.1" customHeight="1"/>
     <row r="13" ht="20.1" customHeight="1"/>
@@ -764,7 +793,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A3:A10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -795,10 +824,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
@@ -806,120 +835,120 @@
         <v>41555</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A3" s="7">
+      <c r="A3" s="9">
         <v>41556</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="9"/>
+      <c r="B3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A4" s="7">
+      <c r="A4" s="9">
         <v>41557</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="9"/>
+      <c r="B4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A5" s="7">
+      <c r="A5" s="9">
         <v>41558</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="9"/>
+      <c r="B5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A6" s="7">
+      <c r="A6" s="9">
         <v>41559</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="9"/>
+      <c r="B6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="8"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A7" s="7">
+      <c r="A7" s="9">
         <v>41560</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="9"/>
+      <c r="B7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A8" s="7">
+      <c r="A8" s="9">
         <v>41561</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="9"/>
+      <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="8"/>
     </row>
     <row r="9" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A9" s="10"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
     </row>
     <row r="10" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A10" s="10"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A11" s="10"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
     </row>
     <row r="12" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A12" s="10"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A13" s="10"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A14" s="10"/>
-      <c r="B14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="9"/>
+      <c r="B14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A15" s="10"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
     </row>
     <row r="16" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A16" s="10"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A17" s="10"/>
-      <c r="B17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="9"/>
+      <c r="B17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="8"/>
     </row>
     <row r="18" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A18" s="10"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" ht="20.1" customHeight="1" spans="2:3">
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
     </row>
     <row r="20" ht="20.1" customHeight="1"/>
   </sheetData>
@@ -935,7 +964,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -952,10 +981,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
@@ -963,104 +992,111 @@
         <v>41567</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="9"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
+      <c r="A4" s="6">
+        <v>41568</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
     </row>
     <row r="9" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A9" s="10"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
     </row>
     <row r="10" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A10" s="10"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A11" s="10"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
     </row>
     <row r="12" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A12" s="10"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A13" s="10"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A14" s="10"/>
-      <c r="B14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="9"/>
+      <c r="B14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A15" s="10"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
     </row>
     <row r="16" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A16" s="10"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A17" s="10"/>
-      <c r="B17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="9"/>
+      <c r="B17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="8"/>
     </row>
     <row r="18" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A18" s="10"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-    </row>
-    <row r="19" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-    </row>
-    <row r="20" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
-      <c r="A20" s="4"/>
-    </row>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" ht="20.1" customHeight="1" spans="2:3">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" ht="20.1" customHeight="1"/>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>

--- a/日志.xlsx
+++ b/日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23880" windowHeight="9920" activeTab="2"/>
+    <workbookView windowWidth="23880" windowHeight="9920"/>
   </bookViews>
   <sheets>
     <sheet name="执行计划" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>公平价网络推广团队2013年执行计划</t>
   </si>
@@ -82,6 +82,9 @@
     <t>论坛整理发布（西祠 易车等）</t>
   </si>
   <si>
+    <t>二手车市场调研</t>
+  </si>
+  <si>
     <t>工  作  日  志</t>
   </si>
   <si>
@@ -121,6 +124,12 @@
   </si>
   <si>
     <t>整理二手车相关资料</t>
+  </si>
+  <si>
+    <t>整理论坛</t>
+  </si>
+  <si>
+    <t>去二手车市场调研</t>
   </si>
 </sst>
 </file>
@@ -128,10 +137,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -270,34 +279,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -332,6 +368,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -678,8 +717,8 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -693,107 +732,121 @@
   </cols>
   <sheetData>
     <row r="1" ht="44.25" customHeight="1" spans="1:5">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" s="11" customFormat="1" ht="29.25" customHeight="1" spans="1:5">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" s="20" customFormat="1" ht="29.25" customHeight="1" spans="1:5">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A3" s="17" t="s">
+    <row r="3" s="5" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="27">
         <v>41556</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="39.95" customHeight="1" spans="1:4">
-      <c r="A4" s="17"/>
-      <c r="B4" s="20" t="s">
+    <row r="4" s="5" customFormat="1" ht="39.95" customHeight="1" spans="1:4">
+      <c r="A4" s="26"/>
+      <c r="B4" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="27">
         <v>41559</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" ht="39.95" customHeight="1" spans="1:4">
-      <c r="A5" s="17"/>
-      <c r="B5" s="20" t="s">
+    <row r="5" s="5" customFormat="1" ht="39.95" customHeight="1" spans="1:4">
+      <c r="A5" s="26"/>
+      <c r="B5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="27">
         <v>41561</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" ht="39.95" customHeight="1" spans="1:3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="20" t="s">
+    <row r="6" s="5" customFormat="1" ht="39.95" customHeight="1" spans="1:3">
+      <c r="A6" s="26"/>
+      <c r="B6" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="27">
         <v>41563</v>
       </c>
     </row>
-    <row r="7" s="12" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="12" t="s">
+    <row r="7" s="21" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A7" s="26"/>
+      <c r="B7" s="21" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A8" s="17"/>
+      <c r="C7" s="31">
+        <v>41567</v>
+      </c>
+    </row>
+    <row r="8" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A8" s="26"/>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A9" s="17"/>
+      <c r="C8" s="31">
+        <v>41568</v>
+      </c>
+    </row>
+    <row r="9" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A9" s="26"/>
       <c r="B9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" ht="20.1" customHeight="1" spans="1:1">
-      <c r="A10" s="17"/>
+      <c r="C9" s="27">
+        <v>41569</v>
+      </c>
+    </row>
+    <row r="10" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A10" s="26"/>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="27"/>
     </row>
     <row r="11" ht="20.1" customHeight="1"/>
     <row r="12" ht="20.1" customHeight="1"/>
     <row r="13" ht="20.1" customHeight="1"/>
     <row r="14" ht="20.1" customHeight="1"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:A10"/>
+    <mergeCell ref="C9:C10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -812,7 +865,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="6" customWidth="1"/>
     <col min="2" max="2" width="58.125" customWidth="1"/>
     <col min="3" max="3" width="38.75" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
@@ -820,135 +873,135 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="42" customHeight="1" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A2" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" s="18" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A2" s="19">
         <v>41555</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A3" s="9">
+      <c r="B2" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A3" s="14">
         <v>41556</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A4" s="9">
+      <c r="B3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="16"/>
+    </row>
+    <row r="4" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A4" s="14">
         <v>41557</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A5" s="9">
+      <c r="B4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="16"/>
+    </row>
+    <row r="5" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A5" s="14">
         <v>41558</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A6" s="9">
+      <c r="B5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="16"/>
+    </row>
+    <row r="6" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A6" s="14">
         <v>41559</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="8"/>
-    </row>
-    <row r="7" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A7" s="9">
+      <c r="B6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="16"/>
+    </row>
+    <row r="7" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A7" s="14">
         <v>41560</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A8" s="9">
+      <c r="B7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="16"/>
+    </row>
+    <row r="8" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A8" s="14">
         <v>41561</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-    </row>
-    <row r="10" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-    </row>
-    <row r="13" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="7" t="s">
+      <c r="B8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-    </row>
-    <row r="16" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="8"/>
-    </row>
-    <row r="18" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
+      <c r="C8" s="16"/>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+    </row>
+    <row r="10" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A10" s="17"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+    </row>
+    <row r="12" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A12" s="17"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+    </row>
+    <row r="13" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A13" s="17"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+    </row>
+    <row r="14" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A14" s="17"/>
+      <c r="B14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="16"/>
+    </row>
+    <row r="15" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A15" s="17"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+    </row>
+    <row r="16" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A16" s="17"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+    </row>
+    <row r="17" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A17" s="17"/>
+      <c r="B17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="16"/>
+    </row>
+    <row r="18" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A18" s="17"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
     </row>
     <row r="19" ht="20.1" customHeight="1" spans="2:3">
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
     </row>
     <row r="20" ht="20.1" customHeight="1"/>
   </sheetData>
@@ -963,13 +1016,13 @@
   <sheetPr/>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="6:7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.25" style="6" customWidth="1"/>
     <col min="2" max="2" width="58.125" customWidth="1"/>
     <col min="3" max="3" width="38.75" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
@@ -977,125 +1030,132 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="42" customHeight="1" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A2" s="6">
+      <c r="A2" s="8">
         <v>41567</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A4" s="6">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="11"/>
+    </row>
+    <row r="4" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A4" s="8">
         <v>41568</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="8"/>
+      <c r="B4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="13"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A6" s="8">
+        <v>41569</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="13"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A7" s="9"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-    </row>
-    <row r="10" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-    </row>
-    <row r="13" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-    </row>
-    <row r="16" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="8"/>
-    </row>
-    <row r="18" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
+      <c r="B7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+    </row>
+    <row r="10" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A10" s="17"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+    </row>
+    <row r="12" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A12" s="17"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+    </row>
+    <row r="13" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A13" s="17"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+    </row>
+    <row r="14" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A14" s="17"/>
+      <c r="B14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="16"/>
+    </row>
+    <row r="15" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A15" s="17"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+    </row>
+    <row r="16" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A16" s="17"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+    </row>
+    <row r="17" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A17" s="17"/>
+      <c r="B17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="16"/>
+    </row>
+    <row r="18" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A18" s="17"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
     </row>
     <row r="19" ht="20.1" customHeight="1" spans="2:3">
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
     </row>
     <row r="20" ht="20.1" customHeight="1"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/日志.xlsx
+++ b/日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23880" windowHeight="9920"/>
+    <workbookView windowWidth="23880" windowHeight="9920" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="执行计划" sheetId="1" r:id="rId1"/>
@@ -717,7 +717,7 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9:C10"/>
     </sheetView>
   </sheetViews>
@@ -1016,7 +1016,7 @@
   <sheetPr/>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="6:7"/>
     </sheetView>
   </sheetViews>

--- a/日志.xlsx
+++ b/日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23880" windowHeight="9920" activeTab="2"/>
+    <workbookView windowWidth="23880" windowHeight="9920"/>
   </bookViews>
   <sheets>
     <sheet name="执行计划" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>公平价网络推广团队2013年执行计划</t>
   </si>
@@ -85,6 +85,24 @@
     <t>二手车市场调研</t>
   </si>
   <si>
+    <t>1.论坛注册，选择找寻汽车相关和消费类论坛注册我司官方账号</t>
+  </si>
+  <si>
+    <t>周沛然 耿静协调完成</t>
+  </si>
+  <si>
+    <t>2.微信微博内容整理：用车常识 秋冬保养 非常规天气用车提醒，以及趣味新闻等</t>
+  </si>
+  <si>
+    <t>李媛琪 耿静协助整理资料</t>
+  </si>
+  <si>
+    <t>3.百度推广 文库整理 汽车类公平价添加</t>
+  </si>
+  <si>
+    <t>耿静</t>
+  </si>
+  <si>
     <t>工  作  日  志</t>
   </si>
   <si>
@@ -142,7 +160,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -206,6 +224,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color indexed="10"/>
       <name val="宋体"/>
@@ -279,7 +304,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -318,7 +343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -327,6 +352,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -336,6 +367,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -371,6 +405,9 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -717,14 +754,14 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="42.5" customWidth="1"/>
+    <col min="2" max="2" width="69.125" customWidth="1"/>
     <col min="3" max="3" width="22.25" customWidth="1"/>
     <col min="4" max="4" width="48.625" customWidth="1"/>
     <col min="5" max="5" width="32.125" customWidth="1"/>
@@ -732,63 +769,63 @@
   </cols>
   <sheetData>
     <row r="1" ht="44.25" customHeight="1" spans="1:5">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-    </row>
-    <row r="2" s="20" customFormat="1" ht="29.25" customHeight="1" spans="1:5">
-      <c r="A2" s="23" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" s="23" customFormat="1" ht="29.25" customHeight="1" spans="1:5">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="30">
         <v>41556</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="31" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" s="5" customFormat="1" ht="39.95" customHeight="1" spans="1:4">
-      <c r="A4" s="26"/>
-      <c r="B4" s="29" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="30">
         <v>41559</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="33" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" s="5" customFormat="1" ht="39.95" customHeight="1" spans="1:4">
-      <c r="A5" s="26"/>
-      <c r="B5" s="29" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="30">
         <v>41561</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -796,56 +833,80 @@
       </c>
     </row>
     <row r="6" s="5" customFormat="1" ht="39.95" customHeight="1" spans="1:3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="29" t="s">
+      <c r="A6" s="29"/>
+      <c r="B6" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="30">
         <v>41563</v>
       </c>
     </row>
-    <row r="7" s="21" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="21" t="s">
+    <row r="7" s="24" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A7" s="29"/>
+      <c r="B7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="34">
         <v>41567</v>
       </c>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A8" s="26"/>
+      <c r="A8" s="29"/>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="34">
         <v>41568</v>
       </c>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A9" s="26"/>
+      <c r="A9" s="29"/>
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="30">
         <v>41569</v>
       </c>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A10" s="26"/>
+      <c r="A10" s="29"/>
       <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="27"/>
-    </row>
-    <row r="11" ht="20.1" customHeight="1"/>
-    <row r="12" ht="20.1" customHeight="1"/>
-    <row r="13" ht="20.1" customHeight="1"/>
+      <c r="C10" s="30"/>
+    </row>
+    <row r="11" ht="30" customHeight="1" spans="1:5">
+      <c r="A11" s="29"/>
+      <c r="B11" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A12" s="29"/>
+      <c r="B12" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A13" s="29"/>
+      <c r="B13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="14" ht="20.1" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A3:A13"/>
     <mergeCell ref="C9:C10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -877,125 +938,125 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" s="18" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A2" s="19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" s="20" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A2" s="21">
         <v>41555</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>18</v>
+      <c r="B2" s="20" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A3" s="14">
+      <c r="A3" s="22">
         <v>41556</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C3" s="16"/>
     </row>
     <row r="4" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A4" s="14">
+      <c r="A4" s="22">
         <v>41557</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C4" s="16"/>
     </row>
     <row r="5" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A5" s="14">
+      <c r="A5" s="22">
         <v>41558</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C5" s="16"/>
     </row>
     <row r="6" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A6" s="14">
+      <c r="A6" s="22">
         <v>41559</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C6" s="16"/>
     </row>
     <row r="7" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A7" s="14">
+      <c r="A7" s="22">
         <v>41560</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C7" s="16"/>
     </row>
     <row r="8" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A8" s="14">
+      <c r="A8" s="22">
         <v>41561</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C8" s="16"/>
     </row>
     <row r="9" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A9" s="17"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
     </row>
     <row r="10" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A10" s="17"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
     </row>
     <row r="11" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A11" s="17"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
     </row>
     <row r="12" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A12" s="17"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
     </row>
     <row r="13" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A13" s="17"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
     </row>
     <row r="14" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A14" s="17"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="15" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C14" s="16"/>
     </row>
     <row r="15" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A15" s="17"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
     </row>
     <row r="16" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A16" s="17"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
     </row>
     <row r="17" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A17" s="17"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="15" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C17" s="16"/>
     </row>
     <row r="18" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A18" s="17"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
     </row>
@@ -1016,14 +1077,14 @@
   <sheetPr/>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="6:7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="13.25" style="6" customWidth="1"/>
-    <col min="2" max="2" width="58.125" customWidth="1"/>
+    <col min="2" max="2" width="80" customWidth="1"/>
     <col min="3" max="3" width="38.75" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
     <col min="5" max="5" width="32.5" customWidth="1"/>
@@ -1034,10 +1095,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
@@ -1045,13 +1106,13 @@
         <v>41567</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A3" s="9"/>
       <c r="B3" s="10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C3" s="11"/>
     </row>
@@ -1060,14 +1121,14 @@
         <v>41568</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C4" s="13"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A5" s="9"/>
       <c r="B5" s="10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C5" s="11"/>
     </row>
@@ -1076,73 +1137,85 @@
         <v>41569</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C6" s="13"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A7" s="9"/>
       <c r="B7" s="10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C7" s="11"/>
     </row>
     <row r="8" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-    </row>
-    <row r="9" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A8" s="14">
+        <v>41570</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="21" customHeight="1" spans="1:3">
       <c r="A9" s="17"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
+      <c r="B9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A11" s="17"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
     </row>
     <row r="12" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A12" s="17"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
     </row>
     <row r="13" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A13" s="17"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
     </row>
     <row r="14" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="15" t="s">
-        <v>25</v>
-      </c>
+      <c r="A14" s="19"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="16"/>
     </row>
     <row r="15" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A15" s="17"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
     </row>
     <row r="16" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A16" s="17"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
     </row>
     <row r="17" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A17" s="17"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="15" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C17" s="16"/>
     </row>
     <row r="18" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A18" s="17"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
     </row>
@@ -1152,10 +1225,11 @@
     </row>
     <row r="20" ht="20.1" customHeight="1"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/日志.xlsx
+++ b/日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23880" windowHeight="9920"/>
+    <workbookView windowWidth="20480" windowHeight="7840"/>
   </bookViews>
   <sheets>
     <sheet name="执行计划" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>公平价网络推广团队2013年执行计划</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>SNS社交网站具体推广流程和主要汽车网站案例。</t>
+  </si>
+  <si>
+    <t>编辑微信和微博、学习SEO优化</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -304,7 +307,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -343,17 +346,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -754,7 +751,7 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -769,63 +766,63 @@
   </cols>
   <sheetData>
     <row r="1" ht="44.25" customHeight="1" spans="1:5">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-    </row>
-    <row r="2" s="23" customFormat="1" ht="29.25" customHeight="1" spans="1:5">
-      <c r="A2" s="26" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" s="21" customFormat="1" ht="29.25" customHeight="1" spans="1:5">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="26" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="28">
         <v>41556</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="29" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" s="5" customFormat="1" ht="39.95" customHeight="1" spans="1:4">
-      <c r="A4" s="29"/>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="28">
         <v>41559</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="31" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" s="5" customFormat="1" ht="39.95" customHeight="1" spans="1:4">
-      <c r="A5" s="29"/>
-      <c r="B5" s="32" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="28">
         <v>41561</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -833,72 +830,72 @@
       </c>
     </row>
     <row r="6" s="5" customFormat="1" ht="39.95" customHeight="1" spans="1:3">
-      <c r="A6" s="29"/>
-      <c r="B6" s="32" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="28">
         <v>41563</v>
       </c>
     </row>
-    <row r="7" s="24" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A7" s="29"/>
-      <c r="B7" s="24" t="s">
+    <row r="7" s="22" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A7" s="27"/>
+      <c r="B7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="32">
         <v>41567</v>
       </c>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A8" s="29"/>
+      <c r="A8" s="27"/>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="32">
         <v>41568</v>
       </c>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A9" s="29"/>
+      <c r="A9" s="27"/>
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="28">
         <v>41569</v>
       </c>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A10" s="29"/>
+      <c r="A10" s="27"/>
       <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="30"/>
+      <c r="C10" s="28"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:5">
-      <c r="A11" s="29"/>
-      <c r="B11" s="35" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A12" s="29"/>
-      <c r="B12" s="18" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A13" s="29"/>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="27"/>
+      <c r="B13" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="15" t="s">
         <v>21</v>
       </c>
     </row>
@@ -921,7 +918,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="1:1048576"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -944,125 +941,129 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" s="20" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A2" s="21">
+    <row r="2" s="18" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A2" s="19">
         <v>41555</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A3" s="22">
+      <c r="A3" s="20">
         <v>41556</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="15"/>
     </row>
     <row r="4" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A4" s="22">
+      <c r="A4" s="20">
         <v>41557</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="16"/>
+      <c r="C4" s="15"/>
     </row>
     <row r="5" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A5" s="22">
+      <c r="A5" s="20">
         <v>41558</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="16"/>
+      <c r="C5" s="15"/>
     </row>
     <row r="6" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A6" s="22">
+      <c r="A6" s="20">
         <v>41559</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="16"/>
+      <c r="C6" s="15"/>
     </row>
     <row r="7" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A7" s="22">
+      <c r="A7" s="20">
         <v>41560</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="16"/>
+      <c r="C7" s="15"/>
     </row>
     <row r="8" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A8" s="22">
+      <c r="A8" s="20">
         <v>41561</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="16"/>
+      <c r="C8" s="15"/>
     </row>
     <row r="9" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
+      <c r="A9" s="20">
+        <v>41570</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="15"/>
     </row>
     <row r="10" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
     </row>
     <row r="11" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
     </row>
     <row r="12" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
     </row>
     <row r="13" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
     </row>
     <row r="14" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="16"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="15"/>
     </row>
     <row r="15" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
     </row>
     <row r="16" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
     </row>
     <row r="17" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="16"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="15"/>
     </row>
     <row r="18" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
     </row>
     <row r="19" ht="20.1" customHeight="1" spans="2:3">
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
     </row>
     <row r="20" ht="20.1" customHeight="1"/>
   </sheetData>
@@ -1078,7 +1079,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1106,13 +1107,13 @@
         <v>41567</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A3" s="9"/>
       <c r="B3" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="11"/>
     </row>
@@ -1121,14 +1122,14 @@
         <v>41568</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="13"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A5" s="9"/>
       <c r="B5" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" s="11"/>
     </row>
@@ -1137,91 +1138,91 @@
         <v>41569</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" s="13"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A7" s="9"/>
       <c r="B7" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="11"/>
     </row>
     <row r="8" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A8" s="14">
+      <c r="A8" s="8">
         <v>41570</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" s="5" customFormat="1" ht="21" customHeight="1" spans="1:3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A10" s="8"/>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
     </row>
     <row r="12" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
     </row>
     <row r="13" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
     </row>
     <row r="14" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
     </row>
     <row r="15" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
     </row>
     <row r="16" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
     </row>
     <row r="17" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="16"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="15"/>
     </row>
     <row r="18" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
     </row>
     <row r="19" ht="20.1" customHeight="1" spans="2:3">
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
     </row>
     <row r="20" ht="20.1" customHeight="1"/>
   </sheetData>

--- a/日志.xlsx
+++ b/日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20475" windowHeight="7815" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="20475" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="执行计划" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
   <si>
     <t>公平价网络推广团队2013年执行计划</t>
   </si>
@@ -208,12 +208,16 @@
   <si>
     <t>2.配合技术部门在后台更改错误名称车型，及校验</t>
   </si>
+  <si>
+    <t>万新：执行计划要做的详细明确，执行日期和完成日期要明确</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -296,6 +300,20 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -363,7 +381,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -417,7 +435,6 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -451,6 +468,30 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -466,32 +507,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -838,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -850,128 +873,129 @@
     <col min="2" max="2" width="69.125" customWidth="1"/>
     <col min="3" max="3" width="22.25" customWidth="1"/>
     <col min="4" max="4" width="48.625" customWidth="1"/>
-    <col min="5" max="5" width="32.125" customWidth="1"/>
+    <col min="5" max="5" width="23.625" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="8" max="8" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="44.25" customHeight="1">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:8" ht="44.25" customHeight="1">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-    </row>
-    <row r="2" spans="1:5" s="20" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+    </row>
+    <row r="2" spans="1:8" s="19" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:8" s="5" customFormat="1" ht="30" customHeight="1">
+      <c r="A3" s="39" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="24">
         <v>41556</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="5" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A4" s="32"/>
-      <c r="B4" s="27" t="s">
+    <row r="4" spans="1:8" s="5" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A4" s="39"/>
+      <c r="B4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="24">
         <v>41559</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="5" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A5" s="32"/>
-      <c r="B5" s="27" t="s">
+    <row r="5" spans="1:8" s="5" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A5" s="39"/>
+      <c r="B5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="24">
         <v>41561</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="5" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A6" s="32"/>
-      <c r="B6" s="27" t="s">
+    <row r="6" spans="1:8" s="5" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A6" s="39"/>
+      <c r="B6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="24">
         <v>41563</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="21" t="s">
+    <row r="7" spans="1:8" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="39"/>
+      <c r="B7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="28">
         <v>41567</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="32"/>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="39"/>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="28">
         <v>41568</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="32"/>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="39"/>
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="40">
         <v>41569</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="32"/>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="39"/>
       <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="33"/>
-    </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="30" t="s">
+      <c r="C10" s="40"/>
+    </row>
+    <row r="11" spans="1:8" ht="30" customHeight="1">
+      <c r="A11" s="39"/>
+      <c r="B11" s="29" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="32"/>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="39"/>
       <c r="B12" s="14" t="s">
         <v>18</v>
       </c>
@@ -979,41 +1003,47 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="32"/>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="39"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1"/>
+      <c r="F13" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:A13"/>
     <mergeCell ref="C9:C10"/>
+    <mergeCell ref="F13:H13"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="58.125" customWidth="1"/>
+    <col min="2" max="2" width="73.5" customWidth="1"/>
     <col min="3" max="3" width="38.75" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
     <col min="5" max="5" width="32.5" customWidth="1"/>
@@ -1141,7 +1171,7 @@
       <c r="A14" s="18">
         <v>41567</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="13"/>
@@ -1159,7 +1189,7 @@
       <c r="A16" s="18">
         <v>41569</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C16" s="13"/>
@@ -1183,7 +1213,7 @@
       <c r="C18" s="13"/>
     </row>
     <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="19">
+      <c r="A19" s="18">
         <v>41572</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -1192,10 +1222,25 @@
       <c r="C19" s="13"/>
     </row>
     <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="19">
+      <c r="A20" s="18">
         <v>41573</v>
       </c>
     </row>
+    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1"/>
+    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1"/>
+    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1"/>
+    <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1"/>
+    <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1"/>
+    <row r="26" spans="1:3" ht="20.100000000000001" customHeight="1"/>
+    <row r="27" spans="1:3" ht="20.100000000000001" customHeight="1"/>
+    <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1"/>
+    <row r="29" spans="1:3" ht="20.100000000000001" customHeight="1"/>
+    <row r="30" spans="1:3" ht="20.100000000000001" customHeight="1"/>
+    <row r="31" spans="1:3" ht="20.100000000000001" customHeight="1"/>
+    <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1"/>
+    <row r="33" ht="20.100000000000001" customHeight="1"/>
+    <row r="34" ht="20.100000000000001" customHeight="1"/>
+    <row r="35" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1208,7 +1253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1233,7 +1278,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="34">
+      <c r="A2" s="41">
         <v>41567</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1241,14 +1286,14 @@
       </c>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="35"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="34">
+      <c r="A4" s="41">
         <v>41568</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -1257,14 +1302,14 @@
       <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="35"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="34">
+      <c r="A6" s="41">
         <v>41569</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -1273,14 +1318,14 @@
       <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="35"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:5" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="44">
+      <c r="A8" s="43">
         <v>41570</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -1291,7 +1336,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" s="5" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="44"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="14" t="s">
         <v>18</v>
       </c>
@@ -1299,17 +1344,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="43" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="44"/>
-      <c r="B10" s="41" t="s">
+    <row r="10" spans="1:5" s="37" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="43"/>
+      <c r="B10" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="36" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="34">
+      <c r="A11" s="41">
         <v>41571</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -1326,7 +1371,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="35"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="9" t="s">
         <v>51</v>
       </c>
@@ -1338,39 +1383,39 @@
       </c>
     </row>
     <row r="13" spans="1:5" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="34">
+      <c r="A13" s="41">
         <v>41572</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
     </row>
     <row r="14" spans="1:5" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="34"/>
-      <c r="B14" s="36" t="s">
+      <c r="A14" s="41"/>
+      <c r="B14" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
     </row>
     <row r="15" spans="1:5" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="35"/>
-      <c r="B15" s="39" t="s">
+      <c r="A15" s="42"/>
+      <c r="B15" s="33" t="s">
         <v>55</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
     </row>
     <row r="16" spans="1:5" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="15"/>

--- a/日志.xlsx
+++ b/日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
   <si>
     <t>公平价网络推广团队2013年执行计划</t>
   </si>
@@ -116,56 +116,10 @@
     <t>1、归纳总结网络推广的方式和流程 2、修改微信</t>
   </si>
   <si>
-    <t>1、推广方案具体化总结中 2.整理SUV图片 3、整理话术</t>
-  </si>
-  <si>
-    <t>1.推广方案 2.整理博客</t>
-  </si>
-  <si>
-    <t>1.网络推广办法报告2.微信和微博</t>
-  </si>
-  <si>
-    <t>休假</t>
-  </si>
-  <si>
-    <t>SNS社交网站具体推广流程和主要汽车网站案例。</t>
-  </si>
-  <si>
-    <t>编辑微信和微博、学习SEO优化</t>
-  </si>
-  <si>
-    <t>申请汽车之家、易车网、西祠胡同等账号并浏览帖子</t>
-  </si>
-  <si>
-    <t>看推广学习视频了解站长工具获取长尾关键词、发布招聘帖子</t>
-  </si>
-  <si>
-    <t>编辑微信、学习SEO优化 长尾关键词、修改百度百科、应届生注册发布招聘信息</t>
-  </si>
-  <si>
-    <t>关注微博汽车官网及浏览汽车之家论坛编辑作品、修改百度百科</t>
-  </si>
-  <si>
     <t xml:space="preserve">休假
 </t>
   </si>
   <si>
-    <t>编辑微信、整理百度百科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">微信微博内容整理：用车常识 秋冬保养 非常规天气用车提醒，以及趣味新闻等
-</t>
-  </si>
-  <si>
-    <t>三折页文案、整理微信内容（耿静提供原本）</t>
-  </si>
-  <si>
-    <t>整理微信内容、建立豆瓣小组、浏览豆瓣二手车小组。</t>
-  </si>
-  <si>
-    <t>写APP文案 整理小游戏、微博、微信</t>
-  </si>
-  <si>
     <t>整理文档上传百度文库 百度百科</t>
   </si>
   <si>
@@ -210,6 +164,75 @@
   </si>
   <si>
     <t>万新：执行计划要做的详细明确，执行日期和完成日期要明确</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>休假</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、推广方案具体化总结中 2.整理SUV图片 3、整理话术</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、推广方案 2.整理博客</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、网络推广办法报告2.微信和微博</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、SNS社交网站具体推广流程和主要汽车网站案例。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、编辑微信和微博、学习SEO优化</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、申请汽车之家、易车网、西祠胡同等账号并浏览帖子</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、看推广学习视频了解站长工具获取长尾关键词、发布招聘帖子</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、编辑微信、学习SEO优化 长尾关键词、修改百度百科、应届生注册发布招聘信息</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、关注微博汽车官网及浏览汽车之家论坛编辑作品、修改百度百科</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、编辑微信、整理百度百科</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、微信微博内容整理：用车常识 秋冬保养 非常规天气用车提醒，以及趣味新闻等
+</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、三折页文案、整理微信内容（耿静提供原本）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、整理微信内容、建立豆瓣小组、浏览豆瓣二手车小组。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、写APP文案 整理小游戏、微博、微信</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、整理微博、微信</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -501,20 +524,20 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1011,11 +1034,11 @@
       <c r="E13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
+      <c r="F13" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
@@ -1036,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1082,7 +1105,7 @@
         <v>41557</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C4" s="13"/>
     </row>
@@ -1091,7 +1114,7 @@
         <v>41558</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C5" s="13"/>
     </row>
@@ -1100,7 +1123,7 @@
         <v>41559</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C6" s="13"/>
     </row>
@@ -1109,7 +1132,7 @@
         <v>41560</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C7" s="13"/>
     </row>
@@ -1118,7 +1141,7 @@
         <v>41561</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C8" s="13"/>
     </row>
@@ -1127,7 +1150,7 @@
         <v>41562</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C9" s="13"/>
     </row>
@@ -1136,7 +1159,7 @@
         <v>41563</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C10" s="13"/>
     </row>
@@ -1145,7 +1168,7 @@
         <v>41564</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C11" s="13"/>
     </row>
@@ -1154,7 +1177,7 @@
         <v>41565</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C12" s="13"/>
     </row>
@@ -1163,7 +1186,7 @@
         <v>41566</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C13" s="13"/>
     </row>
@@ -1172,7 +1195,7 @@
         <v>41567</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C14" s="13"/>
     </row>
@@ -1181,7 +1204,7 @@
         <v>41568</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C15" s="13"/>
     </row>
@@ -1190,7 +1213,7 @@
         <v>41569</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C16" s="13"/>
     </row>
@@ -1199,7 +1222,7 @@
         <v>41570</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C17" s="13"/>
     </row>
@@ -1208,7 +1231,7 @@
         <v>41571</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C18" s="13"/>
     </row>
@@ -1217,7 +1240,7 @@
         <v>41572</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C19" s="13"/>
     </row>
@@ -1225,8 +1248,18 @@
       <c r="A20" s="18">
         <v>41573</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1"/>
+      <c r="B20" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="18">
+        <v>41574</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
     <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1"/>
     <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1"/>
     <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1"/>
@@ -1278,54 +1311,54 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="41">
+      <c r="A2" s="43">
         <v>41567</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="42"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="8" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="41">
+      <c r="A4" s="43">
         <v>41568</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="42"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="8" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="41">
+      <c r="A6" s="43">
         <v>41569</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="42"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="8" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:5" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="43">
+      <c r="A8" s="45">
         <v>41570</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -1336,7 +1369,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" s="5" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="43"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="14" t="s">
         <v>18</v>
       </c>
@@ -1345,7 +1378,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" s="37" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="43"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="35" t="s">
         <v>20</v>
       </c>
@@ -1354,40 +1387,40 @@
       </c>
     </row>
     <row r="11" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="41">
+      <c r="A11" s="43">
         <v>41571</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="42"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="9" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="41">
+      <c r="A13" s="43">
         <v>41572</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C13" s="31" t="s">
         <v>21</v>
@@ -1396,9 +1429,9 @@
       <c r="E13" s="32"/>
     </row>
     <row r="14" spans="1:5" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="41"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="30" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C14" s="31" t="s">
         <v>21</v>
@@ -1407,9 +1440,9 @@
       <c r="E14" s="32"/>
     </row>
     <row r="15" spans="1:5" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="42"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="33" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>21</v>
@@ -1450,7 +1483,7 @@
     <row r="22" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="15"/>
       <c r="B22" s="12" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C22" s="13"/>
     </row>

--- a/日志.xlsx
+++ b/日志.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20475" windowHeight="7815" activeTab="1"/>
+    <workbookView windowWidth="23880" windowHeight="9920" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="执行计划" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
   <si>
     <t>公平价网络推广团队2013年执行计划</t>
   </si>
@@ -103,6 +103,33 @@
     <t>耿静</t>
   </si>
   <si>
+    <t>万新：执行计划要做的详细明确，执行日期和完成日期要明确</t>
+  </si>
+  <si>
+    <t>1.西祠和各大汽车现有可发论坛发帖</t>
+  </si>
+  <si>
+    <t>西祠（耿静）其他周沛然</t>
+  </si>
+  <si>
+    <t>2.百度百科词条录入</t>
+  </si>
+  <si>
+    <t>耿静 周沛然</t>
+  </si>
+  <si>
+    <t>3.百姓和58同城广告</t>
+  </si>
+  <si>
+    <t xml:space="preserve">耿静 </t>
+  </si>
+  <si>
+    <t>4.微信新闻和微博新闻</t>
+  </si>
+  <si>
+    <t xml:space="preserve">李媛琪 </t>
+  </si>
+  <si>
     <t>工  作  日  志</t>
   </si>
   <si>
@@ -116,10 +143,62 @@
     <t>1、归纳总结网络推广的方式和流程 2、修改微信</t>
   </si>
   <si>
+    <t>1、推广方案具体化总结中 2.整理SUV图片 3、整理话术</t>
+  </si>
+  <si>
+    <t>1、推广方案 2.整理博客</t>
+  </si>
+  <si>
+    <t>1、网络推广办法报告2.微信和微博</t>
+  </si>
+  <si>
+    <t>休假</t>
+  </si>
+  <si>
+    <t>1、SNS社交网站具体推广流程和主要汽车网站案例。</t>
+  </si>
+  <si>
+    <t>1、编辑微信和微博、学习SEO优化</t>
+  </si>
+  <si>
+    <t>1、申请汽车之家、易车网、西祠胡同等账号并浏览帖子</t>
+  </si>
+  <si>
+    <t>1、看推广学习视频了解站长工具获取长尾关键词、发布招聘帖子</t>
+  </si>
+  <si>
+    <t>1、编辑微信、学习SEO优化 长尾关键词、修改百度百科、应届生注册发布招聘信息</t>
+  </si>
+  <si>
+    <t>1、关注微博汽车官网及浏览汽车之家论坛编辑作品、修改百度百科</t>
+  </si>
+  <si>
     <t xml:space="preserve">休假
 </t>
   </si>
   <si>
+    <t>1、编辑微信、整理百度百科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、微信微博内容整理：用车常识 秋冬保养 非常规天气用车提醒，以及趣味新闻等
+</t>
+  </si>
+  <si>
+    <t>1、三折页文案、整理微信内容（耿静提供原本）</t>
+  </si>
+  <si>
+    <t>1、整理微信内容、建立豆瓣小组、浏览豆瓣二手车小组。</t>
+  </si>
+  <si>
+    <t>1、写APP文案 整理小游戏、微博、微信</t>
+  </si>
+  <si>
+    <t>1、整理微博、微信</t>
+  </si>
+  <si>
+    <t>休息</t>
+  </si>
+  <si>
     <t>整理文档上传百度文库 百度百科</t>
   </si>
   <si>
@@ -133,119 +212,69 @@
   </si>
   <si>
     <t>去二手车市场调研</t>
+  </si>
+  <si>
+    <t>1.百度词条编辑  百度经验编辑</t>
+  </si>
+  <si>
+    <t>http://jingyan.baidu.com/user/nuc/expList?type=3</t>
+  </si>
+  <si>
+    <t>未通过再修改</t>
+  </si>
+  <si>
+    <t>2.南京市旧机动车交易市场调研</t>
+  </si>
+  <si>
+    <t>二手商务车价格及车源</t>
+  </si>
+  <si>
+    <t>1.百度文库编辑上传（爱车值多少钱推荐公平价），凡科企业网站展示注册</t>
+  </si>
+  <si>
+    <t>2.增加58同城和百姓网发布广告</t>
+  </si>
+  <si>
+    <t>2.配合技术部门在后台更改错误名称车型，及校验</t>
+  </si>
+  <si>
+    <t>1.百度词条 二手车保值率公平价推荐 （完成）</t>
+  </si>
+  <si>
+    <t>2.58同城 百姓网 公平价广告</t>
+  </si>
+  <si>
+    <t>3.QQ好友推荐 百度文库整理</t>
+  </si>
+  <si>
+    <t>1.西祠汽车论坛发帖</t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>1.百度词条编辑  百度经验编辑</t>
-  </si>
-  <si>
-    <t>http://jingyan.baidu.com/user/nuc/expList?type=3</t>
-  </si>
-  <si>
-    <t>未通过再修改</t>
-  </si>
-  <si>
-    <t>2.南京市旧机动车交易市场调研</t>
-  </si>
-  <si>
-    <t>二手商务车价格及车源</t>
-  </si>
-  <si>
-    <t>1.百度文库编辑上传（爱车值多少钱推荐公平价），凡科企业网站展示注册</t>
-  </si>
-  <si>
-    <t>2.增加58同城和百姓网发布广告</t>
-  </si>
-  <si>
-    <t>2.配合技术部门在后台更改错误名称车型，及校验</t>
-  </si>
-  <si>
-    <t>万新：执行计划要做的详细明确，执行日期和完成日期要明确</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>休息</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>休假</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、推广方案具体化总结中 2.整理SUV图片 3、整理话术</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、推广方案 2.整理博客</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、网络推广办法报告2.微信和微博</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、SNS社交网站具体推广流程和主要汽车网站案例。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、编辑微信和微博、学习SEO优化</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、申请汽车之家、易车网、西祠胡同等账号并浏览帖子</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、看推广学习视频了解站长工具获取长尾关键词、发布招聘帖子</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、编辑微信、学习SEO优化 长尾关键词、修改百度百科、应届生注册发布招聘信息</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、关注微博汽车官网及浏览汽车之家论坛编辑作品、修改百度百科</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、编辑微信、整理百度百科</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1、微信微博内容整理：用车常识 秋冬保养 非常规天气用车提醒，以及趣味新闻等
-</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、三折页文案、整理微信内容（耿静提供原本）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、整理微信内容、建立豆瓣小组、浏览豆瓣二手车小组。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、写APP文案 整理小游戏、微博、微信</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、整理微博、微信</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
   <fonts count="14">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -311,28 +340,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color indexed="30"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
+      <color indexed="30"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
+      <sz val="14"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -346,11 +369,29 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -398,15 +439,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -421,8 +499,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -437,6 +530,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -446,19 +542,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -467,89 +599,51 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -848,7 +942,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -883,14 +976,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="69.125" customWidth="1"/>
@@ -901,613 +995,702 @@
     <col min="8" max="8" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="44.25" customHeight="1">
-      <c r="A1" s="38" t="s">
+    <row r="1" ht="44.25" customHeight="1" spans="1:5">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-    </row>
-    <row r="2" spans="1:8" s="19" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A2" s="21" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+    </row>
+    <row r="2" s="39" customFormat="1" ht="29.25" customHeight="1" spans="1:5">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="44" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="39" t="s">
+    <row r="3" s="5" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A3" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="46">
         <v>41556</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="47" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="5" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A4" s="39"/>
-      <c r="B4" s="26" t="s">
+    <row r="4" s="5" customFormat="1" ht="39.95" customHeight="1" spans="1:4">
+      <c r="A4" s="45"/>
+      <c r="B4" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="46">
         <v>41559</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="49" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="5" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A5" s="39"/>
-      <c r="B5" s="26" t="s">
+    <row r="5" s="5" customFormat="1" ht="39.95" customHeight="1" spans="1:4">
+      <c r="A5" s="45"/>
+      <c r="B5" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="46">
         <v>41561</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="5" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A6" s="39"/>
-      <c r="B6" s="26" t="s">
+    <row r="6" s="5" customFormat="1" ht="39.95" customHeight="1" spans="1:3">
+      <c r="A6" s="45"/>
+      <c r="B6" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="46">
         <v>41563</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="39"/>
-      <c r="B7" s="20" t="s">
+    <row r="7" s="40" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A7" s="45"/>
+      <c r="B7" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="50">
         <v>41567</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="39"/>
+    <row r="8" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A8" s="45"/>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="50">
         <v>41568</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="39"/>
+    <row r="9" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A9" s="45"/>
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="46">
         <v>41569</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="39"/>
+    <row r="10" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A10" s="45"/>
       <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="40"/>
-    </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1">
-      <c r="A11" s="39"/>
-      <c r="B11" s="29" t="s">
+      <c r="C10" s="46"/>
+    </row>
+    <row r="11" ht="30" customHeight="1" spans="1:5">
+      <c r="A11" s="45"/>
+      <c r="B11" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="39"/>
-      <c r="B12" s="14" t="s">
+    <row r="12" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A12" s="45"/>
+      <c r="B12" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="39"/>
-      <c r="B13" s="12" t="s">
+    <row r="13" ht="20.1" customHeight="1" spans="1:8">
+      <c r="A13" s="45"/>
+      <c r="B13" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-    </row>
-    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1"/>
+      <c r="F13" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+    </row>
+    <row r="14" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A14" s="45"/>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="50">
+        <v>41575</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="45"/>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="50">
+        <v>41575</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="45"/>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="50">
+        <v>41575</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="50">
+        <v>41575</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A3:A16"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="F13:H13"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="6" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="9" customWidth="1"/>
     <col min="2" max="2" width="73.5" customWidth="1"/>
     <col min="3" max="3" width="38.75" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
     <col min="5" max="5" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="42" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="1" customFormat="1" ht="42" customHeight="1" spans="1:3">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="16" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="17">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" s="36" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A2" s="37">
         <v>41555</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="18">
+      <c r="B2" s="36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A3" s="38">
         <v>41556</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="13"/>
-    </row>
-    <row r="4" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="18">
+      <c r="B3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="19"/>
+    </row>
+    <row r="4" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A4" s="38">
         <v>41557</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="19"/>
+    </row>
+    <row r="5" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A5" s="38">
+        <v>41558</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="19"/>
+    </row>
+    <row r="6" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A6" s="38">
+        <v>41559</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="19"/>
+    </row>
+    <row r="7" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A7" s="38">
+        <v>41560</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="19"/>
+    </row>
+    <row r="8" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A8" s="38">
+        <v>41561</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="19"/>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A9" s="38">
+        <v>41562</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="19"/>
+    </row>
+    <row r="10" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A10" s="38">
+        <v>41563</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="19"/>
+    </row>
+    <row r="11" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A11" s="38">
+        <v>41564</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="19"/>
+    </row>
+    <row r="12" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A12" s="38">
+        <v>41565</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="19"/>
+    </row>
+    <row r="13" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A13" s="38">
+        <v>41566</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="13"/>
-    </row>
-    <row r="5" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="18">
-        <v>41558</v>
-      </c>
-      <c r="B5" s="12" t="s">
+      <c r="C13" s="19"/>
+    </row>
+    <row r="14" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A14" s="38">
+        <v>41567</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="13"/>
-    </row>
-    <row r="6" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="18">
-        <v>41559</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="C14" s="19"/>
+    </row>
+    <row r="15" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A15" s="38">
+        <v>41568</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="13"/>
-    </row>
-    <row r="7" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="18">
-        <v>41560</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="13"/>
-    </row>
-    <row r="8" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="18">
-        <v>41561</v>
-      </c>
-      <c r="B8" s="12" t="s">
+      <c r="C15" s="19"/>
+    </row>
+    <row r="16" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A16" s="38">
+        <v>41569</v>
+      </c>
+      <c r="B16" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="13"/>
-    </row>
-    <row r="9" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="18">
-        <v>41562</v>
-      </c>
-      <c r="B9" s="12" t="s">
+      <c r="C16" s="19"/>
+    </row>
+    <row r="17" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A17" s="38">
+        <v>41570</v>
+      </c>
+      <c r="B17" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="13"/>
-    </row>
-    <row r="10" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="18">
-        <v>41563</v>
-      </c>
-      <c r="B10" s="12" t="s">
+      <c r="C17" s="19"/>
+    </row>
+    <row r="18" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A18" s="38">
+        <v>41571</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="13"/>
-    </row>
-    <row r="11" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="18">
-        <v>41564</v>
-      </c>
-      <c r="B11" s="13" t="s">
+      <c r="C18" s="19"/>
+    </row>
+    <row r="19" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A19" s="38">
+        <v>41572</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="13"/>
-    </row>
-    <row r="12" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="18">
-        <v>41565</v>
-      </c>
-      <c r="B12" s="13" t="s">
+      <c r="C19" s="19"/>
+    </row>
+    <row r="20" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A20" s="38">
+        <v>41573</v>
+      </c>
+      <c r="B20" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="13"/>
-    </row>
-    <row r="13" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="18">
-        <v>41566</v>
-      </c>
-      <c r="B13" s="13" t="s">
+    </row>
+    <row r="21" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A21" s="38">
+        <v>41574</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="13"/>
-    </row>
-    <row r="14" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="18">
-        <v>41567</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="13"/>
-    </row>
-    <row r="15" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="18">
-        <v>41568</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="13"/>
-    </row>
-    <row r="16" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="18">
-        <v>41569</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="13"/>
-    </row>
-    <row r="17" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="18">
-        <v>41570</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="13"/>
-    </row>
-    <row r="18" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="18">
-        <v>41571</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="13"/>
-    </row>
-    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="18">
-        <v>41572</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="13"/>
-    </row>
-    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="18">
-        <v>41573</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="18">
-        <v>41574</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1"/>
-    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1"/>
-    <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1"/>
-    <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1"/>
-    <row r="26" spans="1:3" ht="20.100000000000001" customHeight="1"/>
-    <row r="27" spans="1:3" ht="20.100000000000001" customHeight="1"/>
-    <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1"/>
-    <row r="29" spans="1:3" ht="20.100000000000001" customHeight="1"/>
-    <row r="30" spans="1:3" ht="20.100000000000001" customHeight="1"/>
-    <row r="31" spans="1:3" ht="20.100000000000001" customHeight="1"/>
-    <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1"/>
-    <row r="33" ht="20.100000000000001" customHeight="1"/>
-    <row r="34" ht="20.100000000000001" customHeight="1"/>
-    <row r="35" ht="20.100000000000001" customHeight="1"/>
+    </row>
+    <row r="22" ht="20.1" customHeight="1"/>
+    <row r="23" ht="20.1" customHeight="1"/>
+    <row r="24" ht="20.1" customHeight="1"/>
+    <row r="25" ht="20.1" customHeight="1"/>
+    <row r="26" ht="20.1" customHeight="1"/>
+    <row r="27" ht="20.1" customHeight="1"/>
+    <row r="28" ht="20.1" customHeight="1"/>
+    <row r="29" ht="20.1" customHeight="1"/>
+    <row r="30" ht="20.1" customHeight="1"/>
+    <row r="31" ht="20.1" customHeight="1"/>
+    <row r="32" ht="20.1" customHeight="1"/>
+    <row r="33" ht="20.1" customHeight="1"/>
+    <row r="34" ht="20.1" customHeight="1"/>
+    <row r="35" ht="20.1" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="6" customWidth="1"/>
+    <col min="1" max="1" width="13.25" style="9" customWidth="1"/>
     <col min="2" max="2" width="80" customWidth="1"/>
     <col min="3" max="3" width="38.75" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
     <col min="5" max="5" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="42" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="1" customFormat="1" ht="42" customHeight="1" spans="1:3">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="43">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A2" s="11">
         <v>41567</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A4" s="11">
+        <v>41568</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="16"/>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="14"/>
+    </row>
+    <row r="6" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A6" s="11">
+        <v>41569</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="16"/>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="14"/>
+    </row>
+    <row r="8" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A8" s="17">
+        <v>41570</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="21" customHeight="1" spans="1:3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" s="6" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A10" s="17"/>
+      <c r="B10" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A11" s="11">
+        <v>41571</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A12" s="12"/>
+      <c r="B12" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A13" s="11">
+        <v>41572</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A14" s="11"/>
+      <c r="B14" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+    </row>
+    <row r="15" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A15" s="12"/>
+      <c r="B15" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+    </row>
+    <row r="16" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A16" s="11">
+        <v>41573</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A19" s="28"/>
+      <c r="B19" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A20" s="11">
+        <v>41575</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" s="8" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A21" s="32"/>
+      <c r="B21" s="33" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="44"/>
-      <c r="B3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="43">
-        <v>41568</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="11"/>
-    </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="44"/>
-      <c r="B5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="43">
-        <v>41569</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="44"/>
-      <c r="B7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="45">
-        <v>41570</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="5" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="45"/>
-      <c r="B9" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="37" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="45"/>
-      <c r="B10" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="36" t="s">
+      <c r="C21" s="34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="43">
-        <v>41571</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="44"/>
-      <c r="B12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="43">
-        <v>41572</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-    </row>
-    <row r="14" spans="1:5" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="43"/>
-      <c r="B14" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-    </row>
-    <row r="15" spans="1:5" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="44"/>
-      <c r="B15" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-    </row>
-    <row r="16" spans="1:5" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="15"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-    </row>
-    <row r="17" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-    </row>
-    <row r="18" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="15"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-    </row>
-    <row r="19" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-    </row>
-    <row r="20" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-    </row>
-    <row r="21" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="15"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-    </row>
-    <row r="22" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="15"/>
-      <c r="B22" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="13"/>
-    </row>
-    <row r="23" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="15"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-    </row>
-    <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-    </row>
-    <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1"/>
+    <row r="22" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A22" s="35"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+    </row>
+    <row r="23" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A23" s="35"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+    </row>
+    <row r="24" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A24" s="35"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+    </row>
+    <row r="25" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A25" s="35"/>
+      <c r="B25" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="19"/>
+    </row>
+    <row r="26" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A26" s="35"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="19"/>
+    </row>
+    <row r="27" ht="20.1" customHeight="1" spans="2:3">
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+    </row>
+    <row r="28" ht="20.1" customHeight="1"/>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A15"/>
+  <mergeCells count="7">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/日志.xlsx
+++ b/日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23880" windowHeight="9920" activeTab="2"/>
+    <workbookView windowWidth="23880" windowHeight="9920"/>
   </bookViews>
   <sheets>
     <sheet name="执行计划" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>公平价网络推广团队2013年执行计划</t>
   </si>
@@ -109,16 +109,28 @@
     <t>1.西祠和各大汽车现有可发论坛发帖</t>
   </si>
   <si>
+    <t>http://www.xici.net/d195200793.htm
+http://www.xici.net/d195200029.htm
+http://www.xici.net/d195173957.htm</t>
+  </si>
+  <si>
     <t>西祠（耿静）其他周沛然</t>
   </si>
   <si>
     <t>2.百度百科词条录入</t>
   </si>
   <si>
+    <t>http://baike.baidu.com/view/3594775.htm</t>
+  </si>
+  <si>
     <t>耿静 周沛然</t>
   </si>
   <si>
     <t>3.百姓和58同城广告</t>
+  </si>
+  <si>
+    <t>http://nanjing.baixing.com/cheliangqiugou/a287879099.html
+http://nj.58.com/daibanguohu/15736741762695x.shtml</t>
   </si>
   <si>
     <t xml:space="preserve">耿静 </t>
@@ -260,11 +272,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -273,8 +285,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
       <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -354,6 +376,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color indexed="10"/>
       <name val="宋体"/>
@@ -369,7 +399,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -393,15 +423,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -450,41 +471,36 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -505,17 +521,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -530,7 +543,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -563,7 +576,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -571,78 +584,87 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="8">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
     <cellStyle name="货币" xfId="2" builtinId="4"/>
     <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
     <cellStyle name="百分比" xfId="4" builtinId="5"/>
     <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -980,8 +1002,8 @@
   <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -996,63 +1018,63 @@
   </cols>
   <sheetData>
     <row r="1" ht="44.25" customHeight="1" spans="1:5">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-    </row>
-    <row r="2" s="39" customFormat="1" ht="29.25" customHeight="1" spans="1:5">
-      <c r="A2" s="42" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+    </row>
+    <row r="2" s="38" customFormat="1" ht="29.25" customHeight="1" spans="1:5">
+      <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="43" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="45">
         <v>41556</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="46" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" s="5" customFormat="1" ht="39.95" customHeight="1" spans="1:4">
-      <c r="A4" s="45"/>
-      <c r="B4" s="48" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="45">
         <v>41559</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="48" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" s="5" customFormat="1" ht="39.95" customHeight="1" spans="1:4">
-      <c r="A5" s="45"/>
-      <c r="B5" s="48" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="45">
         <v>41561</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -1060,134 +1082,149 @@
       </c>
     </row>
     <row r="6" s="5" customFormat="1" ht="39.95" customHeight="1" spans="1:3">
-      <c r="A6" s="45"/>
-      <c r="B6" s="48" t="s">
+      <c r="A6" s="44"/>
+      <c r="B6" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="45">
         <v>41563</v>
       </c>
     </row>
-    <row r="7" s="40" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A7" s="45"/>
-      <c r="B7" s="40" t="s">
+    <row r="7" s="39" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A7" s="44"/>
+      <c r="B7" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C7" s="49">
         <v>41567</v>
       </c>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A8" s="45"/>
+      <c r="A8" s="44"/>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="49">
         <v>41568</v>
       </c>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A9" s="45"/>
+      <c r="A9" s="44"/>
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="45">
         <v>41569</v>
       </c>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A10" s="45"/>
+      <c r="A10" s="44"/>
       <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="46"/>
+      <c r="C10" s="45"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:5">
-      <c r="A11" s="45"/>
-      <c r="B11" s="51" t="s">
+      <c r="A11" s="44"/>
+      <c r="B11" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A12" s="45"/>
-      <c r="B12" s="20" t="s">
+      <c r="A12" s="44"/>
+      <c r="B12" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A13" s="45"/>
-      <c r="B13" s="18" t="s">
+      <c r="A13" s="44"/>
+      <c r="B13" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="52" t="s">
+      <c r="F13" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-    </row>
-    <row r="14" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A14" s="45"/>
-      <c r="B14" t="s">
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+    </row>
+    <row r="14" ht="57" customHeight="1" spans="1:5">
+      <c r="A14" s="44"/>
+      <c r="B14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="50">
+      <c r="C14" s="49">
         <v>41575</v>
       </c>
+      <c r="D14" s="53" t="s">
+        <v>24</v>
+      </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="45"/>
+      <c r="A15" s="44"/>
       <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="50">
+        <v>26</v>
+      </c>
+      <c r="C15" s="49">
         <v>41575</v>
       </c>
+      <c r="D15" s="54" t="s">
+        <v>27</v>
+      </c>
       <c r="E15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="45"/>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="50">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" ht="54" spans="1:5">
+      <c r="A16" s="44"/>
+      <c r="B16" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="49">
         <v>41575</v>
       </c>
+      <c r="D16" s="55" t="s">
+        <v>30</v>
+      </c>
       <c r="E16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="44"/>
       <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="50">
-        <v>41575</v>
+        <v>32</v>
+      </c>
+      <c r="C17" s="49">
+        <v>41577</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F13:H13"/>
-    <mergeCell ref="A3:A16"/>
+    <mergeCell ref="A3:A17"/>
     <mergeCell ref="C9:C10"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D15" r:id="rId1" display="http://baike.baidu.com/view/3594775.htm"/>
+    <hyperlink ref="D14" r:id="rId2" display="http://www.xici.net/d195200793.htm&#10;http://www.xici.net/d195200029.htm&#10;http://www.xici.net/d195173957.htm" tooltip="http://www.xici.net/d195200793.htm&#10;http://www.xici.net/d195200029.htm&#10;http://www.xici.net/d195173957.htm"/>
+    <hyperlink ref="D16" r:id="rId3" display="http://nanjing.baixing.com/cheliangqiugou/a287879099.html&#10;http://nj.58.com/daibanguohu/15736741762695x.shtml"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -1205,7 +1242,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="8" customWidth="1"/>
     <col min="2" max="2" width="73.5" customWidth="1"/>
     <col min="3" max="3" width="38.75" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
@@ -1213,191 +1250,191 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="42" customHeight="1" spans="1:3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" s="36" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A2" s="37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" s="35" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A2" s="36">
         <v>41555</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>33</v>
+      <c r="B2" s="35" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A3" s="38">
+      <c r="A3" s="37">
         <v>41556</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="19"/>
+      <c r="B3" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="18"/>
     </row>
     <row r="4" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A4" s="38">
+      <c r="A4" s="37">
         <v>41557</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="19"/>
+      <c r="B4" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A5" s="38">
+      <c r="A5" s="37">
         <v>41558</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="19"/>
+      <c r="B5" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A6" s="38">
+      <c r="A6" s="37">
         <v>41559</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="19"/>
+      <c r="B6" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="18"/>
     </row>
     <row r="7" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A7" s="38">
+      <c r="A7" s="37">
         <v>41560</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="19"/>
+      <c r="B7" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="18"/>
     </row>
     <row r="8" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A8" s="38">
+      <c r="A8" s="37">
         <v>41561</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="19"/>
+      <c r="B8" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="18"/>
     </row>
     <row r="9" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A9" s="38">
+      <c r="A9" s="37">
         <v>41562</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="19"/>
+      <c r="B9" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="18"/>
     </row>
     <row r="10" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A10" s="38">
+      <c r="A10" s="37">
         <v>41563</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="19"/>
+      <c r="B10" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="18"/>
     </row>
     <row r="11" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A11" s="38">
+      <c r="A11" s="37">
         <v>41564</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="19"/>
+      <c r="B11" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="18"/>
     </row>
     <row r="12" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A12" s="38">
+      <c r="A12" s="37">
         <v>41565</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="19"/>
+      <c r="B12" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="18"/>
     </row>
     <row r="13" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A13" s="38">
+      <c r="A13" s="37">
         <v>41566</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="19"/>
+      <c r="B13" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="18"/>
     </row>
     <row r="14" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A14" s="38">
+      <c r="A14" s="37">
         <v>41567</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="19"/>
+      <c r="B14" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="18"/>
     </row>
     <row r="15" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A15" s="38">
+      <c r="A15" s="37">
         <v>41568</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="19"/>
+      <c r="B15" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="18"/>
     </row>
     <row r="16" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A16" s="38">
+      <c r="A16" s="37">
         <v>41569</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="19"/>
+      <c r="B16" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="18"/>
     </row>
     <row r="17" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A17" s="38">
+      <c r="A17" s="37">
         <v>41570</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="19"/>
+      <c r="B17" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="18"/>
     </row>
     <row r="18" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A18" s="38">
+      <c r="A18" s="37">
         <v>41571</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="19"/>
+      <c r="B18" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="18"/>
     </row>
     <row r="19" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A19" s="38">
+      <c r="A19" s="37">
         <v>41572</v>
       </c>
-      <c r="B19" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="19"/>
+      <c r="B19" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="18"/>
     </row>
     <row r="20" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A20" s="38">
+      <c r="A20" s="37">
         <v>41573</v>
       </c>
-      <c r="B20" s="18" t="s">
-        <v>51</v>
+      <c r="B20" s="17" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="21" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A21" s="38">
+      <c r="A21" s="37">
         <v>41574</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>52</v>
+      <c r="B21" s="17" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="22" ht="20.1" customHeight="1"/>
@@ -1426,13 +1463,13 @@
   <sheetPr/>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="9" customWidth="1"/>
+    <col min="1" max="1" width="13.25" style="8" customWidth="1"/>
     <col min="2" max="2" width="80" customWidth="1"/>
     <col min="3" max="3" width="38.75" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
@@ -1440,244 +1477,253 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="42" customHeight="1" spans="1:3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A2" s="11">
+      <c r="A2" s="10">
         <v>41567</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="14"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="13"/>
     </row>
     <row r="4" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>41568</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="16"/>
+      <c r="B4" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="15"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="14"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="13"/>
     </row>
     <row r="6" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>41569</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="16"/>
+      <c r="B6" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="15"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="14"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="13"/>
     </row>
     <row r="8" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A8" s="17">
+      <c r="A8" s="16">
         <v>41570</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" s="5" customFormat="1" ht="21" customHeight="1" spans="1:3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="20" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" s="6" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="21" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>41571</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A12" s="12"/>
-      <c r="B12" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="14" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>41572</v>
       </c>
-      <c r="B13" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="24" t="s">
+      <c r="B13" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
     </row>
     <row r="14" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A14" s="11"/>
-      <c r="B14" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="24" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
     </row>
     <row r="15" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A15" s="12"/>
-      <c r="B15" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="14" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
     </row>
     <row r="16" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <v>41573</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="16" t="s">
+      <c r="B16" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="16" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="14" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="30" t="s">
+    <row r="19" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A19" s="27"/>
+      <c r="B19" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="29" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A20" s="11">
+      <c r="D19" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A20" s="10">
         <v>41575</v>
       </c>
-      <c r="B20" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="24" t="s">
+      <c r="B20" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" s="8" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="34" t="s">
+      <c r="D20" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A21" s="31"/>
+      <c r="B21" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="33" t="s">
         <v>21</v>
       </c>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="22" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A22" s="35"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
     </row>
     <row r="23" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A23" s="35"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
     </row>
     <row r="24" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A24" s="35"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
     </row>
     <row r="25" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A25" s="35"/>
-      <c r="B25" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="19"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="18"/>
     </row>
     <row r="26" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A26" s="35"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="19"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
     </row>
     <row r="27" ht="20.1" customHeight="1" spans="2:3">
-      <c r="B27" s="18"/>
-      <c r="C27" s="19"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
     </row>
     <row r="28" ht="20.1" customHeight="1"/>
   </sheetData>

--- a/日志.xlsx
+++ b/日志.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23880" windowHeight="9920"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9915" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="执行计划" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
   <si>
     <t>公平价网络推广团队2013年执行计划</t>
   </si>
@@ -265,17 +265,24 @@
     <t xml:space="preserve">
 </t>
   </si>
+  <si>
+    <t>1、管理微博、微信</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、管理微博、微信</t>
+  </si>
+  <si>
+    <t>3、管理微博、微信</t>
+  </si>
+  <si>
+    <t>4、管理微博、微信</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="16">
     <font>
       <sz val="11"/>
@@ -289,13 +296,6 @@
       <sz val="11"/>
       <color indexed="12"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -390,6 +390,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -472,35 +478,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -522,13 +510,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -542,9 +527,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -603,7 +585,7 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -612,60 +594,73 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -964,6 +959,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -998,15 +994,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="69.125" customWidth="1"/>
@@ -1017,137 +1012,137 @@
     <col min="8" max="8" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="44.25" customHeight="1" spans="1:5">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:8" ht="44.25" customHeight="1">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-    </row>
-    <row r="2" s="38" customFormat="1" ht="29.25" customHeight="1" spans="1:5">
-      <c r="A2" s="41" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+    </row>
+    <row r="2" spans="1:8" s="36" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="40" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:8" s="5" customFormat="1" ht="30" customHeight="1">
+      <c r="A3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="41">
         <v>41556</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="42" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="5" customFormat="1" ht="39.95" customHeight="1" spans="1:4">
-      <c r="A4" s="44"/>
-      <c r="B4" s="47" t="s">
+    <row r="4" spans="1:8" s="5" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A4" s="53"/>
+      <c r="B4" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="41">
         <v>41559</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="44" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="1" ht="39.95" customHeight="1" spans="1:4">
-      <c r="A5" s="44"/>
-      <c r="B5" s="47" t="s">
+    <row r="5" spans="1:8" s="5" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A5" s="53"/>
+      <c r="B5" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="41">
         <v>41561</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" s="5" customFormat="1" ht="39.95" customHeight="1" spans="1:3">
-      <c r="A6" s="44"/>
-      <c r="B6" s="47" t="s">
+    <row r="6" spans="1:8" s="5" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A6" s="53"/>
+      <c r="B6" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="41">
         <v>41563</v>
       </c>
     </row>
-    <row r="7" s="39" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A7" s="44"/>
-      <c r="B7" s="39" t="s">
+    <row r="7" spans="1:8" s="37" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="53"/>
+      <c r="B7" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="45">
         <v>41567</v>
       </c>
     </row>
-    <row r="8" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A8" s="44"/>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="53"/>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="45">
         <v>41568</v>
       </c>
     </row>
-    <row r="9" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A9" s="44"/>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="53"/>
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="54">
         <v>41569</v>
       </c>
     </row>
-    <row r="10" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A10" s="44"/>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="53"/>
       <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="45"/>
-    </row>
-    <row r="11" ht="30" customHeight="1" spans="1:5">
-      <c r="A11" s="44"/>
-      <c r="B11" s="50" t="s">
+      <c r="C10" s="54"/>
+    </row>
+    <row r="11" spans="1:8" ht="30" customHeight="1">
+      <c r="A11" s="53"/>
+      <c r="B11" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A12" s="44"/>
-      <c r="B12" s="19" t="s">
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="53"/>
+      <c r="B12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A13" s="44"/>
-      <c r="B13" s="17" t="s">
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="53"/>
+      <c r="B13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="16" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="51" t="s">
@@ -1156,45 +1151,45 @@
       <c r="G13" s="52"/>
       <c r="H13" s="52"/>
     </row>
-    <row r="14" ht="57" customHeight="1" spans="1:5">
-      <c r="A14" s="44"/>
-      <c r="B14" s="18" t="s">
+    <row r="14" spans="1:8" ht="57" customHeight="1">
+      <c r="A14" s="53"/>
+      <c r="B14" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="45">
         <v>41575</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="47" t="s">
         <v>24</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="44"/>
+    <row r="15" spans="1:8">
+      <c r="A15" s="53"/>
       <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="45">
         <v>41575</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" ht="54" spans="1:5">
-      <c r="A16" s="44"/>
-      <c r="B16" s="18" t="s">
+    <row r="16" spans="1:8" ht="54">
+      <c r="A16" s="53"/>
+      <c r="B16" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="45">
         <v>41575</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="49" t="s">
         <v>30</v>
       </c>
       <c r="E16" t="s">
@@ -1202,11 +1197,11 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="44"/>
+      <c r="A17" s="53"/>
       <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="45">
         <v>41577</v>
       </c>
       <c r="E17" t="s">
@@ -1220,10 +1215,11 @@
     <mergeCell ref="A3:A17"/>
     <mergeCell ref="C9:C10"/>
   </mergeCells>
+  <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D15" r:id="rId1" display="http://baike.baidu.com/view/3594775.htm"/>
-    <hyperlink ref="D14" r:id="rId2" display="http://www.xici.net/d195200793.htm&#10;http://www.xici.net/d195200029.htm&#10;http://www.xici.net/d195173957.htm" tooltip="http://www.xici.net/d195200793.htm&#10;http://www.xici.net/d195200029.htm&#10;http://www.xici.net/d195173957.htm"/>
-    <hyperlink ref="D16" r:id="rId3" display="http://nanjing.baixing.com/cheliangqiugou/a287879099.html&#10;http://nj.58.com/daibanguohu/15736741762695x.shtml"/>
+    <hyperlink ref="D15" r:id="rId1"/>
+    <hyperlink ref="D14" r:id="rId2" tooltip="http://www.xici.net/d195200793.htm_x000a_http://www.xici.net/d195200029.htm_x000a_http://www.xici.net/d195173957.htm"/>
+    <hyperlink ref="D16" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1232,15 +1228,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.5" style="8" customWidth="1"/>
     <col min="2" max="2" width="73.5" customWidth="1"/>
@@ -1249,7 +1244,7 @@
     <col min="5" max="5" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="42" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="42" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1260,214 +1255,242 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" s="35" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A2" s="36">
+    <row r="2" spans="1:3" s="33" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="34">
         <v>41555</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A3" s="37">
+    <row r="3" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="35">
         <v>41556</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="18"/>
-    </row>
-    <row r="4" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A4" s="37">
+      <c r="C3" s="16"/>
+    </row>
+    <row r="4" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="35">
         <v>41557</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="18"/>
-    </row>
-    <row r="5" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A5" s="37">
+      <c r="C4" s="16"/>
+    </row>
+    <row r="5" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="35">
         <v>41558</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="18"/>
-    </row>
-    <row r="6" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A6" s="37">
+      <c r="C5" s="16"/>
+    </row>
+    <row r="6" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="35">
         <v>41559</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="18"/>
-    </row>
-    <row r="7" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A7" s="37">
+      <c r="C6" s="16"/>
+    </row>
+    <row r="7" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="35">
         <v>41560</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="18"/>
-    </row>
-    <row r="8" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A8" s="37">
+      <c r="C7" s="16"/>
+    </row>
+    <row r="8" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="35">
         <v>41561</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="18"/>
-    </row>
-    <row r="9" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A9" s="37">
+      <c r="C8" s="16"/>
+    </row>
+    <row r="9" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="35">
         <v>41562</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="18"/>
-    </row>
-    <row r="10" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A10" s="37">
+      <c r="C9" s="16"/>
+    </row>
+    <row r="10" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="35">
         <v>41563</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="18"/>
-    </row>
-    <row r="11" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A11" s="37">
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="35">
         <v>41564</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="18"/>
-    </row>
-    <row r="12" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A12" s="37">
+      <c r="C11" s="16"/>
+    </row>
+    <row r="12" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="35">
         <v>41565</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="18"/>
-    </row>
-    <row r="13" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A13" s="37">
+      <c r="C12" s="16"/>
+    </row>
+    <row r="13" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="35">
         <v>41566</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="18"/>
-    </row>
-    <row r="14" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A14" s="37">
+      <c r="C13" s="16"/>
+    </row>
+    <row r="14" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="35">
         <v>41567</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="18"/>
-    </row>
-    <row r="15" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A15" s="37">
+      <c r="C14" s="16"/>
+    </row>
+    <row r="15" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="35">
         <v>41568</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="18"/>
-    </row>
-    <row r="16" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A16" s="37">
+      <c r="C15" s="16"/>
+    </row>
+    <row r="16" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="35">
         <v>41569</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="18"/>
-    </row>
-    <row r="17" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A17" s="37">
+      <c r="C16" s="16"/>
+    </row>
+    <row r="17" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="35">
         <v>41570</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="18"/>
-    </row>
-    <row r="18" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A18" s="37">
+      <c r="C17" s="16"/>
+    </row>
+    <row r="18" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="35">
         <v>41571</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="18"/>
-    </row>
-    <row r="19" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A19" s="37">
+      <c r="C18" s="16"/>
+    </row>
+    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="35">
         <v>41572</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="18"/>
-    </row>
-    <row r="20" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A20" s="37">
+      <c r="C19" s="16"/>
+    </row>
+    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="35">
         <v>41573</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A21" s="37">
+    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="35">
         <v>41574</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" ht="20.1" customHeight="1"/>
-    <row r="23" ht="20.1" customHeight="1"/>
-    <row r="24" ht="20.1" customHeight="1"/>
-    <row r="25" ht="20.1" customHeight="1"/>
-    <row r="26" ht="20.1" customHeight="1"/>
-    <row r="27" ht="20.1" customHeight="1"/>
-    <row r="28" ht="20.1" customHeight="1"/>
-    <row r="29" ht="20.1" customHeight="1"/>
-    <row r="30" ht="20.1" customHeight="1"/>
-    <row r="31" ht="20.1" customHeight="1"/>
-    <row r="32" ht="20.1" customHeight="1"/>
-    <row r="33" ht="20.1" customHeight="1"/>
-    <row r="34" ht="20.1" customHeight="1"/>
-    <row r="35" ht="20.1" customHeight="1"/>
+    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="35">
+        <v>41575</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="35">
+        <v>41576</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="35">
+        <v>41577</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="35">
+        <v>41578</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="20.100000000000001" customHeight="1"/>
+    <row r="27" spans="1:3" ht="20.100000000000001" customHeight="1"/>
+    <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1"/>
+    <row r="29" spans="1:3" ht="20.100000000000001" customHeight="1"/>
+    <row r="30" spans="1:3" ht="20.100000000000001" customHeight="1"/>
+    <row r="31" spans="1:3" ht="20.100000000000001" customHeight="1"/>
+    <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1"/>
+    <row r="33" ht="20.100000000000001" customHeight="1"/>
+    <row r="34" ht="20.100000000000001" customHeight="1"/>
+    <row r="35" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.25" style="8" customWidth="1"/>
     <col min="2" max="2" width="80" customWidth="1"/>
@@ -1476,7 +1499,7 @@
     <col min="5" max="5" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="42" customHeight="1" spans="1:3">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="42" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1487,90 +1510,90 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A2" s="10">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="55">
         <v>41567</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="56"/>
+      <c r="B3" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="13"/>
-    </row>
-    <row r="4" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A4" s="10">
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="55">
         <v>41568</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="15"/>
-    </row>
-    <row r="5" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12" t="s">
+      <c r="C4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="56"/>
+      <c r="B5" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="13"/>
-    </row>
-    <row r="6" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A6" s="10">
+      <c r="C5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="55">
         <v>41569</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="15"/>
-    </row>
-    <row r="7" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12" t="s">
+      <c r="C6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="56"/>
+      <c r="B7" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="13"/>
-    </row>
-    <row r="8" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A8" s="16">
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="1:5" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="57">
         <v>41570</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" s="5" customFormat="1" ht="21" customHeight="1" spans="1:3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="19" t="s">
+    <row r="9" spans="1:5" s="5" customFormat="1" ht="21" customHeight="1">
+      <c r="A9" s="57"/>
+      <c r="B9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" s="6" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="20" t="s">
+    <row r="10" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="57"/>
+      <c r="B10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A11" s="10">
+    <row r="11" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="55">
         <v>41571</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -1580,163 +1603,164 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A12" s="11"/>
-      <c r="B12" s="13" t="s">
+    <row r="12" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="56"/>
+      <c r="B12" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A13" s="10">
+    <row r="13" spans="1:5" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="55">
         <v>41572</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-    </row>
-    <row r="14" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A14" s="10"/>
-      <c r="B14" s="22" t="s">
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:5" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="55"/>
+      <c r="B14" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-    </row>
-    <row r="15" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A15" s="11"/>
-      <c r="B15" s="25" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:5" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="56"/>
+      <c r="B15" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-    </row>
-    <row r="16" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A16" s="10">
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+    </row>
+    <row r="16" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="55">
         <v>41573</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="15" t="s">
+    <row r="17" spans="1:4" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="55"/>
+      <c r="B17" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="13" t="s">
+    <row r="18" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="56"/>
+      <c r="B18" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A19" s="27"/>
-      <c r="B19" s="28" t="s">
+    <row r="19" spans="1:4" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="27" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
+    <row r="20" spans="1:4" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="10">
         <v>41575</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="21" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A21" s="31"/>
-      <c r="B21" s="32" t="s">
+    <row r="21" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="29"/>
+      <c r="B21" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A22" s="34"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-    </row>
-    <row r="23" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A23" s="34"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
-    </row>
-    <row r="24" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A24" s="34"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-    </row>
-    <row r="25" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A25" s="34"/>
-      <c r="B25" s="17" t="s">
+    <row r="22" spans="1:4" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="32"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+    </row>
+    <row r="23" spans="1:4" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="32"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+    </row>
+    <row r="24" spans="1:4" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="32"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+    </row>
+    <row r="25" spans="1:4" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="32"/>
+      <c r="B25" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="18"/>
-    </row>
-    <row r="26" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A26" s="34"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="18"/>
-    </row>
-    <row r="27" ht="20.1" customHeight="1" spans="2:3">
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
-    </row>
-    <row r="28" ht="20.1" customHeight="1"/>
+      <c r="C25" s="16"/>
+    </row>
+    <row r="26" spans="1:4" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="32"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
+    </row>
+    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+    </row>
+    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/日志.xlsx
+++ b/日志.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9915" activeTab="1"/>
+    <workbookView windowWidth="23880" windowHeight="9920"/>
   </bookViews>
   <sheets>
     <sheet name="执行计划" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
   <si>
     <t>公平价网络推广团队2013年执行计划</t>
   </si>
@@ -142,6 +142,77 @@
     <t xml:space="preserve">李媛琪 </t>
   </si>
   <si>
+    <t>百度百科词条、百度文库、百度知道</t>
+  </si>
+  <si>
+    <t>每天每人至少成功1个词条或者
+两天一个文库。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">耿静 李媛琪 沈金璐 </t>
+  </si>
+  <si>
+    <t>上午</t>
+  </si>
+  <si>
+    <t>11月</t>
+  </si>
+  <si>
+    <t>公平价QQ管理</t>
+  </si>
+  <si>
+    <t>长期</t>
+  </si>
+  <si>
+    <t>全天</t>
+  </si>
+  <si>
+    <t>西祠论坛</t>
+  </si>
+  <si>
+    <t>每日更新本版和去其他讨论版发帖类容不限
+添加公平价链接是标准</t>
+  </si>
+  <si>
+    <t>下午</t>
+  </si>
+  <si>
+    <t>增加关注度，可发时尚类、趣味型的内容，自拟</t>
+  </si>
+  <si>
+    <t>下午整理</t>
+  </si>
+  <si>
+    <t>微博</t>
+  </si>
+  <si>
+    <t>沈金璐 李媛琪协助</t>
+  </si>
+  <si>
+    <t>其他论坛</t>
+  </si>
+  <si>
+    <t>周一至周五下午4点发周六上午9点发</t>
+  </si>
+  <si>
+    <t>每周一、三、六</t>
+  </si>
+  <si>
+    <t>58同城 百姓网</t>
+  </si>
+  <si>
+    <t>每天</t>
+  </si>
+  <si>
+    <t>其他免费发布</t>
+  </si>
+  <si>
+    <t>李媛琪沈金璐 耿静协助</t>
+  </si>
+  <si>
+    <t>每周二、四</t>
+  </si>
+  <si>
     <t>工  作  日  志</t>
   </si>
   <si>
@@ -211,6 +282,18 @@
     <t>休息</t>
   </si>
   <si>
+    <t>1、管理微博、微信</t>
+  </si>
+  <si>
+    <t>2、管理微博、微信</t>
+  </si>
+  <si>
+    <t>3、管理微博、微信</t>
+  </si>
+  <si>
+    <t>4、管理微博、微信</t>
+  </si>
+  <si>
     <t>整理文档上传百度文库 百度百科</t>
   </si>
   <si>
@@ -264,31 +347,29 @@
   <si>
     <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>1、管理微博、微信</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、管理微博、微信</t>
-  </si>
-  <si>
-    <t>3、管理微博、微信</t>
-  </si>
-  <si>
-    <t>4、管理微博、微信</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
   <fonts count="16">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -390,12 +471,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -405,7 +480,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -477,18 +552,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -510,10 +629,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -527,6 +649,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -585,7 +710,7 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -594,73 +719,95 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -959,7 +1106,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -994,232 +1140,453 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="69.125" customWidth="1"/>
-    <col min="3" max="3" width="22.25" customWidth="1"/>
+    <col min="3" max="3" width="50.75" customWidth="1"/>
     <col min="4" max="4" width="48.625" customWidth="1"/>
     <col min="5" max="5" width="23.625" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
     <col min="8" max="8" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="44.25" customHeight="1">
-      <c r="A1" s="50" t="s">
+    <row r="1" ht="44.25" customHeight="1" spans="1:5">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-    </row>
-    <row r="2" spans="1:8" s="36" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+    </row>
+    <row r="2" s="38" customFormat="1" ht="29.25" customHeight="1" spans="1:8">
+      <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="43" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="53" t="s">
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
+    </row>
+    <row r="3" s="5" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A3" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="47">
         <v>41556</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="48" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" s="5" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A4" s="53"/>
-      <c r="B4" s="43" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="49"/>
+    </row>
+    <row r="4" s="5" customFormat="1" ht="39.95" customHeight="1" spans="1:8">
+      <c r="A4" s="46"/>
+      <c r="B4" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="47">
         <v>41559</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="51" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" s="5" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="43" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="49"/>
+    </row>
+    <row r="5" s="5" customFormat="1" ht="39.95" customHeight="1" spans="1:8">
+      <c r="A5" s="46"/>
+      <c r="B5" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="47">
         <v>41561</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" s="5" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A6" s="53"/>
-      <c r="B6" s="43" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="49"/>
+    </row>
+    <row r="6" s="5" customFormat="1" ht="39.95" customHeight="1" spans="1:8">
+      <c r="A6" s="46"/>
+      <c r="B6" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="47">
         <v>41563</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" s="37" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="53"/>
-      <c r="B7" s="37" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="49"/>
+    </row>
+    <row r="7" s="39" customFormat="1" ht="20.1" customHeight="1" spans="1:8">
+      <c r="A7" s="46"/>
+      <c r="B7" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="53">
         <v>41567</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="53"/>
-      <c r="B8" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="54"/>
+    </row>
+    <row r="8" ht="20.1" customHeight="1" spans="1:8">
+      <c r="A8" s="46"/>
+      <c r="B8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="53">
         <v>41568</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="53"/>
-      <c r="B9" t="s">
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="55"/>
+    </row>
+    <row r="9" ht="20.1" customHeight="1" spans="1:8">
+      <c r="A9" s="46"/>
+      <c r="B9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="47">
         <v>41569</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="53"/>
-      <c r="B10" t="s">
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="55"/>
+    </row>
+    <row r="10" ht="20.1" customHeight="1" spans="1:8">
+      <c r="A10" s="46"/>
+      <c r="B10" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="54"/>
-    </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1">
-      <c r="A11" s="53"/>
-      <c r="B11" s="46" t="s">
+      <c r="C10" s="47"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="55"/>
+    </row>
+    <row r="11" ht="30" customHeight="1" spans="1:8">
+      <c r="A11" s="46"/>
+      <c r="B11" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="53"/>
-      <c r="B12" s="17" t="s">
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="55"/>
+    </row>
+    <row r="12" ht="20.1" customHeight="1" spans="1:8">
+      <c r="A12" s="46"/>
+      <c r="B12" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="53"/>
-      <c r="B13" s="15" t="s">
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="55"/>
+    </row>
+    <row r="13" ht="20.1" customHeight="1" spans="1:8">
+      <c r="A13" s="46"/>
+      <c r="B13" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="51" t="s">
+      <c r="F13" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-    </row>
-    <row r="14" spans="1:8" ht="57" customHeight="1">
-      <c r="A14" s="53"/>
-      <c r="B14" s="16" t="s">
+      <c r="G13" s="59"/>
+      <c r="H13" s="60"/>
+    </row>
+    <row r="14" ht="57" customHeight="1" spans="1:8">
+      <c r="A14" s="46"/>
+      <c r="B14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="53">
         <v>41575</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="30" t="s">
         <v>25</v>
       </c>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="55"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="53"/>
-      <c r="B15" t="s">
+      <c r="A15" s="46"/>
+      <c r="B15" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="53">
         <v>41575</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="54">
-      <c r="A16" s="53"/>
-      <c r="B16" s="16" t="s">
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="55"/>
+    </row>
+    <row r="16" ht="54" spans="1:8">
+      <c r="A16" s="46"/>
+      <c r="B16" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="53">
         <v>41575</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="30" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="53"/>
-      <c r="B17" t="s">
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="55"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="64"/>
+      <c r="B17" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="45">
+      <c r="C17" s="66">
         <v>41577</v>
       </c>
-      <c r="E17" t="s">
+      <c r="D17" s="65"/>
+      <c r="E17" s="65" t="s">
         <v>33</v>
       </c>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="67"/>
+    </row>
+    <row r="18" ht="27" spans="1:8">
+      <c r="A18" s="46"/>
+      <c r="B18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" ht="27" spans="1:6">
+      <c r="A20" s="5"/>
+      <c r="B20" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="5"/>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="5"/>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="5"/>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="5"/>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="5"/>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="5"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="5"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="5"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="5"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="5"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="5"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="5"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="5"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="5"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="5"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="5"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="A3:A17"/>
+    <mergeCell ref="A19:A37"/>
     <mergeCell ref="C9:C10"/>
   </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D15" r:id="rId1"/>
-    <hyperlink ref="D14" r:id="rId2" tooltip="http://www.xici.net/d195200793.htm_x000a_http://www.xici.net/d195200029.htm_x000a_http://www.xici.net/d195173957.htm"/>
-    <hyperlink ref="D16" r:id="rId3"/>
+    <hyperlink ref="D16" r:id="rId1" display="http://nanjing.baixing.com/cheliangqiugou/a287879099.html&#10;http://nj.58.com/daibanguohu/15736741762695x.shtml"/>
+    <hyperlink ref="D14" r:id="rId2" display="http://www.xici.net/d195200793.htm&#10;http://www.xici.net/d195200029.htm&#10;http://www.xici.net/d195173957.htm" tooltip="http://www.xici.net/d195200793.htm_x000a_http://www.xici.net/d195200029.htm_x000a_http://www.xici.net/d195173957.htm"/>
+    <hyperlink ref="D15" r:id="rId3" display="http://baike.baidu.com/view/3594775.htm"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1228,14 +1595,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="10.5" style="8" customWidth="1"/>
     <col min="2" max="2" width="73.5" customWidth="1"/>
@@ -1244,253 +1612,253 @@
     <col min="5" max="5" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="42" customHeight="1">
+    <row r="1" s="1" customFormat="1" ht="42" customHeight="1" spans="1:3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="33" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="34">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" s="35" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A2" s="36">
         <v>41555</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="35">
+      <c r="B2" s="35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A3" s="37">
         <v>41556</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="16"/>
-    </row>
-    <row r="4" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="35">
+      <c r="B3" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="18"/>
+    </row>
+    <row r="4" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A4" s="37">
         <v>41557</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="16"/>
-    </row>
-    <row r="5" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="35">
+      <c r="B4" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="18"/>
+    </row>
+    <row r="5" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A5" s="37">
         <v>41558</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="16"/>
-    </row>
-    <row r="6" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="35">
+      <c r="B5" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="18"/>
+    </row>
+    <row r="6" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A6" s="37">
         <v>41559</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="16"/>
-    </row>
-    <row r="7" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="35">
+      <c r="B6" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="18"/>
+    </row>
+    <row r="7" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A7" s="37">
         <v>41560</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="16"/>
-    </row>
-    <row r="8" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="35">
+      <c r="B7" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="18"/>
+    </row>
+    <row r="8" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A8" s="37">
         <v>41561</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="16"/>
-    </row>
-    <row r="9" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="35">
+      <c r="B8" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="18"/>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A9" s="37">
         <v>41562</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="16"/>
-    </row>
-    <row r="10" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="35">
+      <c r="B9" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="18"/>
+    </row>
+    <row r="10" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A10" s="37">
         <v>41563</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="16"/>
-    </row>
-    <row r="11" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="35">
+      <c r="B10" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="18"/>
+    </row>
+    <row r="11" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A11" s="37">
         <v>41564</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="16"/>
-    </row>
-    <row r="12" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="35">
+      <c r="B11" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="18"/>
+    </row>
+    <row r="12" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A12" s="37">
         <v>41565</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="16"/>
-    </row>
-    <row r="13" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="35">
+      <c r="B12" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="18"/>
+    </row>
+    <row r="13" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A13" s="37">
         <v>41566</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="16"/>
-    </row>
-    <row r="14" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="35">
+      <c r="B13" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="18"/>
+    </row>
+    <row r="14" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A14" s="37">
         <v>41567</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="16"/>
-    </row>
-    <row r="15" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="35">
+      <c r="B14" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="18"/>
+    </row>
+    <row r="15" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A15" s="37">
         <v>41568</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="16"/>
-    </row>
-    <row r="16" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="35">
+      <c r="B15" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="18"/>
+    </row>
+    <row r="16" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A16" s="37">
         <v>41569</v>
       </c>
-      <c r="B16" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="16"/>
-    </row>
-    <row r="17" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="35">
+      <c r="B16" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="18"/>
+    </row>
+    <row r="17" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A17" s="37">
         <v>41570</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="16"/>
-    </row>
-    <row r="18" spans="1:3" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="35">
+      <c r="B17" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="18"/>
+    </row>
+    <row r="18" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A18" s="37">
         <v>41571</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="16"/>
-    </row>
-    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="35">
+      <c r="B18" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="18"/>
+    </row>
+    <row r="19" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A19" s="37">
         <v>41572</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="16"/>
-    </row>
-    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="35">
+      <c r="B19" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="18"/>
+    </row>
+    <row r="20" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A20" s="37">
         <v>41573</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="35">
+      <c r="B20" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A21" s="37">
         <v>41574</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="35">
+      <c r="B21" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A22" s="37">
         <v>41575</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="35">
+      <c r="B22" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A23" s="37">
         <v>41576</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="35">
+      <c r="B23" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A24" s="37">
         <v>41577</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="35">
+      <c r="B24" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A25" s="37">
         <v>41578</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="20.100000000000001" customHeight="1"/>
-    <row r="27" spans="1:3" ht="20.100000000000001" customHeight="1"/>
-    <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1"/>
-    <row r="29" spans="1:3" ht="20.100000000000001" customHeight="1"/>
-    <row r="30" spans="1:3" ht="20.100000000000001" customHeight="1"/>
-    <row r="31" spans="1:3" ht="20.100000000000001" customHeight="1"/>
-    <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1"/>
-    <row r="33" ht="20.100000000000001" customHeight="1"/>
-    <row r="34" ht="20.100000000000001" customHeight="1"/>
-    <row r="35" ht="20.100000000000001" customHeight="1"/>
+      <c r="B25" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" ht="20.1" customHeight="1"/>
+    <row r="27" ht="20.1" customHeight="1"/>
+    <row r="28" ht="20.1" customHeight="1"/>
+    <row r="29" ht="20.1" customHeight="1"/>
+    <row r="30" ht="20.1" customHeight="1"/>
+    <row r="31" ht="20.1" customHeight="1"/>
+    <row r="32" ht="20.1" customHeight="1"/>
+    <row r="33" ht="20.1" customHeight="1"/>
+    <row r="34" ht="20.1" customHeight="1"/>
+    <row r="35" ht="20.1" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="13.25" style="8" customWidth="1"/>
     <col min="2" max="2" width="80" customWidth="1"/>
@@ -1499,268 +1867,267 @@
     <col min="5" max="5" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="42" customHeight="1">
+    <row r="1" s="1" customFormat="1" ht="42" customHeight="1" spans="1:3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="55">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A2" s="10">
         <v>41567</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="56"/>
-      <c r="B3" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="12"/>
-    </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="55">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="13"/>
+    </row>
+    <row r="4" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A4" s="10">
         <v>41568</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="14"/>
-    </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="56"/>
-      <c r="B5" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="12"/>
-    </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="55">
+      <c r="B4" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="15"/>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="13"/>
+    </row>
+    <row r="6" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A6" s="10">
         <v>41569</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="14"/>
-    </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="56"/>
-      <c r="B7" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="12"/>
-    </row>
-    <row r="8" spans="1:5" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="57">
+      <c r="B6" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="15"/>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A8" s="16">
         <v>41570</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="5" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="57"/>
-      <c r="B9" s="17" t="s">
+    <row r="9" s="5" customFormat="1" ht="21" customHeight="1" spans="1:3">
+      <c r="A9" s="16"/>
+      <c r="B9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="57"/>
-      <c r="B10" s="18" t="s">
+    <row r="10" s="6" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A10" s="16"/>
+      <c r="B10" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="55">
+    <row r="11" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A11" s="10">
         <v>41571</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="14" t="s">
+      <c r="B11" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="56"/>
-      <c r="B12" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A12" s="11"/>
+      <c r="B12" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="55">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A13" s="10">
         <v>41572</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="21" t="s">
+      <c r="B13" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-    </row>
-    <row r="14" spans="1:5" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="55"/>
-      <c r="B14" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="21" t="s">
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+    </row>
+    <row r="14" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A14" s="10"/>
+      <c r="B14" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-    </row>
-    <row r="15" spans="1:5" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="56"/>
-      <c r="B15" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="12" t="s">
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+    </row>
+    <row r="15" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A15" s="11"/>
+      <c r="B15" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-    </row>
-    <row r="16" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="55">
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+    </row>
+    <row r="16" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A16" s="10">
         <v>41573</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="14" t="s">
+      <c r="B16" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="55"/>
-      <c r="B17" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="14" t="s">
+    <row r="17" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="56"/>
-      <c r="B18" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="12" t="s">
+    <row r="18" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="27" t="s">
+    <row r="19" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A19" s="27"/>
+      <c r="B19" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="20" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
       <c r="A20" s="10">
         <v>41575</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="23" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30" t="s">
+    <row r="21" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A21" s="31"/>
+      <c r="B21" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="32"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-    </row>
-    <row r="23" spans="1:4" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="32"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-    </row>
-    <row r="24" spans="1:4" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="32"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
-    </row>
-    <row r="25" spans="1:4" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="32"/>
-      <c r="B25" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="16"/>
-    </row>
-    <row r="26" spans="1:4" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="32"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-    </row>
-    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-    </row>
-    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1"/>
+    <row r="22" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A22" s="34"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+    </row>
+    <row r="23" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A23" s="34"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+    </row>
+    <row r="24" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A24" s="34"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+    </row>
+    <row r="25" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A25" s="34"/>
+      <c r="B25" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="18"/>
+    </row>
+    <row r="26" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A26" s="34"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
+    </row>
+    <row r="27" ht="20.1" customHeight="1" spans="2:3">
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
+    </row>
+    <row r="28" ht="20.1" customHeight="1"/>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
   </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/日志.xlsx
+++ b/日志.xlsx
@@ -145,8 +145,7 @@
     <t>百度百科词条、百度文库、百度知道</t>
   </si>
   <si>
-    <t>每天每人至少成功1个词条或者
-两天一个文库。</t>
+    <t>每日上午集体做百度</t>
   </si>
   <si>
     <t xml:space="preserve">耿静 李媛琪 沈金璐 </t>
@@ -161,38 +160,34 @@
     <t>公平价QQ管理</t>
   </si>
   <si>
-    <t>长期</t>
+    <t>全天在线</t>
   </si>
   <si>
     <t>全天</t>
   </si>
   <si>
-    <t>西祠论坛</t>
-  </si>
-  <si>
-    <t>每日更新本版和去其他讨论版发帖类容不限
-添加公平价链接是标准</t>
+    <t>西祠论坛关于高尔夫6的估值及市场分析保值率</t>
+  </si>
+  <si>
+    <t>相关内容5天为一个周期</t>
   </si>
   <si>
     <t>下午</t>
   </si>
   <si>
-    <t>增加关注度，可发时尚类、趣味型的内容，自拟</t>
+    <t>微信关于高尔夫6的估值及市场分析保值率</t>
   </si>
   <si>
     <t>下午整理</t>
   </si>
   <si>
-    <t>微博</t>
+    <t>微博关于高尔夫6的估值及市场分析保值率</t>
   </si>
   <si>
     <t>沈金璐 李媛琪协助</t>
   </si>
   <si>
-    <t>其他论坛</t>
-  </si>
-  <si>
-    <t>周一至周五下午4点发周六上午9点发</t>
+    <t>其他论坛关于高尔夫6的估值及市场分析保值率</t>
   </si>
   <si>
     <t>每周一、三、六</t>
@@ -205,6 +200,9 @@
   </si>
   <si>
     <t>其他免费发布</t>
+  </si>
+  <si>
+    <t>推广组集体</t>
   </si>
   <si>
     <t>李媛琪沈金璐 耿静协助</t>
@@ -356,20 +354,15 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -480,7 +473,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -552,62 +545,33 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -629,7 +593,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -710,46 +674,46 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -758,44 +722,40 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1144,8 +1104,8 @@
   <sheetPr/>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1406,26 +1366,26 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="64"/>
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="66">
+      <c r="C17" s="65">
         <v>41577</v>
       </c>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65" t="s">
+      <c r="D17" s="32"/>
+      <c r="E17" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="67"/>
-    </row>
-    <row r="18" ht="27" spans="1:8">
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="66"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="46"/>
       <c r="B18" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="68" t="s">
+      <c r="C18" s="67" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="30"/>
@@ -1445,7 +1405,7 @@
       <c r="B19" t="s">
         <v>39</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="67" t="s">
         <v>40</v>
       </c>
       <c r="E19" t="s">
@@ -1455,12 +1415,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" ht="27" spans="1:6">
+    <row r="20" spans="1:6">
       <c r="A20" s="5"/>
       <c r="B20" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="69" t="s">
+      <c r="C20" s="67" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="30" t="s">
@@ -1473,10 +1433,10 @@
     <row r="21" spans="1:6">
       <c r="A21" s="5"/>
       <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" t="s">
         <v>45</v>
+      </c>
+      <c r="C21" s="67" t="s">
+        <v>43</v>
       </c>
       <c r="E21" t="s">
         <v>19</v>
@@ -1490,8 +1450,8 @@
       <c r="B22" t="s">
         <v>47</v>
       </c>
-      <c r="C22" t="s">
-        <v>45</v>
+      <c r="C22" s="67" t="s">
+        <v>43</v>
       </c>
       <c r="E22" t="s">
         <v>48</v>
@@ -1505,31 +1465,37 @@
       <c r="B23" t="s">
         <v>49</v>
       </c>
-      <c r="C23" t="s">
-        <v>50</v>
+      <c r="C23" s="67" t="s">
+        <v>43</v>
       </c>
       <c r="E23" s="30" t="s">
         <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="5"/>
       <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="67" t="s">
         <v>52</v>
       </c>
       <c r="E24" t="s">
         <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="5"/>
       <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
         <v>54</v>
       </c>
       <c r="E25" t="s">
@@ -1584,9 +1550,9 @@
     <mergeCell ref="C9:C10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D16" r:id="rId1" display="http://nanjing.baixing.com/cheliangqiugou/a287879099.html&#10;http://nj.58.com/daibanguohu/15736741762695x.shtml"/>
+    <hyperlink ref="D15" r:id="rId1" display="http://baike.baidu.com/view/3594775.htm"/>
     <hyperlink ref="D14" r:id="rId2" display="http://www.xici.net/d195200793.htm&#10;http://www.xici.net/d195200029.htm&#10;http://www.xici.net/d195173957.htm" tooltip="http://www.xici.net/d195200793.htm_x000a_http://www.xici.net/d195200029.htm_x000a_http://www.xici.net/d195173957.htm"/>
-    <hyperlink ref="D15" r:id="rId3" display="http://baike.baidu.com/view/3594775.htm"/>
+    <hyperlink ref="D16" r:id="rId3" display="http://nanjing.baixing.com/cheliangqiugou/a287879099.html&#10;http://nj.58.com/daibanguohu/15736741762695x.shtml"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/日志.xlsx
+++ b/日志.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23880" windowHeight="9920"/>
+    <workbookView windowWidth="23880" windowHeight="9920" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="执行计划" sheetId="1" r:id="rId1"/>
     <sheet name="李媛琪" sheetId="2" r:id="rId2"/>
     <sheet name="耿静" sheetId="3" r:id="rId3"/>
+    <sheet name="沈金璐" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
   <si>
     <t>公平价网络推广团队2013年执行计划</t>
   </si>
@@ -142,73 +143,40 @@
     <t xml:space="preserve">李媛琪 </t>
   </si>
   <si>
-    <t>百度百科词条、百度文库、百度知道</t>
-  </si>
-  <si>
-    <t>每日上午集体做百度</t>
-  </si>
-  <si>
-    <t xml:space="preserve">耿静 李媛琪 沈金璐 </t>
-  </si>
-  <si>
-    <t>上午</t>
+    <t>1.公平价官方微信，内容估值相关，每日发布</t>
+  </si>
+  <si>
+    <t>每日下班前</t>
   </si>
   <si>
     <t>11月</t>
   </si>
   <si>
-    <t>公平价QQ管理</t>
-  </si>
-  <si>
-    <t>全天在线</t>
-  </si>
-  <si>
-    <t>全天</t>
-  </si>
-  <si>
-    <t>西祠论坛关于高尔夫6的估值及市场分析保值率</t>
-  </si>
-  <si>
-    <t>相关内容5天为一个周期</t>
-  </si>
-  <si>
-    <t>下午</t>
-  </si>
-  <si>
-    <t>微信关于高尔夫6的估值及市场分析保值率</t>
-  </si>
-  <si>
-    <t>下午整理</t>
-  </si>
-  <si>
-    <t>微博关于高尔夫6的估值及市场分析保值率</t>
-  </si>
-  <si>
-    <t>沈金璐 李媛琪协助</t>
-  </si>
-  <si>
-    <t>其他论坛关于高尔夫6的估值及市场分析保值率</t>
-  </si>
-  <si>
-    <t>每周一、三、六</t>
-  </si>
-  <si>
-    <t>58同城 百姓网</t>
-  </si>
-  <si>
-    <t>每天</t>
-  </si>
-  <si>
-    <t>其他免费发布</t>
-  </si>
-  <si>
-    <t>推广组集体</t>
-  </si>
-  <si>
-    <t>李媛琪沈金璐 耿静协助</t>
-  </si>
-  <si>
-    <t>每周二、四</t>
+    <t>2.公平价官方微博，新浪和腾讯等，内容估值相关，每日发布</t>
+  </si>
+  <si>
+    <t>沈金璐</t>
+  </si>
+  <si>
+    <t>3.百度百科、文库等词条整理</t>
+  </si>
+  <si>
+    <t>全体</t>
+  </si>
+  <si>
+    <t>4.西祠论坛，内容以小号发估值跟帖，加链接，三天一篇</t>
+  </si>
+  <si>
+    <t>周三周六</t>
+  </si>
+  <si>
+    <t>5.免费广告发布，58同城、百姓网</t>
+  </si>
+  <si>
+    <t>6.线下信息反馈讨论方案</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 每周一会议</t>
   </si>
   <si>
     <t>工  作  日  志</t>
@@ -569,7 +537,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -755,6 +723,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1104,8 +1075,8 @@
   <sheetPr/>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1113,7 +1084,7 @@
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="69.125" customWidth="1"/>
     <col min="3" max="3" width="50.75" customWidth="1"/>
-    <col min="4" max="4" width="48.625" customWidth="1"/>
+    <col min="4" max="4" width="48.625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="23.625" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
     <col min="8" max="8" width="20.125" customWidth="1"/>
@@ -1390,120 +1361,81 @@
       </c>
       <c r="D18" s="30"/>
       <c r="E18" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>37</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F18" s="30"/>
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="5"/>
       <c r="B20" s="18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C20" s="67" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="5"/>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C21" s="67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="5"/>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C22" s="67" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="5"/>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C23" s="67" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="5"/>
-      <c r="B24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="B24"/>
+      <c r="C24" s="68"/>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" s="5"/>
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="5"/>
@@ -1550,9 +1482,9 @@
     <mergeCell ref="C9:C10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D15" r:id="rId1" display="http://baike.baidu.com/view/3594775.htm"/>
+    <hyperlink ref="D16" r:id="rId1" display="http://nanjing.baixing.com/cheliangqiugou/a287879099.html&#10;http://nj.58.com/daibanguohu/15736741762695x.shtml"/>
     <hyperlink ref="D14" r:id="rId2" display="http://www.xici.net/d195200793.htm&#10;http://www.xici.net/d195200029.htm&#10;http://www.xici.net/d195173957.htm" tooltip="http://www.xici.net/d195200793.htm_x000a_http://www.xici.net/d195200029.htm_x000a_http://www.xici.net/d195173957.htm"/>
-    <hyperlink ref="D16" r:id="rId3" display="http://nanjing.baixing.com/cheliangqiugou/a287879099.html&#10;http://nj.58.com/daibanguohu/15736741762695x.shtml"/>
+    <hyperlink ref="D15" r:id="rId3" display="http://baike.baidu.com/view/3594775.htm"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1583,10 +1515,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" s="35" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
@@ -1594,7 +1526,7 @@
         <v>41555</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
@@ -1602,7 +1534,7 @@
         <v>41556</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C3" s="18"/>
     </row>
@@ -1611,7 +1543,7 @@
         <v>41557</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C4" s="18"/>
     </row>
@@ -1620,7 +1552,7 @@
         <v>41558</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C5" s="18"/>
     </row>
@@ -1629,7 +1561,7 @@
         <v>41559</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C6" s="18"/>
     </row>
@@ -1638,7 +1570,7 @@
         <v>41560</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C7" s="18"/>
     </row>
@@ -1647,7 +1579,7 @@
         <v>41561</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C8" s="18"/>
     </row>
@@ -1656,7 +1588,7 @@
         <v>41562</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C9" s="18"/>
     </row>
@@ -1665,7 +1597,7 @@
         <v>41563</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C10" s="18"/>
     </row>
@@ -1674,7 +1606,7 @@
         <v>41564</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C11" s="18"/>
     </row>
@@ -1683,7 +1615,7 @@
         <v>41565</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C12" s="18"/>
     </row>
@@ -1692,7 +1624,7 @@
         <v>41566</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C13" s="18"/>
     </row>
@@ -1701,7 +1633,7 @@
         <v>41567</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C14" s="18"/>
     </row>
@@ -1710,7 +1642,7 @@
         <v>41568</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C15" s="18"/>
     </row>
@@ -1719,7 +1651,7 @@
         <v>41569</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C16" s="18"/>
     </row>
@@ -1728,7 +1660,7 @@
         <v>41570</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C17" s="18"/>
     </row>
@@ -1737,7 +1669,7 @@
         <v>41571</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C18" s="18"/>
     </row>
@@ -1746,7 +1678,7 @@
         <v>41572</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C19" s="18"/>
     </row>
@@ -1755,7 +1687,7 @@
         <v>41573</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" ht="20.1" customHeight="1" spans="1:2">
@@ -1763,7 +1695,7 @@
         <v>41574</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" ht="20.1" customHeight="1" spans="1:2">
@@ -1771,7 +1703,7 @@
         <v>41575</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" ht="20.1" customHeight="1" spans="1:2">
@@ -1779,7 +1711,7 @@
         <v>41576</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" ht="20.1" customHeight="1" spans="1:2">
@@ -1787,7 +1719,7 @@
         <v>41577</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" ht="20.1" customHeight="1" spans="1:2">
@@ -1795,7 +1727,7 @@
         <v>41578</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" ht="20.1" customHeight="1"/>
@@ -1821,7 +1753,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1838,10 +1770,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
@@ -1849,13 +1781,13 @@
         <v>41567</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C3" s="13"/>
     </row>
@@ -1864,14 +1796,14 @@
         <v>41568</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C4" s="15"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C5" s="13"/>
     </row>
@@ -1880,14 +1812,14 @@
         <v>41569</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C6" s="15"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A7" s="11"/>
       <c r="B7" s="12" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C7" s="13"/>
     </row>
@@ -1925,28 +1857,28 @@
         <v>41571</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
       <c r="A12" s="11"/>
       <c r="B12" s="13" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
@@ -1954,7 +1886,7 @@
         <v>41572</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>21</v>
@@ -1965,7 +1897,7 @@
     <row r="14" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A14" s="10"/>
       <c r="B14" s="22" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>21</v>
@@ -1976,7 +1908,7 @@
     <row r="15" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A15" s="11"/>
       <c r="B15" s="25" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>21</v>
@@ -1989,7 +1921,7 @@
         <v>41573</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>21</v>
@@ -1998,7 +1930,7 @@
     <row r="17" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A17" s="10"/>
       <c r="B17" s="15" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>21</v>
@@ -2007,7 +1939,7 @@
     <row r="18" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A18" s="11"/>
       <c r="B18" s="13" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>21</v>
@@ -2016,7 +1948,7 @@
     <row r="19" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
       <c r="A19" s="27"/>
       <c r="B19" s="28" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>21</v>
@@ -2069,7 +2001,7 @@
     <row r="25" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A25" s="34"/>
       <c r="B25" s="17" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C25" s="18"/>
     </row>
@@ -2097,4 +2029,21 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/日志.xlsx
+++ b/日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23880" windowHeight="9920" activeTab="3"/>
+    <workbookView windowWidth="23880" windowHeight="9920" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="执行计划" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
   <si>
     <t>公平价网络推广团队2013年执行计划</t>
   </si>
@@ -179,6 +179,12 @@
     <t xml:space="preserve"> 每周一会议</t>
   </si>
   <si>
+    <t>7.整理网络推广方案会议</t>
+  </si>
+  <si>
+    <t>周一</t>
+  </si>
+  <si>
     <t>工  作  日  志</t>
   </si>
   <si>
@@ -311,8 +317,19 @@
     <t>1.西祠汽车论坛发帖</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
+    <t>1.百度词条录入</t>
+  </si>
+  <si>
+    <t>2.会议整理网络推广</t>
+  </si>
+  <si>
+    <t>周三前</t>
+  </si>
+  <si>
+    <t>3.58和百姓网广告</t>
+  </si>
+  <si>
+    <t>4.西祠讨论版回帖及更换账号编辑新帖推荐公平价</t>
   </si>
 </sst>
 </file>
@@ -320,10 +337,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -537,7 +554,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -633,11 +650,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -725,9 +742,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1075,8 +1089,8 @@
   <sheetPr/>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1429,10 +1443,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:5">
       <c r="A24" s="5"/>
-      <c r="B24"/>
-      <c r="C24" s="68"/>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="5"/>
@@ -1482,9 +1503,9 @@
     <mergeCell ref="C9:C10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D16" r:id="rId1" display="http://nanjing.baixing.com/cheliangqiugou/a287879099.html&#10;http://nj.58.com/daibanguohu/15736741762695x.shtml"/>
+    <hyperlink ref="D15" r:id="rId1" display="http://baike.baidu.com/view/3594775.htm"/>
     <hyperlink ref="D14" r:id="rId2" display="http://www.xici.net/d195200793.htm&#10;http://www.xici.net/d195200029.htm&#10;http://www.xici.net/d195173957.htm" tooltip="http://www.xici.net/d195200793.htm_x000a_http://www.xici.net/d195200029.htm_x000a_http://www.xici.net/d195173957.htm"/>
-    <hyperlink ref="D15" r:id="rId3" display="http://baike.baidu.com/view/3594775.htm"/>
+    <hyperlink ref="D16" r:id="rId3" display="http://nanjing.baixing.com/cheliangqiugou/a287879099.html&#10;http://nj.58.com/daibanguohu/15736741762695x.shtml"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1515,18 +1536,18 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" s="35" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A2" s="36">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" s="36" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A2" s="35">
         <v>41555</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>48</v>
+      <c r="B2" s="36" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
@@ -1534,7 +1555,7 @@
         <v>41556</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C3" s="18"/>
     </row>
@@ -1543,7 +1564,7 @@
         <v>41557</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C4" s="18"/>
     </row>
@@ -1552,7 +1573,7 @@
         <v>41558</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C5" s="18"/>
     </row>
@@ -1561,7 +1582,7 @@
         <v>41559</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C6" s="18"/>
     </row>
@@ -1570,7 +1591,7 @@
         <v>41560</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7" s="18"/>
     </row>
@@ -1579,7 +1600,7 @@
         <v>41561</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C8" s="18"/>
     </row>
@@ -1588,7 +1609,7 @@
         <v>41562</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C9" s="18"/>
     </row>
@@ -1597,7 +1618,7 @@
         <v>41563</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C10" s="18"/>
     </row>
@@ -1606,7 +1627,7 @@
         <v>41564</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C11" s="18"/>
     </row>
@@ -1615,7 +1636,7 @@
         <v>41565</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C12" s="18"/>
     </row>
@@ -1624,7 +1645,7 @@
         <v>41566</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C13" s="18"/>
     </row>
@@ -1633,7 +1654,7 @@
         <v>41567</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C14" s="18"/>
     </row>
@@ -1642,7 +1663,7 @@
         <v>41568</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C15" s="18"/>
     </row>
@@ -1650,8 +1671,8 @@
       <c r="A16" s="37">
         <v>41569</v>
       </c>
-      <c r="B16" s="35" t="s">
-        <v>62</v>
+      <c r="B16" s="36" t="s">
+        <v>64</v>
       </c>
       <c r="C16" s="18"/>
     </row>
@@ -1660,7 +1681,7 @@
         <v>41570</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C17" s="18"/>
     </row>
@@ -1669,7 +1690,7 @@
         <v>41571</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C18" s="18"/>
     </row>
@@ -1678,7 +1699,7 @@
         <v>41572</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C19" s="18"/>
     </row>
@@ -1687,7 +1708,7 @@
         <v>41573</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" ht="20.1" customHeight="1" spans="1:2">
@@ -1695,7 +1716,7 @@
         <v>41574</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" ht="20.1" customHeight="1" spans="1:2">
@@ -1703,7 +1724,7 @@
         <v>41575</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" ht="20.1" customHeight="1" spans="1:2">
@@ -1711,7 +1732,7 @@
         <v>41576</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" ht="20.1" customHeight="1" spans="1:2">
@@ -1719,7 +1740,7 @@
         <v>41577</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" ht="20.1" customHeight="1" spans="1:2">
@@ -1727,7 +1748,7 @@
         <v>41578</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" ht="20.1" customHeight="1"/>
@@ -1752,8 +1773,8 @@
   <sheetPr/>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1770,10 +1791,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
@@ -1781,13 +1802,13 @@
         <v>41567</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C3" s="13"/>
     </row>
@@ -1796,14 +1817,14 @@
         <v>41568</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C4" s="15"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C5" s="13"/>
     </row>
@@ -1812,14 +1833,14 @@
         <v>41569</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" s="15"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A7" s="11"/>
       <c r="B7" s="12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C7" s="13"/>
     </row>
@@ -1857,28 +1878,28 @@
         <v>41571</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
       <c r="A12" s="11"/>
       <c r="B12" s="13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
@@ -1886,7 +1907,7 @@
         <v>41572</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>21</v>
@@ -1897,7 +1918,7 @@
     <row r="14" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A14" s="10"/>
       <c r="B14" s="22" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>21</v>
@@ -1908,7 +1929,7 @@
     <row r="15" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A15" s="11"/>
       <c r="B15" s="25" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>21</v>
@@ -1921,7 +1942,7 @@
         <v>41573</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>21</v>
@@ -1930,7 +1951,7 @@
     <row r="17" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A17" s="10"/>
       <c r="B17" s="15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>21</v>
@@ -1939,7 +1960,7 @@
     <row r="18" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A18" s="11"/>
       <c r="B18" s="13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>21</v>
@@ -1948,7 +1969,7 @@
     <row r="19" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
       <c r="A19" s="27"/>
       <c r="B19" s="28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>21</v>
@@ -1985,25 +2006,44 @@
     </row>
     <row r="22" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A22" s="34"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-    </row>
-    <row r="23" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="B22" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
       <c r="A23" s="34"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
+      <c r="B23" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="24" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A24" s="34"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
+      <c r="A24" s="35">
+        <v>41582</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="25" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A25" s="34"/>
       <c r="B25" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="18"/>
+        <v>95</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="26" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A26" s="34"/>
@@ -2036,7 +2076,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>

--- a/日志.xlsx
+++ b/日志.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
   <si>
     <t>公平价网络推广团队2013年执行计划</t>
   </si>
@@ -185,6 +185,9 @@
     <t>周一</t>
   </si>
   <si>
+    <t>8.QQ邮件群发推荐公平价策划方案</t>
+  </si>
+  <si>
     <t>工  作  日  志</t>
   </si>
   <si>
@@ -326,10 +329,19 @@
     <t>周三前</t>
   </si>
   <si>
+    <t>2013年11月1--4日</t>
+  </si>
+  <si>
     <t>3.58和百姓网广告</t>
   </si>
   <si>
     <t>4.西祠讨论版回帖及更换账号编辑新帖推荐公平价</t>
+  </si>
+  <si>
+    <t>5.QQ群邮件发送公平价</t>
+  </si>
+  <si>
+    <t>6.配合线下跑市场</t>
   </si>
 </sst>
 </file>
@@ -337,10 +349,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -1090,7 +1102,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1455,8 +1467,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:2">
       <c r="A25" s="5"/>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="5"/>
@@ -1536,10 +1551,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" s="36" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
@@ -1547,7 +1562,7 @@
         <v>41555</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
@@ -1555,7 +1570,7 @@
         <v>41556</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="18"/>
     </row>
@@ -1564,7 +1579,7 @@
         <v>41557</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4" s="18"/>
     </row>
@@ -1573,7 +1588,7 @@
         <v>41558</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" s="18"/>
     </row>
@@ -1582,7 +1597,7 @@
         <v>41559</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" s="18"/>
     </row>
@@ -1591,7 +1606,7 @@
         <v>41560</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" s="18"/>
     </row>
@@ -1600,7 +1615,7 @@
         <v>41561</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" s="18"/>
     </row>
@@ -1609,7 +1624,7 @@
         <v>41562</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9" s="18"/>
     </row>
@@ -1618,7 +1633,7 @@
         <v>41563</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" s="18"/>
     </row>
@@ -1627,7 +1642,7 @@
         <v>41564</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" s="18"/>
     </row>
@@ -1636,7 +1651,7 @@
         <v>41565</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" s="18"/>
     </row>
@@ -1645,7 +1660,7 @@
         <v>41566</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C13" s="18"/>
     </row>
@@ -1654,7 +1669,7 @@
         <v>41567</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C14" s="18"/>
     </row>
@@ -1663,7 +1678,7 @@
         <v>41568</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C15" s="18"/>
     </row>
@@ -1672,7 +1687,7 @@
         <v>41569</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C16" s="18"/>
     </row>
@@ -1681,7 +1696,7 @@
         <v>41570</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C17" s="18"/>
     </row>
@@ -1690,7 +1705,7 @@
         <v>41571</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C18" s="18"/>
     </row>
@@ -1699,7 +1714,7 @@
         <v>41572</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C19" s="18"/>
     </row>
@@ -1708,7 +1723,7 @@
         <v>41573</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" ht="20.1" customHeight="1" spans="1:2">
@@ -1716,7 +1731,7 @@
         <v>41574</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" ht="20.1" customHeight="1" spans="1:2">
@@ -1724,7 +1739,7 @@
         <v>41575</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" ht="20.1" customHeight="1" spans="1:2">
@@ -1732,7 +1747,7 @@
         <v>41576</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" ht="20.1" customHeight="1" spans="1:2">
@@ -1740,7 +1755,7 @@
         <v>41577</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" ht="20.1" customHeight="1" spans="1:2">
@@ -1748,7 +1763,7 @@
         <v>41578</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" ht="20.1" customHeight="1"/>
@@ -1773,13 +1788,13 @@
   <sheetPr/>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="8" customWidth="1"/>
+    <col min="1" max="1" width="20" style="8" customWidth="1"/>
     <col min="2" max="2" width="80" customWidth="1"/>
     <col min="3" max="3" width="38.75" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
@@ -1791,10 +1806,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
@@ -1802,13 +1817,13 @@
         <v>41567</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" s="13"/>
     </row>
@@ -1817,14 +1832,14 @@
         <v>41568</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4" s="15"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C5" s="13"/>
     </row>
@@ -1833,14 +1848,14 @@
         <v>41569</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6" s="15"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A7" s="11"/>
       <c r="B7" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C7" s="13"/>
     </row>
@@ -1878,28 +1893,28 @@
         <v>41571</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
       <c r="A12" s="11"/>
       <c r="B12" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
@@ -1907,7 +1922,7 @@
         <v>41572</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>21</v>
@@ -1918,7 +1933,7 @@
     <row r="14" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A14" s="10"/>
       <c r="B14" s="22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>21</v>
@@ -1929,7 +1944,7 @@
     <row r="15" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A15" s="11"/>
       <c r="B15" s="25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>21</v>
@@ -1942,7 +1957,7 @@
         <v>41573</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>21</v>
@@ -1951,7 +1966,7 @@
     <row r="17" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A17" s="10"/>
       <c r="B17" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>21</v>
@@ -1960,7 +1975,7 @@
     <row r="18" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A18" s="11"/>
       <c r="B18" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>21</v>
@@ -1969,7 +1984,7 @@
     <row r="19" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
       <c r="A19" s="27"/>
       <c r="B19" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>21</v>
@@ -2007,7 +2022,7 @@
     <row r="22" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A22" s="34"/>
       <c r="B22" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>21</v>
@@ -2016,21 +2031,21 @@
     <row r="23" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
       <c r="A23" s="34"/>
       <c r="B23" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A24" s="35">
-        <v>41582</v>
+      <c r="A24" s="35" t="s">
+        <v>95</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C24" s="23" t="s">
         <v>21</v>
@@ -2039,7 +2054,7 @@
     <row r="25" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A25" s="34"/>
       <c r="B25" s="17" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>21</v>
@@ -2047,11 +2062,15 @@
     </row>
     <row r="26" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A26" s="34"/>
-      <c r="B26" s="17"/>
+      <c r="B26" s="17" t="s">
+        <v>98</v>
+      </c>
       <c r="C26" s="18"/>
     </row>
     <row r="27" ht="20.1" customHeight="1" spans="2:3">
-      <c r="B27" s="17"/>
+      <c r="B27" s="17" t="s">
+        <v>99</v>
+      </c>
       <c r="C27" s="18"/>
     </row>
     <row r="28" ht="20.1" customHeight="1"/>

--- a/日志.xlsx
+++ b/日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23880" windowHeight="9920" activeTab="2"/>
+    <workbookView windowWidth="23880" windowHeight="9920"/>
   </bookViews>
   <sheets>
     <sheet name="执行计划" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106">
   <si>
     <t>公平价网络推广团队2013年执行计划</t>
   </si>
@@ -188,6 +188,12 @@
     <t>8.QQ邮件群发推荐公平价策划方案</t>
   </si>
   <si>
+    <t>9.固定每日早上做两条百度词条</t>
+  </si>
+  <si>
+    <t>10.整理车型发布估值报告</t>
+  </si>
+  <si>
     <t>工  作  日  志</t>
   </si>
   <si>
@@ -342,6 +348,18 @@
   </si>
   <si>
     <t>6.配合线下跑市场</t>
+  </si>
+  <si>
+    <t>1.每日两条百度词条申请</t>
+  </si>
+  <si>
+    <t>2.广告发布</t>
+  </si>
+  <si>
+    <t>3.西祠论坛官方发布微信服务号广告</t>
+  </si>
+  <si>
+    <t>4.线下市场调研 （别克GL8）</t>
   </si>
 </sst>
 </file>
@@ -349,10 +367,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -470,7 +488,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -542,6 +560,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -566,7 +604,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -659,15 +697,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -702,9 +753,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1101,8 +1149,8 @@
   <sheetPr/>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1117,74 +1165,74 @@
   </cols>
   <sheetData>
     <row r="1" ht="44.25" customHeight="1" spans="1:5">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-    </row>
-    <row r="2" s="38" customFormat="1" ht="29.25" customHeight="1" spans="1:8">
-      <c r="A2" s="41" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+    </row>
+    <row r="2" s="45" customFormat="1" ht="29.25" customHeight="1" spans="1:8">
+      <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="3" s="5" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="53" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="54">
         <v>41556</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="55" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="49"/>
+      <c r="H3" s="34"/>
     </row>
     <row r="4" s="5" customFormat="1" ht="39.95" customHeight="1" spans="1:8">
-      <c r="A4" s="46"/>
-      <c r="B4" s="50" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="54">
         <v>41559</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="57" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="49"/>
+      <c r="H4" s="34"/>
     </row>
     <row r="5" s="5" customFormat="1" ht="39.95" customHeight="1" spans="1:8">
-      <c r="A5" s="46"/>
-      <c r="B5" s="50" t="s">
+      <c r="A5" s="53"/>
+      <c r="B5" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="54">
         <v>41561</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -1193,79 +1241,79 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="49"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" s="5" customFormat="1" ht="39.95" customHeight="1" spans="1:8">
-      <c r="A6" s="46"/>
-      <c r="B6" s="50" t="s">
+      <c r="A6" s="53"/>
+      <c r="B6" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="54">
         <v>41563</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="49"/>
-    </row>
-    <row r="7" s="39" customFormat="1" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A7" s="46"/>
-      <c r="B7" s="52" t="s">
+      <c r="H6" s="34"/>
+    </row>
+    <row r="7" s="46" customFormat="1" ht="20.1" customHeight="1" spans="1:8">
+      <c r="A7" s="53"/>
+      <c r="B7" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7" s="59">
         <v>41567</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="54"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="60"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A8" s="46"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="53">
+      <c r="C8" s="59">
         <v>41568</v>
       </c>
       <c r="D8" s="30"/>
       <c r="E8" s="30"/>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
-      <c r="H8" s="55"/>
+      <c r="H8" s="61"/>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A9" s="46"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="47">
+      <c r="C9" s="54">
         <v>41569</v>
       </c>
       <c r="D9" s="30"/>
       <c r="E9" s="30"/>
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
-      <c r="H9" s="55"/>
+      <c r="H9" s="61"/>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A10" s="46"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="47"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="30"/>
       <c r="E10" s="30"/>
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
-      <c r="H10" s="55"/>
+      <c r="H10" s="61"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:8">
-      <c r="A11" s="46"/>
-      <c r="B11" s="56" t="s">
+      <c r="A11" s="53"/>
+      <c r="B11" s="62" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="30"/>
@@ -1275,11 +1323,11 @@
       </c>
       <c r="F11" s="30"/>
       <c r="G11" s="30"/>
-      <c r="H11" s="55"/>
+      <c r="H11" s="61"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A12" s="46"/>
-      <c r="B12" s="57" t="s">
+      <c r="A12" s="53"/>
+      <c r="B12" s="63" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="30"/>
@@ -1289,10 +1337,10 @@
       </c>
       <c r="F12" s="30"/>
       <c r="G12" s="30"/>
-      <c r="H12" s="55"/>
+      <c r="H12" s="61"/>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A13" s="46"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="14" t="s">
         <v>20</v>
       </c>
@@ -1301,21 +1349,21 @@
       <c r="E13" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="58" t="s">
+      <c r="F13" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="59"/>
-      <c r="H13" s="60"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="66"/>
     </row>
     <row r="14" ht="57" customHeight="1" spans="1:8">
-      <c r="A14" s="46"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="53">
+      <c r="C14" s="59">
         <v>41575</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="D14" s="67" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="30" t="s">
@@ -1323,17 +1371,17 @@
       </c>
       <c r="F14" s="30"/>
       <c r="G14" s="30"/>
-      <c r="H14" s="55"/>
+      <c r="H14" s="61"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="46"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="53">
+      <c r="C15" s="59">
         <v>41575</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="68" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="30" t="s">
@@ -1341,17 +1389,17 @@
       </c>
       <c r="F15" s="30"/>
       <c r="G15" s="30"/>
-      <c r="H15" s="55"/>
+      <c r="H15" s="61"/>
     </row>
     <row r="16" ht="54" spans="1:8">
-      <c r="A16" s="46"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="53">
+      <c r="C16" s="59">
         <v>41575</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="69" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="30" t="s">
@@ -1359,14 +1407,14 @@
       </c>
       <c r="F16" s="30"/>
       <c r="G16" s="30"/>
-      <c r="H16" s="55"/>
+      <c r="H16" s="61"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="64"/>
+      <c r="A17" s="70"/>
       <c r="B17" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="65">
+      <c r="C17" s="71">
         <v>41577</v>
       </c>
       <c r="D17" s="32"/>
@@ -1375,14 +1423,14 @@
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
-      <c r="H17" s="66"/>
+      <c r="H17" s="72"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="46"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="73" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="30"/>
@@ -1400,7 +1448,7 @@
       <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="73" t="s">
         <v>35</v>
       </c>
       <c r="E19" t="s">
@@ -1412,7 +1460,7 @@
       <c r="B20" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="67" t="s">
+      <c r="C20" s="73" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="30" t="s">
@@ -1424,7 +1472,7 @@
       <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="67" t="s">
+      <c r="C21" s="73" t="s">
         <v>42</v>
       </c>
       <c r="E21" t="s">
@@ -1436,7 +1484,7 @@
       <c r="B22" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="67" t="s">
+      <c r="C22" s="73" t="s">
         <v>35</v>
       </c>
       <c r="E22" t="s">
@@ -1448,7 +1496,7 @@
       <c r="B23" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="73" t="s">
         <v>45</v>
       </c>
       <c r="E23" s="30" t="s">
@@ -1460,7 +1508,7 @@
       <c r="B24" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="67" t="s">
+      <c r="C24" s="73" t="s">
         <v>47</v>
       </c>
       <c r="E24" s="30" t="s">
@@ -1473,11 +1521,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:2">
       <c r="A26" s="5"/>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="5"/>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="5"/>
@@ -1518,9 +1572,9 @@
     <mergeCell ref="C9:C10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D15" r:id="rId1" display="http://baike.baidu.com/view/3594775.htm"/>
+    <hyperlink ref="D16" r:id="rId1" display="http://nanjing.baixing.com/cheliangqiugou/a287879099.html&#10;http://nj.58.com/daibanguohu/15736741762695x.shtml"/>
     <hyperlink ref="D14" r:id="rId2" display="http://www.xici.net/d195200793.htm&#10;http://www.xici.net/d195200029.htm&#10;http://www.xici.net/d195173957.htm" tooltip="http://www.xici.net/d195200793.htm_x000a_http://www.xici.net/d195200029.htm_x000a_http://www.xici.net/d195173957.htm"/>
-    <hyperlink ref="D16" r:id="rId3" display="http://nanjing.baixing.com/cheliangqiugou/a287879099.html&#10;http://nj.58.com/daibanguohu/15736741762695x.shtml"/>
+    <hyperlink ref="D15" r:id="rId3" display="http://baike.baidu.com/view/3594775.htm"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1551,219 +1605,219 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" s="36" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A2" s="35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" s="42" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A2" s="43">
         <v>41555</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>51</v>
+      <c r="B2" s="42" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A3" s="37">
+      <c r="A3" s="44">
         <v>41556</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C3" s="18"/>
     </row>
     <row r="4" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A4" s="37">
+      <c r="A4" s="44">
         <v>41557</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C4" s="18"/>
     </row>
     <row r="5" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A5" s="37">
+      <c r="A5" s="44">
         <v>41558</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C5" s="18"/>
     </row>
     <row r="6" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A6" s="37">
+      <c r="A6" s="44">
         <v>41559</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C6" s="18"/>
     </row>
     <row r="7" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A7" s="37">
+      <c r="A7" s="44">
         <v>41560</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C7" s="18"/>
     </row>
     <row r="8" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A8" s="37">
+      <c r="A8" s="44">
         <v>41561</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C8" s="18"/>
     </row>
     <row r="9" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A9" s="37">
+      <c r="A9" s="44">
         <v>41562</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C9" s="18"/>
     </row>
     <row r="10" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A10" s="37">
+      <c r="A10" s="44">
         <v>41563</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C10" s="18"/>
     </row>
     <row r="11" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A11" s="37">
+      <c r="A11" s="44">
         <v>41564</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C11" s="18"/>
     </row>
     <row r="12" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A12" s="37">
+      <c r="A12" s="44">
         <v>41565</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C12" s="18"/>
     </row>
     <row r="13" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A13" s="37">
+      <c r="A13" s="44">
         <v>41566</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C13" s="18"/>
     </row>
     <row r="14" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A14" s="37">
+      <c r="A14" s="44">
         <v>41567</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C14" s="18"/>
     </row>
     <row r="15" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A15" s="37">
+      <c r="A15" s="44">
         <v>41568</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C15" s="18"/>
     </row>
     <row r="16" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A16" s="37">
+      <c r="A16" s="44">
         <v>41569</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>65</v>
+      <c r="B16" s="42" t="s">
+        <v>67</v>
       </c>
       <c r="C16" s="18"/>
     </row>
     <row r="17" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A17" s="37">
+      <c r="A17" s="44">
         <v>41570</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C17" s="18"/>
     </row>
     <row r="18" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A18" s="37">
+      <c r="A18" s="44">
         <v>41571</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A19" s="37">
+      <c r="A19" s="44">
         <v>41572</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A20" s="37">
+      <c r="A20" s="44">
         <v>41573</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A21" s="37">
+      <c r="A21" s="44">
         <v>41574</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A22" s="37">
+      <c r="A22" s="44">
         <v>41575</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A23" s="37">
+      <c r="A23" s="44">
         <v>41576</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A24" s="37">
+      <c r="A24" s="44">
         <v>41577</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A25" s="37">
+      <c r="A25" s="44">
         <v>41578</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" ht="20.1" customHeight="1"/>
@@ -1786,10 +1840,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1806,10 +1860,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
@@ -1817,13 +1871,13 @@
         <v>41567</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C3" s="13"/>
     </row>
@@ -1832,14 +1886,14 @@
         <v>41568</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C4" s="15"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C5" s="13"/>
     </row>
@@ -1848,14 +1902,14 @@
         <v>41569</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C6" s="15"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A7" s="11"/>
       <c r="B7" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C7" s="13"/>
     </row>
@@ -1893,28 +1947,28 @@
         <v>41571</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
       <c r="A12" s="11"/>
       <c r="B12" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
@@ -1922,7 +1976,7 @@
         <v>41572</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>21</v>
@@ -1933,7 +1987,7 @@
     <row r="14" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A14" s="10"/>
       <c r="B14" s="22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>21</v>
@@ -1944,7 +1998,7 @@
     <row r="15" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A15" s="11"/>
       <c r="B15" s="25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>21</v>
@@ -1957,7 +2011,7 @@
         <v>41573</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>21</v>
@@ -1966,7 +2020,7 @@
     <row r="17" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A17" s="10"/>
       <c r="B17" s="15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>21</v>
@@ -1975,7 +2029,7 @@
     <row r="18" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A18" s="11"/>
       <c r="B18" s="13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>21</v>
@@ -1984,7 +2038,7 @@
     <row r="19" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
       <c r="A19" s="27"/>
       <c r="B19" s="28" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>21</v>
@@ -2019,61 +2073,118 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+    <row r="22" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A22" s="34"/>
-      <c r="B22" s="17" t="s">
-        <v>92</v>
+      <c r="B22" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A23" s="34"/>
-      <c r="B23" s="17" t="s">
-        <v>93</v>
+      <c r="B23" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A24" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" s="17" t="s">
+      <c r="D23" s="4" t="s">
         <v>96</v>
+      </c>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A24" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="C24" s="23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A25" s="34"/>
-      <c r="B25" s="17" t="s">
-        <v>97</v>
+      <c r="B25" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
       <c r="A26" s="34"/>
-      <c r="B26" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" s="18"/>
-    </row>
-    <row r="27" ht="20.1" customHeight="1" spans="2:3">
-      <c r="B27" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" s="18"/>
-    </row>
-    <row r="28" ht="20.1" customHeight="1"/>
+      <c r="B26" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A27" s="35"/>
+      <c r="B27" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="37"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+    </row>
+    <row r="28" ht="20.1" customHeight="1" spans="1:5">
+      <c r="A28" s="39"/>
+      <c r="B28" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="39"/>
+      <c r="B29" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="39">
+        <v>41583</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="40"/>
+      <c r="B31" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A2:A3"/>

--- a/日志.xlsx
+++ b/日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23880" windowHeight="9920"/>
+    <workbookView windowWidth="23880" windowHeight="9920" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="执行计划" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110">
   <si>
     <t>公平价网络推广团队2013年执行计划</t>
   </si>
@@ -361,16 +361,28 @@
   <si>
     <t>4.线下市场调研 （别克GL8）</t>
   </si>
+  <si>
+    <t>1.搜搜百科词条  公平价</t>
+  </si>
+  <si>
+    <t>3.西祠论坛广告</t>
+  </si>
+  <si>
+    <t>4.竞争品牌调查</t>
+  </si>
+  <si>
+    <t>5.二手车及用车常识整理</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -488,7 +500,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -560,26 +572,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -604,7 +596,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -700,19 +692,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -799,7 +782,6 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1149,7 +1131,7 @@
   <sheetPr/>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -1165,45 +1147,45 @@
   </cols>
   <sheetData>
     <row r="1" ht="44.25" customHeight="1" spans="1:5">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-    </row>
-    <row r="2" s="45" customFormat="1" ht="29.25" customHeight="1" spans="1:8">
-      <c r="A2" s="48" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+    </row>
+    <row r="2" s="42" customFormat="1" ht="29.25" customHeight="1" spans="1:8">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="52"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="49"/>
     </row>
     <row r="3" s="5" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="50" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="54">
+      <c r="C3" s="51">
         <v>41556</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="52" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="4"/>
@@ -1212,14 +1194,14 @@
       <c r="H3" s="34"/>
     </row>
     <row r="4" s="5" customFormat="1" ht="39.95" customHeight="1" spans="1:8">
-      <c r="A4" s="53"/>
-      <c r="B4" s="56" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="54">
+      <c r="C4" s="51">
         <v>41559</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="54" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="4"/>
@@ -1228,11 +1210,11 @@
       <c r="H4" s="34"/>
     </row>
     <row r="5" s="5" customFormat="1" ht="39.95" customHeight="1" spans="1:8">
-      <c r="A5" s="53"/>
-      <c r="B5" s="56" t="s">
+      <c r="A5" s="50"/>
+      <c r="B5" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="54">
+      <c r="C5" s="51">
         <v>41561</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -1244,11 +1226,11 @@
       <c r="H5" s="34"/>
     </row>
     <row r="6" s="5" customFormat="1" ht="39.95" customHeight="1" spans="1:8">
-      <c r="A6" s="53"/>
-      <c r="B6" s="56" t="s">
+      <c r="A6" s="50"/>
+      <c r="B6" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="51">
         <v>41563</v>
       </c>
       <c r="D6" s="4"/>
@@ -1257,63 +1239,63 @@
       <c r="G6" s="4"/>
       <c r="H6" s="34"/>
     </row>
-    <row r="7" s="46" customFormat="1" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A7" s="53"/>
-      <c r="B7" s="58" t="s">
+    <row r="7" s="43" customFormat="1" ht="20.1" customHeight="1" spans="1:8">
+      <c r="A7" s="50"/>
+      <c r="B7" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="59">
+      <c r="C7" s="56">
         <v>41567</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="60"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="57"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A8" s="53"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="59">
+      <c r="C8" s="56">
         <v>41568</v>
       </c>
       <c r="D8" s="30"/>
       <c r="E8" s="30"/>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
-      <c r="H8" s="61"/>
+      <c r="H8" s="58"/>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A9" s="53"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="51">
         <v>41569</v>
       </c>
       <c r="D9" s="30"/>
       <c r="E9" s="30"/>
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
-      <c r="H9" s="61"/>
+      <c r="H9" s="58"/>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A10" s="53"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="54"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="30"/>
       <c r="E10" s="30"/>
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
-      <c r="H10" s="61"/>
+      <c r="H10" s="58"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:8">
-      <c r="A11" s="53"/>
-      <c r="B11" s="62" t="s">
+      <c r="A11" s="50"/>
+      <c r="B11" s="59" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="30"/>
@@ -1323,11 +1305,11 @@
       </c>
       <c r="F11" s="30"/>
       <c r="G11" s="30"/>
-      <c r="H11" s="61"/>
+      <c r="H11" s="58"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A12" s="53"/>
-      <c r="B12" s="63" t="s">
+      <c r="A12" s="50"/>
+      <c r="B12" s="60" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="30"/>
@@ -1337,10 +1319,10 @@
       </c>
       <c r="F12" s="30"/>
       <c r="G12" s="30"/>
-      <c r="H12" s="61"/>
+      <c r="H12" s="58"/>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A13" s="53"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="14" t="s">
         <v>20</v>
       </c>
@@ -1349,21 +1331,21 @@
       <c r="E13" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="64" t="s">
+      <c r="F13" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="65"/>
-      <c r="H13" s="66"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="63"/>
     </row>
     <row r="14" ht="57" customHeight="1" spans="1:8">
-      <c r="A14" s="53"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="59">
+      <c r="C14" s="56">
         <v>41575</v>
       </c>
-      <c r="D14" s="67" t="s">
+      <c r="D14" s="64" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="30" t="s">
@@ -1371,17 +1353,17 @@
       </c>
       <c r="F14" s="30"/>
       <c r="G14" s="30"/>
-      <c r="H14" s="61"/>
+      <c r="H14" s="58"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="53"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="59">
+      <c r="C15" s="56">
         <v>41575</v>
       </c>
-      <c r="D15" s="68" t="s">
+      <c r="D15" s="65" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="30" t="s">
@@ -1389,17 +1371,17 @@
       </c>
       <c r="F15" s="30"/>
       <c r="G15" s="30"/>
-      <c r="H15" s="61"/>
+      <c r="H15" s="58"/>
     </row>
     <row r="16" ht="54" spans="1:8">
-      <c r="A16" s="53"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="59">
+      <c r="C16" s="56">
         <v>41575</v>
       </c>
-      <c r="D16" s="69" t="s">
+      <c r="D16" s="66" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="30" t="s">
@@ -1407,14 +1389,14 @@
       </c>
       <c r="F16" s="30"/>
       <c r="G16" s="30"/>
-      <c r="H16" s="61"/>
+      <c r="H16" s="58"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="70"/>
+      <c r="A17" s="67"/>
       <c r="B17" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="71">
+      <c r="C17" s="68">
         <v>41577</v>
       </c>
       <c r="D17" s="32"/>
@@ -1423,14 +1405,14 @@
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
-      <c r="H17" s="72"/>
+      <c r="H17" s="35"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="53"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="69" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="30"/>
@@ -1448,7 +1430,7 @@
       <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="69" t="s">
         <v>35</v>
       </c>
       <c r="E19" t="s">
@@ -1460,7 +1442,7 @@
       <c r="B20" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="69" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="30" t="s">
@@ -1472,7 +1454,7 @@
       <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="73" t="s">
+      <c r="C21" s="69" t="s">
         <v>42</v>
       </c>
       <c r="E21" t="s">
@@ -1484,7 +1466,7 @@
       <c r="B22" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="69" t="s">
         <v>35</v>
       </c>
       <c r="E22" t="s">
@@ -1496,7 +1478,7 @@
       <c r="B23" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="73" t="s">
+      <c r="C23" s="69" t="s">
         <v>45</v>
       </c>
       <c r="E23" s="30" t="s">
@@ -1508,7 +1490,7 @@
       <c r="B24" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="73" t="s">
+      <c r="C24" s="69" t="s">
         <v>47</v>
       </c>
       <c r="E24" s="30" t="s">
@@ -1572,9 +1554,9 @@
     <mergeCell ref="C9:C10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D16" r:id="rId1" display="http://nanjing.baixing.com/cheliangqiugou/a287879099.html&#10;http://nj.58.com/daibanguohu/15736741762695x.shtml"/>
+    <hyperlink ref="D15" r:id="rId1" display="http://baike.baidu.com/view/3594775.htm"/>
     <hyperlink ref="D14" r:id="rId2" display="http://www.xici.net/d195200793.htm&#10;http://www.xici.net/d195200029.htm&#10;http://www.xici.net/d195173957.htm" tooltip="http://www.xici.net/d195200793.htm_x000a_http://www.xici.net/d195200029.htm_x000a_http://www.xici.net/d195173957.htm"/>
-    <hyperlink ref="D15" r:id="rId3" display="http://baike.baidu.com/view/3594775.htm"/>
+    <hyperlink ref="D16" r:id="rId3" display="http://nanjing.baixing.com/cheliangqiugou/a287879099.html&#10;http://nj.58.com/daibanguohu/15736741762695x.shtml"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1611,16 +1593,16 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" s="42" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A2" s="43">
+    <row r="2" s="39" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A2" s="40">
         <v>41555</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="39" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A3" s="44">
+      <c r="A3" s="41">
         <v>41556</v>
       </c>
       <c r="B3" s="17" t="s">
@@ -1629,7 +1611,7 @@
       <c r="C3" s="18"/>
     </row>
     <row r="4" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A4" s="44">
+      <c r="A4" s="41">
         <v>41557</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -1638,7 +1620,7 @@
       <c r="C4" s="18"/>
     </row>
     <row r="5" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A5" s="44">
+      <c r="A5" s="41">
         <v>41558</v>
       </c>
       <c r="B5" s="17" t="s">
@@ -1647,7 +1629,7 @@
       <c r="C5" s="18"/>
     </row>
     <row r="6" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A6" s="44">
+      <c r="A6" s="41">
         <v>41559</v>
       </c>
       <c r="B6" s="17" t="s">
@@ -1656,7 +1638,7 @@
       <c r="C6" s="18"/>
     </row>
     <row r="7" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A7" s="44">
+      <c r="A7" s="41">
         <v>41560</v>
       </c>
       <c r="B7" s="17" t="s">
@@ -1665,7 +1647,7 @@
       <c r="C7" s="18"/>
     </row>
     <row r="8" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A8" s="44">
+      <c r="A8" s="41">
         <v>41561</v>
       </c>
       <c r="B8" s="17" t="s">
@@ -1674,7 +1656,7 @@
       <c r="C8" s="18"/>
     </row>
     <row r="9" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A9" s="44">
+      <c r="A9" s="41">
         <v>41562</v>
       </c>
       <c r="B9" s="17" t="s">
@@ -1683,7 +1665,7 @@
       <c r="C9" s="18"/>
     </row>
     <row r="10" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A10" s="44">
+      <c r="A10" s="41">
         <v>41563</v>
       </c>
       <c r="B10" s="17" t="s">
@@ -1692,7 +1674,7 @@
       <c r="C10" s="18"/>
     </row>
     <row r="11" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A11" s="44">
+      <c r="A11" s="41">
         <v>41564</v>
       </c>
       <c r="B11" s="18" t="s">
@@ -1701,7 +1683,7 @@
       <c r="C11" s="18"/>
     </row>
     <row r="12" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A12" s="44">
+      <c r="A12" s="41">
         <v>41565</v>
       </c>
       <c r="B12" s="18" t="s">
@@ -1710,7 +1692,7 @@
       <c r="C12" s="18"/>
     </row>
     <row r="13" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A13" s="44">
+      <c r="A13" s="41">
         <v>41566</v>
       </c>
       <c r="B13" s="18" t="s">
@@ -1719,7 +1701,7 @@
       <c r="C13" s="18"/>
     </row>
     <row r="14" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A14" s="44">
+      <c r="A14" s="41">
         <v>41567</v>
       </c>
       <c r="B14" s="18" t="s">
@@ -1728,7 +1710,7 @@
       <c r="C14" s="18"/>
     </row>
     <row r="15" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A15" s="44">
+      <c r="A15" s="41">
         <v>41568</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -1737,16 +1719,16 @@
       <c r="C15" s="18"/>
     </row>
     <row r="16" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A16" s="44">
+      <c r="A16" s="41">
         <v>41569</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="39" t="s">
         <v>67</v>
       </c>
       <c r="C16" s="18"/>
     </row>
     <row r="17" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A17" s="44">
+      <c r="A17" s="41">
         <v>41570</v>
       </c>
       <c r="B17" s="17" t="s">
@@ -1755,7 +1737,7 @@
       <c r="C17" s="18"/>
     </row>
     <row r="18" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A18" s="44">
+      <c r="A18" s="41">
         <v>41571</v>
       </c>
       <c r="B18" s="17" t="s">
@@ -1764,7 +1746,7 @@
       <c r="C18" s="18"/>
     </row>
     <row r="19" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A19" s="44">
+      <c r="A19" s="41">
         <v>41572</v>
       </c>
       <c r="B19" s="17" t="s">
@@ -1773,7 +1755,7 @@
       <c r="C19" s="18"/>
     </row>
     <row r="20" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A20" s="44">
+      <c r="A20" s="41">
         <v>41573</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -1781,7 +1763,7 @@
       </c>
     </row>
     <row r="21" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A21" s="44">
+      <c r="A21" s="41">
         <v>41574</v>
       </c>
       <c r="B21" s="17" t="s">
@@ -1789,7 +1771,7 @@
       </c>
     </row>
     <row r="22" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A22" s="44">
+      <c r="A22" s="41">
         <v>41575</v>
       </c>
       <c r="B22" s="17" t="s">
@@ -1797,7 +1779,7 @@
       </c>
     </row>
     <row r="23" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A23" s="44">
+      <c r="A23" s="41">
         <v>41576</v>
       </c>
       <c r="B23" s="17" t="s">
@@ -1805,7 +1787,7 @@
       </c>
     </row>
     <row r="24" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A24" s="44">
+      <c r="A24" s="41">
         <v>41577</v>
       </c>
       <c r="B24" s="17" t="s">
@@ -1813,7 +1795,7 @@
       </c>
     </row>
     <row r="25" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A25" s="44">
+      <c r="A25" s="41">
         <v>41578</v>
       </c>
       <c r="B25" s="17" t="s">
@@ -1840,10 +1822,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:E31"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2132,15 +2114,15 @@
     </row>
     <row r="27" ht="20.1" customHeight="1" spans="1:5">
       <c r="A27" s="35"/>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="37"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
     </row>
     <row r="28" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A28" s="39"/>
+      <c r="A28" s="36"/>
       <c r="B28" s="30" t="s">
         <v>102</v>
       </c>
@@ -2151,7 +2133,7 @@
       <c r="E28" s="30"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="39"/>
+      <c r="A29" s="36"/>
       <c r="B29" s="30" t="s">
         <v>103</v>
       </c>
@@ -2162,7 +2144,7 @@
       <c r="E29" s="30"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="39">
+      <c r="A30" s="36">
         <v>41583</v>
       </c>
       <c r="B30" s="30" t="s">
@@ -2175,15 +2157,58 @@
       <c r="E30" s="30"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="40"/>
-      <c r="B31" s="38" t="s">
+      <c r="A31" s="37"/>
+      <c r="B31" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="C31" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
+      <c r="C31" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="38">
+        <v>41584</v>
+      </c>
+      <c r="B34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/日志.xlsx
+++ b/日志.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112">
   <si>
     <t>公平价网络推广团队2013年执行计划</t>
   </si>
@@ -296,9 +296,6 @@
     <t>http://jingyan.baidu.com/user/nuc/expList?type=3</t>
   </si>
   <si>
-    <t>未通过再修改</t>
-  </si>
-  <si>
     <t>2.南京市旧机动车交易市场调研</t>
   </si>
   <si>
@@ -372,6 +369,15 @@
   </si>
   <si>
     <t>5.二手车及用车常识整理</t>
+  </si>
+  <si>
+    <t>1.百度词条添加、搜搜词条</t>
+  </si>
+  <si>
+    <t>3.西祠论坛“双11”购车篇1</t>
+  </si>
+  <si>
+    <t>4.竞争品牌（平安好车、车置宝、搜车客）特色服务整理</t>
   </si>
 </sst>
 </file>
@@ -500,7 +506,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -524,6 +530,15 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -572,6 +587,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -596,7 +622,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -619,16 +645,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -641,7 +669,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -674,35 +702,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -726,7 +758,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -750,10 +782,9 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -766,7 +797,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1147,74 +1178,74 @@
   </cols>
   <sheetData>
     <row r="1" ht="44.25" customHeight="1" spans="1:5">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-    </row>
-    <row r="2" s="42" customFormat="1" ht="29.25" customHeight="1" spans="1:8">
-      <c r="A2" s="45" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+    </row>
+    <row r="2" s="46" customFormat="1" ht="29.25" customHeight="1" spans="1:8">
+      <c r="A2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="49"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="3" s="5" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="54" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="51">
+      <c r="C3" s="55">
         <v>41556</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="56" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="34"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" s="5" customFormat="1" ht="39.95" customHeight="1" spans="1:8">
-      <c r="A4" s="50"/>
-      <c r="B4" s="53" t="s">
+      <c r="A4" s="54"/>
+      <c r="B4" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="55">
         <v>41559</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="58" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="34"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" s="5" customFormat="1" ht="39.95" customHeight="1" spans="1:8">
-      <c r="A5" s="50"/>
-      <c r="B5" s="53" t="s">
+      <c r="A5" s="54"/>
+      <c r="B5" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="55">
         <v>41561</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -1223,205 +1254,205 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="34"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" s="5" customFormat="1" ht="39.95" customHeight="1" spans="1:8">
-      <c r="A6" s="50"/>
-      <c r="B6" s="53" t="s">
+      <c r="A6" s="54"/>
+      <c r="B6" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="51">
+      <c r="C6" s="55">
         <v>41563</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="34"/>
-    </row>
-    <row r="7" s="43" customFormat="1" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A7" s="50"/>
-      <c r="B7" s="55" t="s">
+      <c r="H6" s="35"/>
+    </row>
+    <row r="7" s="47" customFormat="1" ht="20.1" customHeight="1" spans="1:8">
+      <c r="A7" s="54"/>
+      <c r="B7" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="56">
+      <c r="C7" s="60">
         <v>41567</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="57"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="61"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A8" s="50"/>
-      <c r="B8" s="30" t="s">
+      <c r="A8" s="54"/>
+      <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="56">
+      <c r="C8" s="60">
         <v>41568</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="58"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="39"/>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A9" s="50"/>
-      <c r="B9" s="30" t="s">
+      <c r="A9" s="54"/>
+      <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="51">
+      <c r="C9" s="55">
         <v>41569</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="58"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A10" s="50"/>
-      <c r="B10" s="30" t="s">
+      <c r="A10" s="54"/>
+      <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="58"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="39"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:8">
-      <c r="A11" s="50"/>
-      <c r="B11" s="59" t="s">
+      <c r="A11" s="54"/>
+      <c r="B11" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="15" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="58"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="39"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A12" s="50"/>
-      <c r="B12" s="60" t="s">
+      <c r="A12" s="54"/>
+      <c r="B12" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="15" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="58"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="39"/>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A13" s="50"/>
-      <c r="B13" s="14" t="s">
+      <c r="A13" s="54"/>
+      <c r="B13" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="61" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="62"/>
-      <c r="H13" s="63"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="66"/>
     </row>
     <row r="14" ht="57" customHeight="1" spans="1:8">
-      <c r="A14" s="50"/>
-      <c r="B14" s="15" t="s">
+      <c r="A14" s="54"/>
+      <c r="B14" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="56">
+      <c r="C14" s="60">
         <v>41575</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="58"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="39"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="50"/>
-      <c r="B15" s="30" t="s">
+      <c r="A15" s="54"/>
+      <c r="B15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="56">
+      <c r="C15" s="60">
         <v>41575</v>
       </c>
-      <c r="D15" s="65" t="s">
+      <c r="D15" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="58"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="39"/>
     </row>
     <row r="16" ht="54" spans="1:8">
-      <c r="A16" s="50"/>
-      <c r="B16" s="15" t="s">
+      <c r="A16" s="54"/>
+      <c r="B16" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="56">
+      <c r="C16" s="60">
         <v>41575</v>
       </c>
-      <c r="D16" s="66" t="s">
+      <c r="D16" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="58"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="39"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="67"/>
-      <c r="B17" s="32" t="s">
+      <c r="A17" s="70"/>
+      <c r="B17" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="68">
+      <c r="C17" s="71">
         <v>41577</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32" t="s">
+      <c r="D17" s="33"/>
+      <c r="E17" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="35"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="36"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="50"/>
-      <c r="B18" s="15" t="s">
+      <c r="A18" s="54"/>
+      <c r="B18" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30" t="s">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
@@ -1430,7 +1461,7 @@
       <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="72" t="s">
         <v>35</v>
       </c>
       <c r="E19" t="s">
@@ -1439,13 +1470,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="5"/>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="69" t="s">
+      <c r="C20" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1454,7 +1485,7 @@
       <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="69" t="s">
+      <c r="C21" s="72" t="s">
         <v>42</v>
       </c>
       <c r="E21" t="s">
@@ -1466,7 +1497,7 @@
       <c r="B22" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="69" t="s">
+      <c r="C22" s="72" t="s">
         <v>35</v>
       </c>
       <c r="E22" t="s">
@@ -1478,10 +1509,10 @@
       <c r="B23" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="69" t="s">
+      <c r="C23" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1490,10 +1521,10 @@
       <c r="B24" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="69" t="s">
+      <c r="C24" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1554,9 +1585,9 @@
     <mergeCell ref="C9:C10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D15" r:id="rId1" display="http://baike.baidu.com/view/3594775.htm"/>
+    <hyperlink ref="D16" r:id="rId1" display="http://nanjing.baixing.com/cheliangqiugou/a287879099.html&#10;http://nj.58.com/daibanguohu/15736741762695x.shtml"/>
     <hyperlink ref="D14" r:id="rId2" display="http://www.xici.net/d195200793.htm&#10;http://www.xici.net/d195200029.htm&#10;http://www.xici.net/d195173957.htm" tooltip="http://www.xici.net/d195200793.htm_x000a_http://www.xici.net/d195200029.htm_x000a_http://www.xici.net/d195173957.htm"/>
-    <hyperlink ref="D16" r:id="rId3" display="http://nanjing.baixing.com/cheliangqiugou/a287879099.html&#10;http://nj.58.com/daibanguohu/15736741762695x.shtml"/>
+    <hyperlink ref="D15" r:id="rId3" display="http://baike.baidu.com/view/3594775.htm"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1575,7 +1606,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="10" customWidth="1"/>
     <col min="2" max="2" width="73.5" customWidth="1"/>
     <col min="3" max="3" width="38.75" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
@@ -1583,7 +1614,7 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="42" customHeight="1" spans="1:3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1593,212 +1624,212 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" s="39" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A2" s="40">
+    <row r="2" s="43" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A2" s="44">
         <v>41555</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="43" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A3" s="41">
+      <c r="A3" s="45">
         <v>41556</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="18"/>
+      <c r="C3" s="20"/>
     </row>
     <row r="4" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A4" s="41">
+      <c r="A4" s="45">
         <v>41557</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="20"/>
     </row>
     <row r="5" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A5" s="41">
+      <c r="A5" s="45">
         <v>41558</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="20"/>
     </row>
     <row r="6" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A6" s="41">
+      <c r="A6" s="45">
         <v>41559</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="18"/>
+      <c r="C6" s="20"/>
     </row>
     <row r="7" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A7" s="41">
+      <c r="A7" s="45">
         <v>41560</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="18"/>
+      <c r="C7" s="20"/>
     </row>
     <row r="8" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A8" s="41">
+      <c r="A8" s="45">
         <v>41561</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="18"/>
+      <c r="C8" s="20"/>
     </row>
     <row r="9" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A9" s="41">
+      <c r="A9" s="45">
         <v>41562</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="18"/>
+      <c r="C9" s="20"/>
     </row>
     <row r="10" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A10" s="41">
+      <c r="A10" s="45">
         <v>41563</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="18"/>
+      <c r="C10" s="20"/>
     </row>
     <row r="11" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A11" s="41">
+      <c r="A11" s="45">
         <v>41564</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="18"/>
+      <c r="C11" s="20"/>
     </row>
     <row r="12" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A12" s="41">
+      <c r="A12" s="45">
         <v>41565</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="18"/>
+      <c r="C12" s="20"/>
     </row>
     <row r="13" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A13" s="41">
+      <c r="A13" s="45">
         <v>41566</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="18"/>
+      <c r="C13" s="20"/>
     </row>
     <row r="14" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A14" s="41">
+      <c r="A14" s="45">
         <v>41567</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="18"/>
+      <c r="C14" s="20"/>
     </row>
     <row r="15" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A15" s="41">
+      <c r="A15" s="45">
         <v>41568</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="18"/>
+      <c r="C15" s="20"/>
     </row>
     <row r="16" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A16" s="41">
+      <c r="A16" s="45">
         <v>41569</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="18"/>
+      <c r="C16" s="20"/>
     </row>
     <row r="17" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A17" s="41">
+      <c r="A17" s="45">
         <v>41570</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="18"/>
+      <c r="C17" s="20"/>
     </row>
     <row r="18" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A18" s="41">
+      <c r="A18" s="45">
         <v>41571</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="18"/>
+      <c r="C18" s="20"/>
     </row>
     <row r="19" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A19" s="41">
+      <c r="A19" s="45">
         <v>41572</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="18"/>
+      <c r="C19" s="20"/>
     </row>
     <row r="20" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A20" s="41">
+      <c r="A20" s="45">
         <v>41573</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="19" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="21" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A21" s="41">
+      <c r="A21" s="45">
         <v>41574</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="19" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="22" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A22" s="41">
+      <c r="A22" s="45">
         <v>41575</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="19" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="23" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A23" s="41">
+      <c r="A23" s="45">
         <v>41576</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="19" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="24" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A24" s="41">
+      <c r="A24" s="45">
         <v>41577</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="19" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="25" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A25" s="41">
+      <c r="A25" s="45">
         <v>41578</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="19" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1822,23 +1853,22 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="20" style="8" customWidth="1"/>
+    <col min="1" max="1" width="20" style="10" customWidth="1"/>
     <col min="2" max="2" width="80" customWidth="1"/>
     <col min="3" max="3" width="38.75" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
-    <col min="5" max="5" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="42" customHeight="1" spans="1:3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1849,7 +1879,7 @@
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A2" s="10">
+      <c r="A2" s="12">
         <v>41567</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1857,172 +1887,166 @@
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="15"/>
     </row>
     <row r="4" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A4" s="10">
+      <c r="A4" s="12">
         <v>41568</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="17"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="15"/>
     </row>
     <row r="6" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A6" s="10">
+      <c r="A6" s="12">
         <v>41569</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="15"/>
+      <c r="C6" s="17"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="15"/>
     </row>
     <row r="8" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A8" s="16">
+      <c r="A8" s="18">
         <v>41570</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="20" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" s="5" customFormat="1" ht="21" customHeight="1" spans="1:3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="20" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" s="6" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="20" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A11" s="10">
+      <c r="C10" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A11" s="12">
         <v>41571</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="4" t="s">
+    </row>
+    <row r="12" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A12" s="13"/>
+      <c r="B12" s="15" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="12" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A12" s="11"/>
-      <c r="B12" s="13" t="s">
+      <c r="C12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="3" t="s">
+    </row>
+    <row r="13" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A13" s="12">
+        <v>41572</v>
+      </c>
+      <c r="B13" s="24" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="13" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A13" s="10">
-        <v>41572</v>
-      </c>
-      <c r="B13" s="22" t="s">
+      <c r="C13" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="26"/>
+    </row>
+    <row r="14" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A14" s="12"/>
+      <c r="B14" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-    </row>
-    <row r="14" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A14" s="10"/>
-      <c r="B14" s="22" t="s">
+      <c r="C14" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="26"/>
+    </row>
+    <row r="15" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A15" s="13"/>
+      <c r="B15" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-    </row>
-    <row r="15" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A15" s="11"/>
-      <c r="B15" s="25" t="s">
+      <c r="C15" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="28"/>
+    </row>
+    <row r="16" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A16" s="12">
+        <v>41573</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-    </row>
-    <row r="16" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A16" s="10">
-        <v>41573</v>
-      </c>
-      <c r="B16" s="15" t="s">
+      <c r="C16" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="15" t="s">
+      <c r="C17" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A18" s="13"/>
+      <c r="B18" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="13" t="s">
+      <c r="C18" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A19" s="29"/>
+      <c r="B19" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A19" s="27"/>
-      <c r="B19" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -2030,13 +2054,13 @@
       </c>
     </row>
     <row r="20" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A20" s="10">
+      <c r="A20" s="12">
         <v>41575</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="25" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -2044,169 +2068,205 @@
       </c>
     </row>
     <row r="21" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A21" s="31"/>
-      <c r="B21" s="32" t="s">
+      <c r="A21" s="32"/>
+      <c r="B21" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A22" s="34"/>
-      <c r="B22" s="14" t="s">
+    <row r="22" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A22" s="35"/>
+      <c r="B22" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A23" s="35"/>
+      <c r="B23" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A23" s="34"/>
-      <c r="B23" s="14" t="s">
+      <c r="C23" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="4" t="s">
+    </row>
+    <row r="24" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A24" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A24" s="10" t="s">
+      <c r="B24" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="C24" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A25" s="35"/>
+      <c r="B25" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A25" s="34"/>
-      <c r="B25" s="14" t="s">
+      <c r="C25" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A26" s="35"/>
+      <c r="B26" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A26" s="34"/>
-      <c r="B26" s="14" t="s">
+      <c r="C26" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A27" s="36"/>
+      <c r="B27" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A27" s="35"/>
-      <c r="B27" s="12" t="s">
+      <c r="C27" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="33"/>
+    </row>
+    <row r="28" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A28" s="37"/>
+      <c r="B28" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-    </row>
-    <row r="28" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A28" s="36"/>
-      <c r="B28" s="30" t="s">
+      <c r="C28" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="37"/>
+      <c r="B29" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C28" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="36"/>
-      <c r="B29" s="30" t="s">
+      <c r="C29" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="37">
+        <v>41583</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="36">
-        <v>41583</v>
-      </c>
-      <c r="B30" s="30" t="s">
+      <c r="C30" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="38"/>
+      <c r="B31" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="C30" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="37"/>
-      <c r="B31" s="32" t="s">
+      <c r="C31" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="33"/>
+    </row>
+    <row r="32" s="8" customFormat="1" spans="1:3">
+      <c r="A32" s="39"/>
+      <c r="B32" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C31" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-    </row>
-    <row r="32" spans="2:3">
-      <c r="B32" t="s">
+      <c r="C32" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" s="8" customFormat="1" spans="1:3">
+      <c r="A33" s="39"/>
+      <c r="B33" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" s="8" customFormat="1" spans="1:3">
+      <c r="A34" s="40">
+        <v>41584</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="38">
-        <v>41584</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="C34" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" s="8" customFormat="1" spans="1:3">
+      <c r="A35" s="39"/>
+      <c r="B35" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" t="s">
+      <c r="C35" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" s="9" customFormat="1" spans="1:3">
+      <c r="A36" s="41"/>
+      <c r="B36" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C35" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="B36" t="s">
+      <c r="C36" s="42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" s="8" customFormat="1" spans="1:3">
+      <c r="A37" s="39"/>
+      <c r="B37" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C37" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" s="8" customFormat="1" spans="1:3">
+      <c r="A38" s="39"/>
+      <c r="B38" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" s="8" customFormat="1" spans="1:3">
+      <c r="A39" s="40">
+        <v>41220</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" s="9" customFormat="1" spans="1:3">
+      <c r="A40" s="41"/>
+      <c r="B40" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="42" t="s">
         <v>21</v>
       </c>
     </row>

--- a/日志.xlsx
+++ b/日志.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116">
   <si>
     <t>公平价网络推广团队2013年执行计划</t>
   </si>
@@ -378,6 +378,18 @@
   </si>
   <si>
     <t>4.竞争品牌（平安好车、车置宝、搜车客）特色服务整理</t>
+  </si>
+  <si>
+    <t>1.词条（搜搜）录入</t>
+  </si>
+  <si>
+    <t>2.西祠论坛 福布斯新闻帖转载</t>
+  </si>
+  <si>
+    <t>3.微信微博内容审核</t>
+  </si>
+  <si>
+    <t>4.网络推广整理</t>
   </si>
 </sst>
 </file>
@@ -646,6 +658,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -712,7 +725,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1331,7 +1343,7 @@
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="18" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="8"/>
@@ -1345,7 +1357,7 @@
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="8"/>
@@ -1354,12 +1366,12 @@
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:8">
       <c r="A13" s="54"/>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="18" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="64" t="s">
@@ -1370,7 +1382,7 @@
     </row>
     <row r="14" ht="57" customHeight="1" spans="1:8">
       <c r="A14" s="54"/>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="60">
@@ -1406,7 +1418,7 @@
     </row>
     <row r="16" ht="54" spans="1:8">
       <c r="A16" s="54"/>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="60">
@@ -1424,23 +1436,23 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="70"/>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="71">
         <v>41577</v>
       </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
       <c r="H17" s="36"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="54"/>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="18" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="72" t="s">
@@ -1470,7 +1482,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="5"/>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="21" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="72" t="s">
@@ -1585,9 +1597,9 @@
     <mergeCell ref="C9:C10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D16" r:id="rId1" display="http://nanjing.baixing.com/cheliangqiugou/a287879099.html&#10;http://nj.58.com/daibanguohu/15736741762695x.shtml"/>
+    <hyperlink ref="D15" r:id="rId1" display="http://baike.baidu.com/view/3594775.htm"/>
     <hyperlink ref="D14" r:id="rId2" display="http://www.xici.net/d195200793.htm&#10;http://www.xici.net/d195200029.htm&#10;http://www.xici.net/d195173957.htm" tooltip="http://www.xici.net/d195200793.htm_x000a_http://www.xici.net/d195200029.htm_x000a_http://www.xici.net/d195173957.htm"/>
-    <hyperlink ref="D15" r:id="rId3" display="http://baike.baidu.com/view/3594775.htm"/>
+    <hyperlink ref="D16" r:id="rId3" display="http://nanjing.baixing.com/cheliangqiugou/a287879099.html&#10;http://nj.58.com/daibanguohu/15736741762695x.shtml"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1606,7 +1618,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="10" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="11" customWidth="1"/>
     <col min="2" max="2" width="73.5" customWidth="1"/>
     <col min="3" max="3" width="38.75" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
@@ -1614,7 +1626,7 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="42" customHeight="1" spans="1:3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1636,118 +1648,118 @@
       <c r="A3" s="45">
         <v>41556</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="21"/>
     </row>
     <row r="4" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A4" s="45">
         <v>41557</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="21"/>
     </row>
     <row r="5" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A5" s="45">
         <v>41558</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="21"/>
     </row>
     <row r="6" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A6" s="45">
         <v>41559</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="20"/>
+      <c r="C6" s="21"/>
     </row>
     <row r="7" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A7" s="45">
         <v>41560</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="21"/>
     </row>
     <row r="8" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A8" s="45">
         <v>41561</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="20"/>
+      <c r="C8" s="21"/>
     </row>
     <row r="9" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A9" s="45">
         <v>41562</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="21"/>
     </row>
     <row r="10" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A10" s="45">
         <v>41563</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="20"/>
+      <c r="C10" s="21"/>
     </row>
     <row r="11" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A11" s="45">
         <v>41564</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="21"/>
     </row>
     <row r="12" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A12" s="45">
         <v>41565</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="20"/>
+      <c r="C12" s="21"/>
     </row>
     <row r="13" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A13" s="45">
         <v>41566</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="20"/>
+      <c r="C13" s="21"/>
     </row>
     <row r="14" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A14" s="45">
         <v>41567</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="20"/>
+      <c r="C14" s="21"/>
     </row>
     <row r="15" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A15" s="45">
         <v>41568</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="21"/>
     </row>
     <row r="16" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A16" s="45">
@@ -1756,40 +1768,40 @@
       <c r="B16" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="21"/>
     </row>
     <row r="17" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A17" s="45">
         <v>41570</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="20"/>
+      <c r="C17" s="21"/>
     </row>
     <row r="18" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A18" s="45">
         <v>41571</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="21"/>
     </row>
     <row r="19" ht="20.1" customHeight="1" spans="1:3">
       <c r="A19" s="45">
         <v>41572</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="20"/>
+      <c r="C19" s="21"/>
     </row>
     <row r="20" ht="20.1" customHeight="1" spans="1:2">
       <c r="A20" s="45">
         <v>41573</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="20" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1797,7 +1809,7 @@
       <c r="A21" s="45">
         <v>41574</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="20" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1805,7 +1817,7 @@
       <c r="A22" s="45">
         <v>41575</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="20" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1813,7 +1825,7 @@
       <c r="A23" s="45">
         <v>41576</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="20" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1821,7 +1833,7 @@
       <c r="A24" s="45">
         <v>41577</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="20" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1829,7 +1841,7 @@
       <c r="A25" s="45">
         <v>41578</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="20" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1853,22 +1865,22 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="20" style="10" customWidth="1"/>
+    <col min="1" max="1" width="20" style="11" customWidth="1"/>
     <col min="2" max="2" width="80" customWidth="1"/>
     <col min="3" max="3" width="38.75" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="42" customHeight="1" spans="1:3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1879,7 +1891,7 @@
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A2" s="12">
+      <c r="A2" s="13">
         <v>41567</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1887,81 +1899,81 @@
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="16"/>
     </row>
     <row r="4" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A4" s="12">
+      <c r="A4" s="13">
         <v>41568</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="15"/>
+      <c r="C5" s="16"/>
     </row>
     <row r="6" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A6" s="12">
+      <c r="A6" s="13">
         <v>41569</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="18"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="16"/>
     </row>
     <row r="8" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A8" s="18">
+      <c r="A8" s="19">
         <v>41570</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" s="5" customFormat="1" ht="21" customHeight="1" spans="1:3">
-      <c r="A9" s="18"/>
-      <c r="B9" s="21" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="21" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" s="6" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="22" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="24" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A11" s="12">
+      <c r="A11" s="13">
         <v>41571</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="18" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -1969,11 +1981,11 @@
       </c>
     </row>
     <row r="12" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A12" s="13"/>
-      <c r="B12" s="15" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -1981,72 +1993,72 @@
       </c>
     </row>
     <row r="13" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A13" s="12">
+      <c r="A13" s="13">
         <v>41572</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="26"/>
+      <c r="C13" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="27"/>
     </row>
     <row r="14" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A14" s="12"/>
-      <c r="B14" s="24" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="26"/>
+      <c r="C14" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="27"/>
     </row>
     <row r="15" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A15" s="13"/>
-      <c r="B15" s="27" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="28"/>
+      <c r="C15" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="29"/>
     </row>
     <row r="16" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A16" s="12">
+      <c r="A16" s="13">
         <v>41573</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="17" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A18" s="13"/>
-      <c r="B18" s="15" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30" t="s">
+      <c r="A19" s="30"/>
+      <c r="B19" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="32" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -2054,13 +2066,13 @@
       </c>
     </row>
     <row r="20" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A20" s="12">
+      <c r="A20" s="13">
         <v>41575</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -2068,8 +2080,8 @@
       </c>
     </row>
     <row r="21" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33" t="s">
+      <c r="A21" s="33"/>
+      <c r="B21" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="34" t="s">
@@ -2081,20 +2093,20 @@
     </row>
     <row r="22" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
       <c r="A22" s="35"/>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="4"/>
     </row>
     <row r="23" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
       <c r="A23" s="35"/>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -2102,53 +2114,53 @@
       </c>
     </row>
     <row r="24" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="4"/>
     </row>
     <row r="25" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
       <c r="A25" s="35"/>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D25" s="4"/>
     </row>
     <row r="26" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
       <c r="A26" s="35"/>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="4"/>
     </row>
     <row r="27" ht="20.1" customHeight="1" spans="1:4">
       <c r="A27" s="36"/>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="33"/>
+      <c r="C27" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" ht="20.1" customHeight="1" spans="1:4">
       <c r="A28" s="37"/>
       <c r="B28" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="8"/>
@@ -2158,7 +2170,7 @@
       <c r="B29" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="8"/>
@@ -2170,27 +2182,27 @@
       <c r="B30" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="38"/>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="9" t="s">
         <v>104</v>
       </c>
       <c r="C31" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="33"/>
+      <c r="D31" s="9"/>
     </row>
     <row r="32" s="8" customFormat="1" spans="1:3">
       <c r="A32" s="39"/>
       <c r="B32" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="26" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2199,7 +2211,7 @@
       <c r="B33" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="26" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2210,7 +2222,7 @@
       <c r="B34" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="26" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2219,16 +2231,16 @@
       <c r="B35" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="36" s="9" customFormat="1" spans="1:3">
-      <c r="A36" s="41"/>
+      <c r="A36" s="36"/>
       <c r="B36" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C36" s="34" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2237,7 +2249,7 @@
       <c r="B37" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="26" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2246,7 +2258,7 @@
       <c r="B38" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="26" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2257,16 +2269,54 @@
       <c r="B39" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="40" s="9" customFormat="1" spans="1:3">
-      <c r="A40" s="41"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C40" s="42" t="s">
+      <c r="C40" s="34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" s="8" customFormat="1" spans="1:3">
+      <c r="A41" s="39"/>
+      <c r="B41" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" s="8" customFormat="1" spans="1:3">
+      <c r="A42" s="40">
+        <v>41221</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" s="8" customFormat="1" spans="1:3">
+      <c r="A43" s="39"/>
+      <c r="B43" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" s="10" customFormat="1" spans="1:3">
+      <c r="A44" s="41"/>
+      <c r="B44" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="42" t="s">
         <v>21</v>
       </c>
     </row>

--- a/日志.xlsx
+++ b/日志.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122">
   <si>
     <t>公平价网络推广团队2013年执行计划</t>
   </si>
@@ -391,16 +391,34 @@
   <si>
     <t>4.网络推广整理</t>
   </si>
+  <si>
+    <t>1.百度原创词条</t>
+  </si>
+  <si>
+    <t>2.太平洋、易车论坛新闻贴发布</t>
+  </si>
+  <si>
+    <t>3.西祠新闻贴跟帖</t>
+  </si>
+  <si>
+    <t>4.58 百姓 广告帖发布</t>
+  </si>
+  <si>
+    <t>5.微信、微博 汽车会报道跟踪</t>
+  </si>
+  <si>
+    <t>6.可合作网站  新浪、腾讯、网易 均无二手车频道</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -518,7 +536,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -542,15 +560,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -599,17 +608,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -634,7 +632,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -659,32 +657,31 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -715,38 +712,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -770,7 +764,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -794,7 +788,7 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -809,7 +803,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1190,74 +1184,74 @@
   </cols>
   <sheetData>
     <row r="1" ht="44.25" customHeight="1" spans="1:5">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-    </row>
-    <row r="2" s="46" customFormat="1" ht="29.25" customHeight="1" spans="1:8">
-      <c r="A2" s="49" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+    </row>
+    <row r="2" s="44" customFormat="1" ht="29.25" customHeight="1" spans="1:8">
+      <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="51"/>
     </row>
     <row r="3" s="5" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="52" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="55">
+      <c r="C3" s="53">
         <v>41556</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="54" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="35"/>
+      <c r="H3" s="34"/>
     </row>
     <row r="4" s="5" customFormat="1" ht="39.95" customHeight="1" spans="1:8">
-      <c r="A4" s="54"/>
-      <c r="B4" s="57" t="s">
+      <c r="A4" s="52"/>
+      <c r="B4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="55">
+      <c r="C4" s="53">
         <v>41559</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="56" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="35"/>
+      <c r="H4" s="34"/>
     </row>
     <row r="5" s="5" customFormat="1" ht="39.95" customHeight="1" spans="1:8">
-      <c r="A5" s="54"/>
-      <c r="B5" s="57" t="s">
+      <c r="A5" s="52"/>
+      <c r="B5" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="55">
+      <c r="C5" s="53">
         <v>41561</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -1266,129 +1260,129 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="35"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" s="5" customFormat="1" ht="39.95" customHeight="1" spans="1:8">
-      <c r="A6" s="54"/>
-      <c r="B6" s="57" t="s">
+      <c r="A6" s="52"/>
+      <c r="B6" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="53">
         <v>41563</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="35"/>
-    </row>
-    <row r="7" s="47" customFormat="1" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A7" s="54"/>
-      <c r="B7" s="59" t="s">
+      <c r="H6" s="34"/>
+    </row>
+    <row r="7" s="45" customFormat="1" ht="20.1" customHeight="1" spans="1:8">
+      <c r="A7" s="52"/>
+      <c r="B7" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="58">
         <v>41567</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="61"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="59"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A8" s="54"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="60">
+      <c r="C8" s="58">
         <v>41568</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="39"/>
+      <c r="H8" s="38"/>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A9" s="54"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="55">
+      <c r="C9" s="53">
         <v>41569</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="39"/>
+      <c r="H9" s="38"/>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A10" s="54"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="55"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="39"/>
+      <c r="H10" s="38"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:8">
-      <c r="A11" s="54"/>
-      <c r="B11" s="62" t="s">
+      <c r="A11" s="52"/>
+      <c r="B11" s="60" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="39"/>
+      <c r="H11" s="38"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A12" s="54"/>
-      <c r="B12" s="63" t="s">
+      <c r="A12" s="52"/>
+      <c r="B12" s="61" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="39"/>
+      <c r="H12" s="38"/>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A13" s="54"/>
-      <c r="B13" s="17" t="s">
+      <c r="A13" s="52"/>
+      <c r="B13" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="64" t="s">
+      <c r="E13" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="65"/>
-      <c r="H13" s="66"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="64"/>
     </row>
     <row r="14" ht="57" customHeight="1" spans="1:8">
-      <c r="A14" s="54"/>
-      <c r="B14" s="18" t="s">
+      <c r="A14" s="52"/>
+      <c r="B14" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="60">
+      <c r="C14" s="58">
         <v>41575</v>
       </c>
-      <c r="D14" s="67" t="s">
+      <c r="D14" s="65" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="8" t="s">
@@ -1396,17 +1390,17 @@
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="39"/>
+      <c r="H14" s="38"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="54"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="60">
+      <c r="C15" s="58">
         <v>41575</v>
       </c>
-      <c r="D15" s="68" t="s">
+      <c r="D15" s="66" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="8" t="s">
@@ -1414,17 +1408,17 @@
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="39"/>
+      <c r="H15" s="38"/>
     </row>
     <row r="16" ht="54" spans="1:8">
-      <c r="A16" s="54"/>
-      <c r="B16" s="18" t="s">
+      <c r="A16" s="52"/>
+      <c r="B16" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="60">
+      <c r="C16" s="58">
         <v>41575</v>
       </c>
-      <c r="D16" s="69" t="s">
+      <c r="D16" s="67" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="8" t="s">
@@ -1432,14 +1426,14 @@
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="39"/>
+      <c r="H16" s="38"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="70"/>
+      <c r="A17" s="68"/>
       <c r="B17" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="71">
+      <c r="C17" s="69">
         <v>41577</v>
       </c>
       <c r="D17" s="9"/>
@@ -1448,14 +1442,14 @@
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="36"/>
+      <c r="H17" s="35"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="54"/>
-      <c r="B18" s="18" t="s">
+      <c r="A18" s="52"/>
+      <c r="B18" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="72" t="s">
+      <c r="C18" s="70" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="8"/>
@@ -1473,7 +1467,7 @@
       <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="72" t="s">
+      <c r="C19" s="70" t="s">
         <v>35</v>
       </c>
       <c r="E19" t="s">
@@ -1482,10 +1476,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="5"/>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="72" t="s">
+      <c r="C20" s="70" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="8" t="s">
@@ -1497,7 +1491,7 @@
       <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="72" t="s">
+      <c r="C21" s="70" t="s">
         <v>42</v>
       </c>
       <c r="E21" t="s">
@@ -1509,7 +1503,7 @@
       <c r="B22" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="70" t="s">
         <v>35</v>
       </c>
       <c r="E22" t="s">
@@ -1521,7 +1515,7 @@
       <c r="B23" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="72" t="s">
+      <c r="C23" s="70" t="s">
         <v>45</v>
       </c>
       <c r="E23" s="8" t="s">
@@ -1533,7 +1527,7 @@
       <c r="B24" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="72" t="s">
+      <c r="C24" s="70" t="s">
         <v>47</v>
       </c>
       <c r="E24" s="8" t="s">
@@ -1597,9 +1591,9 @@
     <mergeCell ref="C9:C10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D15" r:id="rId1" display="http://baike.baidu.com/view/3594775.htm"/>
+    <hyperlink ref="D16" r:id="rId1" display="http://nanjing.baixing.com/cheliangqiugou/a287879099.html&#10;http://nj.58.com/daibanguohu/15736741762695x.shtml"/>
     <hyperlink ref="D14" r:id="rId2" display="http://www.xici.net/d195200793.htm&#10;http://www.xici.net/d195200029.htm&#10;http://www.xici.net/d195173957.htm" tooltip="http://www.xici.net/d195200793.htm_x000a_http://www.xici.net/d195200029.htm_x000a_http://www.xici.net/d195173957.htm"/>
-    <hyperlink ref="D16" r:id="rId3" display="http://nanjing.baixing.com/cheliangqiugou/a287879099.html&#10;http://nj.58.com/daibanguohu/15736741762695x.shtml"/>
+    <hyperlink ref="D15" r:id="rId3" display="http://baike.baidu.com/view/3594775.htm"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1618,7 +1612,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="11" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="10" customWidth="1"/>
     <col min="2" max="2" width="73.5" customWidth="1"/>
     <col min="3" max="3" width="38.75" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
@@ -1626,7 +1620,7 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="42" customHeight="1" spans="1:3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1636,212 +1630,212 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" s="43" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A2" s="44">
+    <row r="2" s="41" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A2" s="42">
         <v>41555</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="41" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A3" s="45">
+      <c r="A3" s="43">
         <v>41556</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="20"/>
     </row>
     <row r="4" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A4" s="45">
+      <c r="A4" s="43">
         <v>41557</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="20"/>
     </row>
     <row r="5" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A5" s="45">
+      <c r="A5" s="43">
         <v>41558</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="20"/>
     </row>
     <row r="6" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A6" s="45">
+      <c r="A6" s="43">
         <v>41559</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="21"/>
+      <c r="C6" s="20"/>
     </row>
     <row r="7" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A7" s="45">
+      <c r="A7" s="43">
         <v>41560</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="21"/>
+      <c r="C7" s="20"/>
     </row>
     <row r="8" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A8" s="45">
+      <c r="A8" s="43">
         <v>41561</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="21"/>
+      <c r="C8" s="20"/>
     </row>
     <row r="9" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A9" s="45">
+      <c r="A9" s="43">
         <v>41562</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="21"/>
+      <c r="C9" s="20"/>
     </row>
     <row r="10" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A10" s="45">
+      <c r="A10" s="43">
         <v>41563</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="21"/>
+      <c r="C10" s="20"/>
     </row>
     <row r="11" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A11" s="45">
+      <c r="A11" s="43">
         <v>41564</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="C11" s="20"/>
     </row>
     <row r="12" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A12" s="45">
+      <c r="A12" s="43">
         <v>41565</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="21"/>
+      <c r="C12" s="20"/>
     </row>
     <row r="13" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A13" s="45">
+      <c r="A13" s="43">
         <v>41566</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" s="20"/>
     </row>
     <row r="14" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A14" s="45">
+      <c r="A14" s="43">
         <v>41567</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="21"/>
+      <c r="C14" s="20"/>
     </row>
     <row r="15" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A15" s="45">
+      <c r="A15" s="43">
         <v>41568</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="21"/>
+      <c r="C15" s="20"/>
     </row>
     <row r="16" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A16" s="45">
+      <c r="A16" s="43">
         <v>41569</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="21"/>
+      <c r="C16" s="20"/>
     </row>
     <row r="17" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A17" s="45">
+      <c r="A17" s="43">
         <v>41570</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="21"/>
+      <c r="C17" s="20"/>
     </row>
     <row r="18" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A18" s="45">
+      <c r="A18" s="43">
         <v>41571</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="21"/>
+      <c r="C18" s="20"/>
     </row>
     <row r="19" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A19" s="45">
+      <c r="A19" s="43">
         <v>41572</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="21"/>
+      <c r="C19" s="20"/>
     </row>
     <row r="20" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A20" s="45">
+      <c r="A20" s="43">
         <v>41573</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="21" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A21" s="45">
+      <c r="A21" s="43">
         <v>41574</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="19" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="22" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A22" s="45">
+      <c r="A22" s="43">
         <v>41575</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="19" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="23" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A23" s="45">
+      <c r="A23" s="43">
         <v>41576</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="19" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="24" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A24" s="45">
+      <c r="A24" s="43">
         <v>41577</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="19" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="25" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A25" s="45">
+      <c r="A25" s="43">
         <v>41578</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="19" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1865,22 +1859,22 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="20" style="11" customWidth="1"/>
+    <col min="1" max="1" width="20" style="10" customWidth="1"/>
     <col min="2" max="2" width="80" customWidth="1"/>
     <col min="3" max="3" width="38.75" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="42" customHeight="1" spans="1:3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1891,7 +1885,7 @@
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A2" s="13">
+      <c r="A2" s="12">
         <v>41567</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1899,81 +1893,81 @@
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="15"/>
     </row>
     <row r="4" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>41568</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="17"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="16"/>
+      <c r="C5" s="15"/>
     </row>
     <row r="6" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>41569</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="18"/>
+      <c r="C6" s="17"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="16"/>
+      <c r="C7" s="15"/>
     </row>
     <row r="8" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A8" s="19">
+      <c r="A8" s="18">
         <v>41570</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" s="5" customFormat="1" ht="21" customHeight="1" spans="1:3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" s="6" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="23" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A11" s="13">
+      <c r="A11" s="12">
         <v>41571</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -1981,11 +1975,11 @@
       </c>
     </row>
     <row r="12" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A12" s="14"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -1993,72 +1987,72 @@
       </c>
     </row>
     <row r="13" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A13" s="13">
+      <c r="A13" s="12">
         <v>41572</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="27"/>
+      <c r="C13" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="26"/>
     </row>
     <row r="14" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A14" s="13"/>
-      <c r="B14" s="25" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="27"/>
+      <c r="C14" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="26"/>
     </row>
     <row r="15" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A15" s="14"/>
-      <c r="B15" s="28" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="29"/>
+      <c r="C15" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="28"/>
     </row>
     <row r="16" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A16" s="13">
+      <c r="A16" s="12">
         <v>41573</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="18" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="16" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A19" s="30"/>
-      <c r="B19" s="31" t="s">
+      <c r="A19" s="29"/>
+      <c r="B19" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -2066,13 +2060,13 @@
       </c>
     </row>
     <row r="20" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A20" s="13">
+      <c r="A20" s="12">
         <v>41575</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="25" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -2080,11 +2074,11 @@
       </c>
     </row>
     <row r="21" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A21" s="33"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -2092,21 +2086,21 @@
       </c>
     </row>
     <row r="22" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A22" s="35"/>
-      <c r="B22" s="17" t="s">
+      <c r="A22" s="34"/>
+      <c r="B22" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="25" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="4"/>
     </row>
     <row r="23" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A23" s="35"/>
-      <c r="B23" s="17" t="s">
+      <c r="A23" s="34"/>
+      <c r="B23" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="25" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -2114,209 +2108,260 @@
       </c>
     </row>
     <row r="24" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="25" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="4"/>
     </row>
     <row r="25" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A25" s="35"/>
-      <c r="B25" s="17" t="s">
+      <c r="A25" s="34"/>
+      <c r="B25" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="25" t="s">
         <v>21</v>
       </c>
       <c r="D25" s="4"/>
     </row>
     <row r="26" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A26" s="35"/>
-      <c r="B26" s="17" t="s">
+      <c r="A26" s="34"/>
+      <c r="B26" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="25" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="4"/>
     </row>
     <row r="27" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A27" s="36"/>
-      <c r="B27" s="15" t="s">
+      <c r="A27" s="35"/>
+      <c r="B27" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="25" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="9"/>
     </row>
     <row r="28" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A28" s="37"/>
+      <c r="A28" s="36"/>
       <c r="B28" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="25" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="37"/>
+      <c r="A29" s="36"/>
       <c r="B29" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="25" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="37">
+      <c r="A30" s="36">
         <v>41583</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="25" t="s">
         <v>21</v>
       </c>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="38"/>
+      <c r="A31" s="37"/>
       <c r="B31" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="9"/>
     </row>
     <row r="32" s="8" customFormat="1" spans="1:3">
-      <c r="A32" s="39"/>
+      <c r="A32" s="38"/>
       <c r="B32" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="25" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="33" s="8" customFormat="1" spans="1:3">
-      <c r="A33" s="39"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="25" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="34" s="8" customFormat="1" spans="1:3">
-      <c r="A34" s="40">
+      <c r="A34" s="39">
         <v>41584</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="25" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="35" s="8" customFormat="1" spans="1:3">
-      <c r="A35" s="39"/>
+      <c r="A35" s="38"/>
       <c r="B35" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="25" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="36" s="9" customFormat="1" spans="1:3">
-      <c r="A36" s="36"/>
+      <c r="A36" s="35"/>
       <c r="B36" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="33" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="37" s="8" customFormat="1" spans="1:3">
-      <c r="A37" s="39"/>
+      <c r="A37" s="38"/>
       <c r="B37" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="25" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="38" s="8" customFormat="1" spans="1:3">
-      <c r="A38" s="39"/>
+      <c r="A38" s="38"/>
       <c r="B38" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="25" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="39" s="8" customFormat="1" spans="1:3">
-      <c r="A39" s="40">
+      <c r="A39" s="39">
         <v>41220</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="25" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="40" s="9" customFormat="1" spans="1:3">
-      <c r="A40" s="36"/>
+      <c r="A40" s="35"/>
       <c r="B40" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="33" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="41" s="8" customFormat="1" spans="1:3">
-      <c r="A41" s="39"/>
+      <c r="A41" s="38"/>
       <c r="B41" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="25" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="42" s="8" customFormat="1" spans="1:3">
-      <c r="A42" s="40">
+      <c r="A42" s="39">
         <v>41221</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="25" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="43" s="8" customFormat="1" spans="1:3">
-      <c r="A43" s="39"/>
+      <c r="A43" s="38"/>
       <c r="B43" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C43" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" s="10" customFormat="1" spans="1:3">
-      <c r="A44" s="41"/>
-      <c r="B44" s="10" t="s">
+      <c r="C43" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" s="9" customFormat="1" spans="1:3">
+      <c r="A44" s="35"/>
+      <c r="B44" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C44" s="42" t="s">
+      <c r="C44" s="33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="40">
+        <v>41587</v>
+      </c>
+      <c r="B47" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" t="s">
         <v>21</v>
       </c>
     </row>

--- a/日志.xlsx
+++ b/日志.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125">
   <si>
     <t>公平价网络推广团队2013年执行计划</t>
   </si>
@@ -409,16 +409,25 @@
   <si>
     <t>6.可合作网站  新浪、腾讯、网易 均无二手车频道</t>
   </si>
+  <si>
+    <t>1.会场反馈信息整理</t>
+  </si>
+  <si>
+    <t>2.编辑相关新闻发布论坛</t>
+  </si>
+  <si>
+    <t>4.58、百姓广告帖</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -536,7 +545,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -560,6 +569,15 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -608,6 +626,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -632,7 +661,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -657,16 +686,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -679,7 +709,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -712,35 +742,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -764,7 +795,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -788,7 +819,7 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -803,7 +834,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1184,74 +1215,74 @@
   </cols>
   <sheetData>
     <row r="1" ht="44.25" customHeight="1" spans="1:5">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-    </row>
-    <row r="2" s="44" customFormat="1" ht="29.25" customHeight="1" spans="1:8">
-      <c r="A2" s="47" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+    </row>
+    <row r="2" s="46" customFormat="1" ht="29.25" customHeight="1" spans="1:8">
+      <c r="A2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="51"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="3" s="5" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="54" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="55">
         <v>41556</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="56" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="34"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" s="5" customFormat="1" ht="39.95" customHeight="1" spans="1:8">
-      <c r="A4" s="52"/>
-      <c r="B4" s="55" t="s">
+      <c r="A4" s="54"/>
+      <c r="B4" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="55">
         <v>41559</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="58" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="34"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" s="5" customFormat="1" ht="39.95" customHeight="1" spans="1:8">
-      <c r="A5" s="52"/>
-      <c r="B5" s="55" t="s">
+      <c r="A5" s="54"/>
+      <c r="B5" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="53">
+      <c r="C5" s="55">
         <v>41561</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -1260,129 +1291,129 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="34"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" s="5" customFormat="1" ht="39.95" customHeight="1" spans="1:8">
-      <c r="A6" s="52"/>
-      <c r="B6" s="55" t="s">
+      <c r="A6" s="54"/>
+      <c r="B6" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="55">
         <v>41563</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="34"/>
-    </row>
-    <row r="7" s="45" customFormat="1" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A7" s="52"/>
-      <c r="B7" s="57" t="s">
+      <c r="H6" s="35"/>
+    </row>
+    <row r="7" s="47" customFormat="1" ht="20.1" customHeight="1" spans="1:8">
+      <c r="A7" s="54"/>
+      <c r="B7" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="58">
+      <c r="C7" s="60">
         <v>41567</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="61"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A8" s="52"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="58">
+      <c r="C8" s="60">
         <v>41568</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="38"/>
+      <c r="H8" s="39"/>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A9" s="52"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="53">
+      <c r="C9" s="55">
         <v>41569</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="38"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A10" s="52"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="53"/>
+      <c r="C10" s="55"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="38"/>
+      <c r="H10" s="39"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:8">
-      <c r="A11" s="52"/>
-      <c r="B11" s="60" t="s">
+      <c r="A11" s="54"/>
+      <c r="B11" s="62" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="18" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="38"/>
+      <c r="H11" s="39"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A12" s="52"/>
-      <c r="B12" s="61" t="s">
+      <c r="A12" s="54"/>
+      <c r="B12" s="63" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="38"/>
+      <c r="H12" s="39"/>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:8">
-      <c r="A13" s="52"/>
-      <c r="B13" s="16" t="s">
+      <c r="A13" s="54"/>
+      <c r="B13" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="62" t="s">
+      <c r="E13" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="63"/>
-      <c r="H13" s="64"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="66"/>
     </row>
     <row r="14" ht="57" customHeight="1" spans="1:8">
-      <c r="A14" s="52"/>
-      <c r="B14" s="17" t="s">
+      <c r="A14" s="54"/>
+      <c r="B14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="58">
+      <c r="C14" s="60">
         <v>41575</v>
       </c>
-      <c r="D14" s="65" t="s">
+      <c r="D14" s="67" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="8" t="s">
@@ -1390,17 +1421,17 @@
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="38"/>
+      <c r="H14" s="39"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="52"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="58">
+      <c r="C15" s="60">
         <v>41575</v>
       </c>
-      <c r="D15" s="66" t="s">
+      <c r="D15" s="68" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="8" t="s">
@@ -1408,17 +1439,17 @@
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="38"/>
+      <c r="H15" s="39"/>
     </row>
     <row r="16" ht="54" spans="1:8">
-      <c r="A16" s="52"/>
-      <c r="B16" s="17" t="s">
+      <c r="A16" s="54"/>
+      <c r="B16" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="58">
+      <c r="C16" s="60">
         <v>41575</v>
       </c>
-      <c r="D16" s="67" t="s">
+      <c r="D16" s="69" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="8" t="s">
@@ -1426,14 +1457,14 @@
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="38"/>
+      <c r="H16" s="39"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="68"/>
+      <c r="A17" s="70"/>
       <c r="B17" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="69">
+      <c r="C17" s="71">
         <v>41577</v>
       </c>
       <c r="D17" s="9"/>
@@ -1442,14 +1473,14 @@
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="35"/>
+      <c r="H17" s="36"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="52"/>
-      <c r="B18" s="17" t="s">
+      <c r="A18" s="54"/>
+      <c r="B18" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="72" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="8"/>
@@ -1467,7 +1498,7 @@
       <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="72" t="s">
         <v>35</v>
       </c>
       <c r="E19" t="s">
@@ -1476,10 +1507,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="5"/>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="72" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="8" t="s">
@@ -1491,7 +1522,7 @@
       <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="70" t="s">
+      <c r="C21" s="72" t="s">
         <v>42</v>
       </c>
       <c r="E21" t="s">
@@ -1503,7 +1534,7 @@
       <c r="B22" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="70" t="s">
+      <c r="C22" s="72" t="s">
         <v>35</v>
       </c>
       <c r="E22" t="s">
@@ -1515,7 +1546,7 @@
       <c r="B23" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="72" t="s">
         <v>45</v>
       </c>
       <c r="E23" s="8" t="s">
@@ -1527,7 +1558,7 @@
       <c r="B24" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="70" t="s">
+      <c r="C24" s="72" t="s">
         <v>47</v>
       </c>
       <c r="E24" s="8" t="s">
@@ -1591,9 +1622,9 @@
     <mergeCell ref="C9:C10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D16" r:id="rId1" display="http://nanjing.baixing.com/cheliangqiugou/a287879099.html&#10;http://nj.58.com/daibanguohu/15736741762695x.shtml"/>
+    <hyperlink ref="D15" r:id="rId1" display="http://baike.baidu.com/view/3594775.htm"/>
     <hyperlink ref="D14" r:id="rId2" display="http://www.xici.net/d195200793.htm&#10;http://www.xici.net/d195200029.htm&#10;http://www.xici.net/d195173957.htm" tooltip="http://www.xici.net/d195200793.htm_x000a_http://www.xici.net/d195200029.htm_x000a_http://www.xici.net/d195173957.htm"/>
-    <hyperlink ref="D15" r:id="rId3" display="http://baike.baidu.com/view/3594775.htm"/>
+    <hyperlink ref="D16" r:id="rId3" display="http://nanjing.baixing.com/cheliangqiugou/a287879099.html&#10;http://nj.58.com/daibanguohu/15736741762695x.shtml"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1612,7 +1643,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="10" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="11" customWidth="1"/>
     <col min="2" max="2" width="73.5" customWidth="1"/>
     <col min="3" max="3" width="38.75" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
@@ -1620,7 +1651,7 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="42" customHeight="1" spans="1:3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1630,212 +1661,212 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" s="41" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A2" s="42">
+    <row r="2" s="43" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
+      <c r="A2" s="44">
         <v>41555</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="43" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A3" s="43">
+      <c r="A3" s="45">
         <v>41556</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="21"/>
     </row>
     <row r="4" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A4" s="43">
+      <c r="A4" s="45">
         <v>41557</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="21"/>
     </row>
     <row r="5" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A5" s="43">
+      <c r="A5" s="45">
         <v>41558</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="21"/>
     </row>
     <row r="6" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A6" s="43">
+      <c r="A6" s="45">
         <v>41559</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="20"/>
+      <c r="C6" s="21"/>
     </row>
     <row r="7" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A7" s="43">
+      <c r="A7" s="45">
         <v>41560</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="21"/>
     </row>
     <row r="8" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A8" s="43">
+      <c r="A8" s="45">
         <v>41561</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="20"/>
+      <c r="C8" s="21"/>
     </row>
     <row r="9" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A9" s="43">
+      <c r="A9" s="45">
         <v>41562</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="21"/>
     </row>
     <row r="10" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A10" s="43">
+      <c r="A10" s="45">
         <v>41563</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="20"/>
+      <c r="C10" s="21"/>
     </row>
     <row r="11" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A11" s="43">
+      <c r="A11" s="45">
         <v>41564</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="21"/>
     </row>
     <row r="12" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A12" s="43">
+      <c r="A12" s="45">
         <v>41565</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="20"/>
+      <c r="C12" s="21"/>
     </row>
     <row r="13" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A13" s="43">
+      <c r="A13" s="45">
         <v>41566</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="20"/>
+      <c r="C13" s="21"/>
     </row>
     <row r="14" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A14" s="43">
+      <c r="A14" s="45">
         <v>41567</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="20"/>
+      <c r="C14" s="21"/>
     </row>
     <row r="15" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A15" s="43">
+      <c r="A15" s="45">
         <v>41568</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="21"/>
     </row>
     <row r="16" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A16" s="43">
+      <c r="A16" s="45">
         <v>41569</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="21"/>
     </row>
     <row r="17" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A17" s="43">
+      <c r="A17" s="45">
         <v>41570</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="20"/>
+      <c r="C17" s="21"/>
     </row>
     <row r="18" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A18" s="43">
+      <c r="A18" s="45">
         <v>41571</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="21"/>
     </row>
     <row r="19" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A19" s="43">
+      <c r="A19" s="45">
         <v>41572</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="20"/>
+      <c r="C19" s="21"/>
     </row>
     <row r="20" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A20" s="43">
+      <c r="A20" s="45">
         <v>41573</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="20" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="21" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A21" s="43">
+      <c r="A21" s="45">
         <v>41574</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="20" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="22" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A22" s="43">
+      <c r="A22" s="45">
         <v>41575</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="20" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="23" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A23" s="43">
+      <c r="A23" s="45">
         <v>41576</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="20" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="24" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A24" s="43">
+      <c r="A24" s="45">
         <v>41577</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="20" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="25" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A25" s="43">
+      <c r="A25" s="45">
         <v>41578</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="20" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1859,22 +1890,22 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="20" style="10" customWidth="1"/>
+    <col min="1" max="1" width="20" style="11" customWidth="1"/>
     <col min="2" max="2" width="80" customWidth="1"/>
     <col min="3" max="3" width="38.75" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="42" customHeight="1" spans="1:3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1885,7 +1916,7 @@
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:2">
-      <c r="A2" s="12">
+      <c r="A2" s="13">
         <v>41567</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1893,81 +1924,81 @@
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="16"/>
     </row>
     <row r="4" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A4" s="12">
+      <c r="A4" s="13">
         <v>41568</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="15"/>
+      <c r="C5" s="16"/>
     </row>
     <row r="6" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A6" s="12">
+      <c r="A6" s="13">
         <v>41569</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="18"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="16"/>
     </row>
     <row r="8" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A8" s="18">
+      <c r="A8" s="19">
         <v>41570</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" s="5" customFormat="1" ht="21" customHeight="1" spans="1:3">
-      <c r="A9" s="18"/>
-      <c r="B9" s="21" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="21" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" s="6" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="22" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="24" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A11" s="12">
+      <c r="A11" s="13">
         <v>41571</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="18" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -1975,11 +2006,11 @@
       </c>
     </row>
     <row r="12" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A12" s="13"/>
-      <c r="B12" s="15" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -1987,72 +2018,72 @@
       </c>
     </row>
     <row r="13" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A13" s="12">
+      <c r="A13" s="13">
         <v>41572</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="26"/>
+      <c r="C13" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="27"/>
     </row>
     <row r="14" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A14" s="12"/>
-      <c r="B14" s="24" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="26"/>
+      <c r="C14" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="27"/>
     </row>
     <row r="15" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A15" s="13"/>
-      <c r="B15" s="27" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="28"/>
+      <c r="C15" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="29"/>
     </row>
     <row r="16" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A16" s="12">
+      <c r="A16" s="13">
         <v>41573</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="17" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A18" s="13"/>
-      <c r="B18" s="15" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30" t="s">
+      <c r="A19" s="30"/>
+      <c r="B19" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="32" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -2060,13 +2091,13 @@
       </c>
     </row>
     <row r="20" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A20" s="12">
+      <c r="A20" s="13">
         <v>41575</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -2074,11 +2105,11 @@
       </c>
     </row>
     <row r="21" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A21" s="32"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -2086,21 +2117,21 @@
       </c>
     </row>
     <row r="22" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A22" s="34"/>
-      <c r="B22" s="16" t="s">
+      <c r="A22" s="35"/>
+      <c r="B22" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="4"/>
     </row>
     <row r="23" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A23" s="34"/>
-      <c r="B23" s="16" t="s">
+      <c r="A23" s="35"/>
+      <c r="B23" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -2108,260 +2139,300 @@
       </c>
     </row>
     <row r="24" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="4"/>
     </row>
     <row r="25" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A25" s="34"/>
-      <c r="B25" s="16" t="s">
+      <c r="A25" s="35"/>
+      <c r="B25" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D25" s="4"/>
     </row>
     <row r="26" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A26" s="34"/>
-      <c r="B26" s="16" t="s">
+      <c r="A26" s="35"/>
+      <c r="B26" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="4"/>
     </row>
     <row r="27" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A27" s="35"/>
-      <c r="B27" s="14" t="s">
+      <c r="A27" s="36"/>
+      <c r="B27" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="9"/>
     </row>
     <row r="28" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A28" s="36"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="36"/>
+      <c r="A29" s="37"/>
       <c r="B29" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="36">
+      <c r="A30" s="37">
         <v>41583</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="37"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="9"/>
     </row>
     <row r="32" s="8" customFormat="1" spans="1:3">
-      <c r="A32" s="38"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="33" s="8" customFormat="1" spans="1:3">
-      <c r="A33" s="38"/>
+      <c r="A33" s="39"/>
       <c r="B33" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="34" s="8" customFormat="1" spans="1:3">
-      <c r="A34" s="39">
+      <c r="A34" s="40">
         <v>41584</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="35" s="8" customFormat="1" spans="1:3">
-      <c r="A35" s="38"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="36" s="9" customFormat="1" spans="1:3">
-      <c r="A36" s="35"/>
+      <c r="A36" s="36"/>
       <c r="B36" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="34" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="37" s="8" customFormat="1" spans="1:3">
-      <c r="A37" s="38"/>
+      <c r="A37" s="39"/>
       <c r="B37" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="38" s="8" customFormat="1" spans="1:3">
-      <c r="A38" s="38"/>
+      <c r="A38" s="39"/>
       <c r="B38" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="39" s="8" customFormat="1" spans="1:3">
-      <c r="A39" s="39">
+      <c r="A39" s="40">
         <v>41220</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="40" s="9" customFormat="1" spans="1:3">
-      <c r="A40" s="35"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C40" s="33" t="s">
+      <c r="C40" s="34" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="41" s="8" customFormat="1" spans="1:3">
-      <c r="A41" s="38"/>
+      <c r="A41" s="39"/>
       <c r="B41" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="42" s="8" customFormat="1" spans="1:3">
-      <c r="A42" s="39">
+      <c r="A42" s="40">
         <v>41221</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="43" s="8" customFormat="1" spans="1:3">
-      <c r="A43" s="38"/>
+      <c r="A43" s="39"/>
       <c r="B43" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="44" s="9" customFormat="1" spans="1:3">
-      <c r="A44" s="35"/>
+      <c r="A44" s="36"/>
       <c r="B44" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C44" s="33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3">
-      <c r="B45" t="s">
+      <c r="C44" s="34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" s="8" customFormat="1" spans="1:3">
+      <c r="A45" s="39"/>
+      <c r="B45" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C45" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3">
-      <c r="B46" t="s">
+      <c r="C45" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" s="8" customFormat="1" spans="1:3">
+      <c r="A46" s="39"/>
+      <c r="B46" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="C46" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" s="8" customFormat="1" spans="1:3">
       <c r="A47" s="40">
         <v>41587</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C47" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3">
-      <c r="B48" t="s">
+      <c r="C47" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" s="8" customFormat="1" spans="1:3">
+      <c r="A48" s="39"/>
+      <c r="B48" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C48" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3">
-      <c r="B49" t="s">
+      <c r="C48" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" s="8" customFormat="1" spans="1:3">
+      <c r="A49" s="39"/>
+      <c r="B49" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C49" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3">
-      <c r="B50" t="s">
+      <c r="C49" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" s="10" customFormat="1" spans="1:3">
+      <c r="A50" s="41"/>
+      <c r="B50" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="42">
+        <v>41588</v>
+      </c>
+      <c r="B53" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>21</v>
       </c>
     </row>

--- a/日志.xlsx
+++ b/日志.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130">
   <si>
     <t>公平价网络推广团队2013年执行计划</t>
   </si>
@@ -418,16 +418,31 @@
   <si>
     <t>4.58、百姓广告帖</t>
   </si>
+  <si>
+    <t>1.论坛发帖</t>
+  </si>
+  <si>
+    <t>2.广告发布（百姓、58）</t>
+  </si>
+  <si>
+    <t>3.词条录入二手车过户、二手车过户费用、</t>
+  </si>
+  <si>
+    <t>4.微信 二手车论坛会议</t>
+  </si>
+  <si>
+    <t>4.微博发布更新</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -1622,9 +1637,9 @@
     <mergeCell ref="C9:C10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D15" r:id="rId1" display="http://baike.baidu.com/view/3594775.htm"/>
+    <hyperlink ref="D16" r:id="rId1" display="http://nanjing.baixing.com/cheliangqiugou/a287879099.html&#10;http://nj.58.com/daibanguohu/15736741762695x.shtml"/>
     <hyperlink ref="D14" r:id="rId2" display="http://www.xici.net/d195200793.htm&#10;http://www.xici.net/d195200029.htm&#10;http://www.xici.net/d195173957.htm" tooltip="http://www.xici.net/d195200793.htm_x000a_http://www.xici.net/d195200029.htm_x000a_http://www.xici.net/d195173957.htm"/>
-    <hyperlink ref="D16" r:id="rId3" display="http://nanjing.baixing.com/cheliangqiugou/a287879099.html&#10;http://nj.58.com/daibanguohu/15736741762695x.shtml"/>
+    <hyperlink ref="D15" r:id="rId3" display="http://baike.baidu.com/view/3594775.htm"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1890,10 +1905,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2392,48 +2407,79 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" s="10" customFormat="1" spans="1:3">
-      <c r="A50" s="41"/>
-      <c r="B50" s="10" t="s">
+    <row r="50" s="9" customFormat="1" spans="1:3">
+      <c r="A50" s="36"/>
+      <c r="B50" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C50" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3">
-      <c r="B51" t="s">
+      <c r="C50" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" s="8" customFormat="1" spans="1:3">
+      <c r="A51" s="39"/>
+      <c r="B51" s="8" t="s">
         <v>122</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="2:3">
-      <c r="B52" t="s">
+    <row r="52" s="8" customFormat="1" spans="1:3">
+      <c r="A52" s="39"/>
+      <c r="B52" s="8" t="s">
         <v>123</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="42">
+    <row r="53" s="8" customFormat="1" spans="1:3">
+      <c r="A53" s="40">
         <v>41588</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="8" t="s">
         <v>114</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="2:3">
-      <c r="B54" t="s">
+    <row r="54" s="10" customFormat="1" spans="1:3">
+      <c r="A54" s="41"/>
+      <c r="B54" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C54" s="8" t="s">
-        <v>21</v>
+      <c r="C54" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="42">
+        <v>41589</v>
+      </c>
+      <c r="B56" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
